--- a/Water-Quality-Prediction/Code/Narmada.xlsx
+++ b/Water-Quality-Prediction/Code/Narmada.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IMP DOCUMENT\College material\SEM#5\Data-Minining-Project-2022\Water quality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IMP DOCUMENT\College material\SEM#5\Data-Minining-Project-2022\Water-Quality-Prediction\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="72">
   <si>
     <r>
       <rPr>
@@ -615,6 +615,9 @@
   </si>
   <si>
     <t>FS_MAX</t>
+  </si>
+  <si>
+    <t>Water Quality Data Narmada</t>
   </si>
 </sst>
 </file>
@@ -679,7 +682,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -728,11 +731,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -865,47 +877,50 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1211,192 +1226,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V47"/>
+  <dimension ref="A1:V48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="40" t="s">
+      <c r="C2" s="57"/>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F2" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G2" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H2" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I2" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J2" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K2" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L2" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="M2" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="N2" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="O2" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="P2" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="Q1" s="41" t="s">
+      <c r="Q2" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="R2" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="41" t="s">
+      <c r="S2" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="T2" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="U1" s="41" t="s">
+      <c r="U2" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="V1" s="41" t="s">
+      <c r="V2" s="41" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A2" s="34">
-        <v>3321</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="7">
-        <v>18.5</v>
-      </c>
-      <c r="F2" s="8">
-        <v>29.5</v>
-      </c>
-      <c r="G2" s="6">
-        <v>7.5</v>
-      </c>
-      <c r="H2" s="16">
-        <v>8.4</v>
-      </c>
-      <c r="I2" s="8">
-        <v>7.5</v>
-      </c>
-      <c r="J2" s="11">
-        <v>8.01</v>
-      </c>
-      <c r="K2" s="12">
-        <v>218</v>
-      </c>
-      <c r="L2" s="5">
-        <v>387</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="8">
-        <v>1.7</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" s="11">
-        <v>0.49</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>2</v>
-      </c>
-      <c r="R2" s="5">
-        <v>18</v>
-      </c>
-      <c r="S2" s="5">
-        <v>26</v>
-      </c>
-      <c r="T2" s="5">
-        <v>43</v>
-      </c>
-      <c r="U2" s="5">
-        <v>2</v>
-      </c>
-      <c r="V2" s="5">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="34">
-        <v>1242</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="47"/>
+        <v>3321</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="49"/>
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9">
-        <v>18</v>
+      <c r="E3" s="7">
+        <v>18.5</v>
       </c>
       <c r="F3" s="8">
         <v>29.5</v>
       </c>
       <c r="G3" s="6">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="H3" s="16">
-        <v>7.7</v>
-      </c>
-      <c r="I3" s="5">
-        <v>7</v>
-      </c>
-      <c r="J3" s="6">
-        <v>7.9</v>
+        <v>8.4</v>
+      </c>
+      <c r="I3" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="J3" s="11">
+        <v>8.01</v>
       </c>
       <c r="K3" s="12">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="L3" s="5">
-        <v>2216</v>
+        <v>387</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N3" s="8">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="O3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="P3" s="11">
-        <v>0.42</v>
+        <v>0.49</v>
       </c>
       <c r="Q3" s="5">
         <v>2</v>
@@ -1405,10 +1380,10 @@
         <v>18</v>
       </c>
       <c r="S3" s="5">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="T3" s="5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U3" s="5">
         <v>2</v>
@@ -1419,128 +1394,128 @@
     </row>
     <row r="4" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A4" s="34">
-        <v>1241</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="47"/>
+        <v>1242</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="45"/>
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="7">
-        <v>17.2</v>
-      </c>
-      <c r="F4" s="5">
-        <v>26</v>
+      <c r="E4" s="9">
+        <v>18</v>
+      </c>
+      <c r="F4" s="8">
+        <v>29.5</v>
       </c>
       <c r="G4" s="6">
-        <v>6.8</v>
+        <v>3.6</v>
       </c>
       <c r="H4" s="16">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I4" s="8">
-        <v>7.2</v>
+        <v>7.7</v>
+      </c>
+      <c r="I4" s="5">
+        <v>7</v>
       </c>
       <c r="J4" s="6">
-        <v>8.6999999999999993</v>
+        <v>7.9</v>
       </c>
       <c r="K4" s="12">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="L4" s="5">
-        <v>363</v>
+        <v>2216</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N4" s="8">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="O4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="6">
-        <v>0.8</v>
+      <c r="P4" s="11">
+        <v>0.42</v>
       </c>
       <c r="Q4" s="5">
         <v>2</v>
       </c>
       <c r="R4" s="5">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="S4" s="5">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="T4" s="5">
-        <v>48</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>4</v>
+        <v>44</v>
+      </c>
+      <c r="U4" s="5">
+        <v>2</v>
+      </c>
+      <c r="V4" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="34">
-        <v>1240</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="47"/>
+        <v>1241</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="45"/>
       <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="9">
-        <v>17</v>
-      </c>
-      <c r="F5" s="8">
-        <v>23.5</v>
-      </c>
-      <c r="G5" s="5">
-        <v>7</v>
+      <c r="E5" s="7">
+        <v>17.2</v>
+      </c>
+      <c r="F5" s="5">
+        <v>26</v>
+      </c>
+      <c r="G5" s="6">
+        <v>6.8</v>
       </c>
       <c r="H5" s="16">
-        <v>8.6</v>
-      </c>
-      <c r="I5" s="5">
-        <v>7</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I5" s="8">
+        <v>7.2</v>
       </c>
       <c r="J5" s="6">
-        <v>8.3000000000000007</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="K5" s="12">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="L5" s="5">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N5" s="8">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="O5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="11">
-        <v>1.1599999999999999</v>
+      <c r="P5" s="6">
+        <v>0.8</v>
       </c>
       <c r="Q5" s="5">
         <v>2</v>
       </c>
       <c r="R5" s="5">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="S5" s="5">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="T5" s="5">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U5" s="4" t="s">
         <v>4</v>
@@ -1551,182 +1526,182 @@
     </row>
     <row r="6" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A6" s="34">
-        <v>2106</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="47"/>
+        <v>1240</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="45"/>
       <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="9">
-        <v>22</v>
-      </c>
-      <c r="F6" s="5">
-        <v>28</v>
+        <v>17</v>
+      </c>
+      <c r="F6" s="8">
+        <v>23.5</v>
       </c>
       <c r="G6" s="5">
         <v>7</v>
       </c>
       <c r="H6" s="16">
-        <v>7.9</v>
-      </c>
-      <c r="I6" s="8">
-        <v>7.3</v>
+        <v>8.6</v>
+      </c>
+      <c r="I6" s="5">
+        <v>7</v>
       </c>
       <c r="J6" s="6">
         <v>8.3000000000000007</v>
       </c>
       <c r="K6" s="12">
-        <v>279</v>
+        <v>170</v>
       </c>
       <c r="L6" s="5">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="5">
-        <v>2</v>
-      </c>
-      <c r="O6" s="14">
-        <v>0.31</v>
-      </c>
-      <c r="P6" s="9">
-        <v>51</v>
+      <c r="N6" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="11">
+        <v>1.1599999999999999</v>
       </c>
       <c r="Q6" s="5">
         <v>2</v>
       </c>
       <c r="R6" s="5">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="S6" s="5">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="T6" s="5">
         <v>49</v>
       </c>
-      <c r="U6" s="5">
-        <v>2</v>
-      </c>
-      <c r="V6" s="5">
-        <v>2</v>
+      <c r="U6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="34">
-        <v>45</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="47"/>
+        <v>2106</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="45"/>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F7" s="5">
-        <v>24</v>
-      </c>
-      <c r="G7" s="6">
+        <v>28</v>
+      </c>
+      <c r="G7" s="5">
+        <v>7</v>
+      </c>
+      <c r="H7" s="16">
+        <v>7.9</v>
+      </c>
+      <c r="I7" s="8">
         <v>7.3</v>
       </c>
-      <c r="H7" s="16">
-        <v>8.6</v>
-      </c>
-      <c r="I7" s="8">
-        <v>7.4</v>
-      </c>
       <c r="J7" s="6">
-        <v>8.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="K7" s="12">
-        <v>214</v>
+        <v>279</v>
       </c>
       <c r="L7" s="5">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="8">
-        <v>1.3</v>
+      <c r="N7" s="5">
+        <v>2</v>
       </c>
       <c r="O7" s="14">
-        <v>0.51</v>
-      </c>
-      <c r="P7" s="11">
-        <v>1.33</v>
+        <v>0.31</v>
+      </c>
+      <c r="P7" s="9">
+        <v>51</v>
       </c>
       <c r="Q7" s="5">
         <v>2</v>
       </c>
       <c r="R7" s="5">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="S7" s="5">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="T7" s="5">
-        <v>47</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>4</v>
+        <v>49</v>
+      </c>
+      <c r="U7" s="5">
+        <v>2</v>
+      </c>
+      <c r="V7" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="34">
-        <v>1239</v>
-      </c>
-      <c r="B8" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="47"/>
+        <v>45</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="45"/>
       <c r="D8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="9">
         <v>20</v>
       </c>
-      <c r="F8" s="8">
-        <v>24.6</v>
+      <c r="F8" s="5">
+        <v>24</v>
       </c>
       <c r="G8" s="6">
-        <v>7.2</v>
-      </c>
-      <c r="H8" s="5">
-        <v>8</v>
+        <v>7.3</v>
+      </c>
+      <c r="H8" s="16">
+        <v>8.6</v>
       </c>
       <c r="I8" s="8">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="J8" s="6">
-        <v>8.3000000000000007</v>
+        <v>8.5</v>
       </c>
       <c r="K8" s="12">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="L8" s="5">
-        <v>594</v>
+        <v>340</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N8" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>3</v>
+        <v>1.3</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0.51</v>
       </c>
       <c r="P8" s="11">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="Q8" s="5">
         <v>2</v>
@@ -1735,10 +1710,10 @@
         <v>2</v>
       </c>
       <c r="S8" s="5">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T8" s="5">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U8" s="4" t="s">
         <v>4</v>
@@ -1749,50 +1724,50 @@
     </row>
     <row r="9" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="34">
-        <v>1431</v>
-      </c>
-      <c r="B9" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="47"/>
+        <v>1239</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="45"/>
       <c r="D9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" s="8">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="G9" s="6">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="H9" s="5">
         <v>8</v>
       </c>
       <c r="I9" s="8">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="J9" s="6">
-        <v>8.1</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="K9" s="12">
-        <v>258</v>
+        <v>152</v>
       </c>
       <c r="L9" s="5">
-        <v>338</v>
+        <v>594</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N9" s="8">
-        <v>1.3</v>
-      </c>
-      <c r="O9" s="14">
-        <v>0.61</v>
+        <v>1.2</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>3</v>
       </c>
       <c r="P9" s="11">
-        <v>1.1100000000000001</v>
+        <v>1.24</v>
       </c>
       <c r="Q9" s="5">
         <v>2</v>
@@ -1801,10 +1776,10 @@
         <v>2</v>
       </c>
       <c r="S9" s="5">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="T9" s="5">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U9" s="4" t="s">
         <v>4</v>
@@ -1815,62 +1790,62 @@
     </row>
     <row r="10" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="34">
-        <v>2099</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="47"/>
+        <v>1431</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="45"/>
       <c r="D10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="9">
-        <v>17</v>
-      </c>
-      <c r="F10" s="5">
-        <v>25</v>
-      </c>
-      <c r="G10" s="5">
-        <v>7</v>
-      </c>
-      <c r="H10" s="16">
-        <v>8.6999999999999993</v>
+        <v>19</v>
+      </c>
+      <c r="F10" s="8">
+        <v>24.3</v>
+      </c>
+      <c r="G10" s="6">
+        <v>7.3</v>
+      </c>
+      <c r="H10" s="5">
+        <v>8</v>
       </c>
       <c r="I10" s="8">
         <v>7.4</v>
       </c>
       <c r="J10" s="6">
-        <v>8.6</v>
+        <v>8.1</v>
       </c>
       <c r="K10" s="12">
-        <v>130</v>
+        <v>258</v>
       </c>
       <c r="L10" s="5">
-        <v>378</v>
+        <v>338</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N10" s="8">
-        <v>1.9</v>
-      </c>
-      <c r="O10" s="10" t="s">
-        <v>3</v>
+        <v>1.3</v>
+      </c>
+      <c r="O10" s="14">
+        <v>0.61</v>
       </c>
       <c r="P10" s="11">
-        <v>0.87</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="Q10" s="5">
         <v>2</v>
       </c>
       <c r="R10" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S10" s="5">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="T10" s="5">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U10" s="4" t="s">
         <v>4</v>
@@ -1881,12 +1856,12 @@
     </row>
     <row r="11" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A11" s="34">
-        <v>1234</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="47"/>
+        <v>2099</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="45"/>
       <c r="D11" s="4" t="s">
         <v>5</v>
       </c>
@@ -1894,103 +1869,103 @@
         <v>17</v>
       </c>
       <c r="F11" s="5">
-        <v>32</v>
-      </c>
-      <c r="G11" s="6">
-        <v>8.3000000000000007</v>
+        <v>25</v>
+      </c>
+      <c r="G11" s="5">
+        <v>7</v>
       </c>
       <c r="H11" s="16">
-        <v>9.8000000000000007</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I11" s="8">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="J11" s="6">
-        <v>7.9</v>
+        <v>8.6</v>
       </c>
       <c r="K11" s="12">
-        <v>246</v>
+        <v>130</v>
       </c>
       <c r="L11" s="5">
-        <v>298</v>
-      </c>
-      <c r="M11" s="8">
-        <v>1.1000000000000001</v>
+        <v>378</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="N11" s="8">
-        <v>1.7</v>
-      </c>
-      <c r="O11" s="14">
-        <v>0.95</v>
+        <v>1.9</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>3</v>
       </c>
       <c r="P11" s="11">
-        <v>1.75</v>
+        <v>0.87</v>
       </c>
       <c r="Q11" s="5">
         <v>2</v>
       </c>
       <c r="R11" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S11" s="5">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="T11" s="5">
-        <v>63</v>
-      </c>
-      <c r="U11" s="5">
-        <v>2</v>
-      </c>
-      <c r="V11" s="5">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A12" s="34">
-        <v>2112</v>
-      </c>
-      <c r="B12" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="47"/>
+        <v>1234</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="45"/>
       <c r="D12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="9">
-        <v>19</v>
-      </c>
-      <c r="F12" s="8">
-        <v>24.2</v>
+        <v>17</v>
+      </c>
+      <c r="F12" s="5">
+        <v>32</v>
       </c>
       <c r="G12" s="6">
-        <v>7.2</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="H12" s="16">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I12" s="5">
-        <v>7</v>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I12" s="8">
+        <v>7.5</v>
       </c>
       <c r="J12" s="6">
-        <v>8.3000000000000007</v>
+        <v>7.9</v>
       </c>
       <c r="K12" s="12">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="L12" s="5">
-        <v>489</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>3</v>
+        <v>298</v>
+      </c>
+      <c r="M12" s="8">
+        <v>1.1000000000000001</v>
       </c>
       <c r="N12" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="O12" s="10" t="s">
-        <v>3</v>
+        <v>1.7</v>
+      </c>
+      <c r="O12" s="14">
+        <v>0.95</v>
       </c>
       <c r="P12" s="11">
-        <v>3.65</v>
+        <v>1.75</v>
       </c>
       <c r="Q12" s="5">
         <v>2</v>
@@ -1999,88 +1974,88 @@
         <v>2</v>
       </c>
       <c r="S12" s="5">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="T12" s="5">
-        <v>49</v>
-      </c>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
+        <v>63</v>
+      </c>
+      <c r="U12" s="5">
+        <v>2</v>
+      </c>
+      <c r="V12" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="34">
-        <v>44</v>
-      </c>
-      <c r="B13" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="47"/>
+        <v>2112</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="45"/>
       <c r="D13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="9">
-        <v>18</v>
-      </c>
-      <c r="F13" s="5">
-        <v>31</v>
+        <v>19</v>
+      </c>
+      <c r="F13" s="8">
+        <v>24.2</v>
       </c>
       <c r="G13" s="6">
-        <v>5.8</v>
+        <v>7.2</v>
       </c>
       <c r="H13" s="16">
-        <v>9.1</v>
-      </c>
-      <c r="I13" s="8">
-        <v>7.6</v>
-      </c>
-      <c r="J13" s="11">
-        <v>8.39</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I13" s="5">
+        <v>7</v>
+      </c>
+      <c r="J13" s="6">
+        <v>8.3000000000000007</v>
       </c>
       <c r="K13" s="12">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L13" s="5">
-        <v>367</v>
-      </c>
-      <c r="M13" s="5">
-        <v>1</v>
+        <v>489</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="N13" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="O13" s="14">
-        <v>1.62</v>
+        <v>1.2</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>3</v>
       </c>
       <c r="P13" s="11">
-        <v>7.64</v>
+        <v>3.65</v>
       </c>
       <c r="Q13" s="5">
         <v>2</v>
       </c>
       <c r="R13" s="5">
-        <v>35000</v>
+        <v>2</v>
       </c>
       <c r="S13" s="5">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="T13" s="5">
-        <v>160000</v>
-      </c>
-      <c r="U13" s="5">
-        <v>2</v>
-      </c>
-      <c r="V13" s="5">
-        <v>8</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
     </row>
     <row r="14" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A14" s="34">
-        <v>1235</v>
-      </c>
-      <c r="B14" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="47"/>
+        <v>44</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="45"/>
       <c r="D14" s="4" t="s">
         <v>5</v>
       </c>
@@ -2088,25 +2063,25 @@
         <v>18</v>
       </c>
       <c r="F14" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G14" s="6">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="H14" s="16">
-        <v>8.6999999999999993</v>
+        <v>9.1</v>
       </c>
       <c r="I14" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="J14" s="6">
-        <v>8.1999999999999993</v>
+        <v>7.6</v>
+      </c>
+      <c r="J14" s="11">
+        <v>8.39</v>
       </c>
       <c r="K14" s="12">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="L14" s="5">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M14" s="5">
         <v>1</v>
@@ -2115,19 +2090,19 @@
         <v>1.5</v>
       </c>
       <c r="O14" s="14">
-        <v>2.12</v>
+        <v>1.62</v>
       </c>
       <c r="P14" s="11">
-        <v>8.1199999999999992</v>
+        <v>7.64</v>
       </c>
       <c r="Q14" s="5">
         <v>2</v>
       </c>
       <c r="R14" s="5">
-        <v>57000</v>
+        <v>35000</v>
       </c>
       <c r="S14" s="5">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="T14" s="5">
         <v>160000</v>
@@ -2136,661 +2111,661 @@
         <v>2</v>
       </c>
       <c r="V14" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="34">
-        <v>2113</v>
-      </c>
-      <c r="B15" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="47"/>
+        <v>1235</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="45"/>
       <c r="D15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="9">
+        <v>18</v>
+      </c>
+      <c r="F15" s="5">
+        <v>30</v>
+      </c>
+      <c r="G15" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="H15" s="16">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I15" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="J15" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K15" s="12">
+        <v>278</v>
+      </c>
+      <c r="L15" s="5">
+        <v>365</v>
+      </c>
+      <c r="M15" s="5">
+        <v>1</v>
+      </c>
+      <c r="N15" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="O15" s="14">
+        <v>2.12</v>
+      </c>
+      <c r="P15" s="11">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>2</v>
+      </c>
+      <c r="R15" s="5">
+        <v>57000</v>
+      </c>
+      <c r="S15" s="5">
+        <v>84</v>
+      </c>
+      <c r="T15" s="5">
+        <v>160000</v>
+      </c>
+      <c r="U15" s="5">
+        <v>2</v>
+      </c>
+      <c r="V15" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A16" s="34">
+        <v>2113</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="45"/>
+      <c r="D16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="9">
         <v>19</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F16" s="8">
         <v>24.3</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G16" s="6">
         <v>7.1</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H16" s="16">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I16" s="8">
         <v>7.3</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J16" s="6">
         <v>8.4</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K16" s="12">
         <v>242</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L16" s="5">
         <v>2676</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N16" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O15" s="14">
+      <c r="O16" s="14">
         <v>0.59</v>
       </c>
-      <c r="P15" s="11">
+      <c r="P16" s="11">
         <v>1.02</v>
       </c>
-      <c r="Q15" s="5">
-        <v>2</v>
-      </c>
-      <c r="R15" s="5">
-        <v>2</v>
-      </c>
-      <c r="S15" s="5">
+      <c r="Q16" s="5">
+        <v>2</v>
+      </c>
+      <c r="R16" s="5">
+        <v>2</v>
+      </c>
+      <c r="S16" s="5">
         <v>27</v>
       </c>
-      <c r="T15" s="5">
+      <c r="T16" s="5">
         <v>49</v>
       </c>
-      <c r="U15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V15" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A16" s="35">
+      <c r="U16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A17" s="35">
         <v>1430</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B17" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="19" t="s">
+      <c r="C17" s="51"/>
+      <c r="D17" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E17" s="26">
         <v>19</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F17" s="22">
         <v>24.4</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G17" s="20">
         <v>7</v>
       </c>
-      <c r="H16" s="29">
+      <c r="H17" s="29">
         <v>8.1</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I17" s="22">
         <v>7.4</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J17" s="21">
         <v>8.1999999999999993</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K17" s="23">
         <v>224</v>
       </c>
-      <c r="L16" s="20">
+      <c r="L17" s="20">
         <v>292</v>
       </c>
-      <c r="M16" s="19" t="s">
+      <c r="M17" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="N16" s="22">
+      <c r="N17" s="22">
         <v>1.2</v>
       </c>
-      <c r="O16" s="36">
+      <c r="O17" s="36">
         <v>0.57999999999999996</v>
       </c>
-      <c r="P16" s="25">
+      <c r="P17" s="25">
         <v>1.1100000000000001</v>
       </c>
-      <c r="Q16" s="20">
-        <v>2</v>
-      </c>
-      <c r="R16" s="20">
-        <v>2</v>
-      </c>
-      <c r="S16" s="20">
+      <c r="Q17" s="20">
+        <v>2</v>
+      </c>
+      <c r="R17" s="20">
+        <v>2</v>
+      </c>
+      <c r="S17" s="20">
         <v>31</v>
       </c>
-      <c r="T16" s="20">
+      <c r="T17" s="20">
         <v>49</v>
       </c>
-      <c r="U16" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="V16" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A17" s="34">
+      <c r="U17" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="V17" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A18" s="34">
         <v>3322</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B18" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="4" t="s">
+      <c r="C18" s="53"/>
+      <c r="D18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E18" s="9">
         <v>13</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F18" s="5">
         <v>26</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G18" s="5">
         <v>7</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H18" s="16">
         <v>7.8</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I18" s="8">
         <v>7.3</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J18" s="6">
         <v>8.6</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K18" s="12">
         <v>160</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L18" s="5">
         <v>366</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="M18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="5">
-        <v>2</v>
-      </c>
-      <c r="O17" s="10" t="s">
+      <c r="N18" s="5">
+        <v>2</v>
+      </c>
+      <c r="O18" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="P17" s="11">
+      <c r="P18" s="11">
         <v>0.85</v>
       </c>
-      <c r="Q17" s="5">
-        <v>2</v>
-      </c>
-      <c r="R17" s="5">
+      <c r="Q18" s="5">
+        <v>2</v>
+      </c>
+      <c r="R18" s="5">
         <v>6</v>
       </c>
-      <c r="S17" s="5">
+      <c r="S18" s="5">
         <v>14</v>
       </c>
-      <c r="T17" s="5">
+      <c r="T18" s="5">
         <v>48</v>
       </c>
-      <c r="U17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V17" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A18" s="35">
+      <c r="U18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A19" s="35">
         <v>3323</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B19" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="19" t="s">
+      <c r="C19" s="49"/>
+      <c r="D19" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E19" s="26">
         <v>17</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F19" s="22">
         <v>25.2</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G19" s="20">
         <v>7</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H19" s="29">
         <v>8.6</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I19" s="22">
         <v>7.2</v>
       </c>
-      <c r="J18" s="21">
+      <c r="J19" s="21">
         <v>8.6999999999999993</v>
       </c>
-      <c r="K18" s="23">
+      <c r="K19" s="23">
         <v>138</v>
       </c>
-      <c r="L18" s="20">
+      <c r="L19" s="20">
         <v>411</v>
       </c>
-      <c r="M18" s="19" t="s">
+      <c r="M19" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="22">
+      <c r="N19" s="22">
         <v>1.8</v>
       </c>
-      <c r="O18" s="32" t="s">
+      <c r="O19" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="P18" s="21">
+      <c r="P19" s="21">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q18" s="20">
-        <v>2</v>
-      </c>
-      <c r="R18" s="20">
+      <c r="Q19" s="20">
+        <v>2</v>
+      </c>
+      <c r="R19" s="20">
         <v>59</v>
       </c>
-      <c r="S18" s="20">
+      <c r="S19" s="20">
         <v>20</v>
       </c>
-      <c r="T18" s="20">
+      <c r="T19" s="20">
         <v>48</v>
       </c>
-      <c r="U18" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="V18" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A19" s="34">
+      <c r="U19" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="V19" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A20" s="34">
         <v>3324</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B20" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="4" t="s">
+      <c r="C20" s="49"/>
+      <c r="D20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E20" s="7">
         <v>17.2</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F20" s="8">
         <v>23.5</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G20" s="5">
         <v>7</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H20" s="16">
         <v>8.1</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I20" s="8">
         <v>7.3</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J20" s="6">
         <v>8.3000000000000007</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K20" s="12">
         <v>218</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L20" s="5">
         <v>385</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="M20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N20" s="8">
         <v>1.9</v>
       </c>
-      <c r="O19" s="10" t="s">
+      <c r="O20" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="P19" s="6">
+      <c r="P20" s="6">
         <v>1.2</v>
       </c>
-      <c r="Q19" s="5">
-        <v>2</v>
-      </c>
-      <c r="R19" s="5">
+      <c r="Q20" s="5">
+        <v>2</v>
+      </c>
+      <c r="R20" s="5">
         <v>6</v>
       </c>
-      <c r="S19" s="5">
+      <c r="S20" s="5">
         <v>8</v>
       </c>
-      <c r="T19" s="5">
+      <c r="T20" s="5">
         <v>400</v>
       </c>
-      <c r="U19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V19" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
-        <v>3325</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="28">
-        <v>17.2</v>
-      </c>
-      <c r="F20" s="22">
-        <v>23.3</v>
-      </c>
-      <c r="G20" s="20">
-        <v>7</v>
-      </c>
-      <c r="H20" s="29">
-        <v>7.8</v>
-      </c>
-      <c r="I20" s="22">
-        <v>7.3</v>
-      </c>
-      <c r="J20" s="21">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="K20" s="23">
-        <v>226</v>
-      </c>
-      <c r="L20" s="20">
-        <v>2600</v>
-      </c>
-      <c r="M20" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="22">
-        <v>1.9</v>
-      </c>
-      <c r="O20" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" s="25">
-        <v>1.34</v>
-      </c>
-      <c r="Q20" s="20">
-        <v>2</v>
-      </c>
-      <c r="R20" s="20">
-        <v>6</v>
-      </c>
-      <c r="S20" s="20">
-        <v>10</v>
-      </c>
-      <c r="T20" s="20">
-        <v>49</v>
-      </c>
-      <c r="U20" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="V20" s="19" t="s">
+      <c r="U20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V20" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
-        <v>2118</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="51"/>
+        <v>3325</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="49"/>
       <c r="D21" s="19" t="s">
         <v>5</v>
       </c>
       <c r="E21" s="28">
-        <v>18.2</v>
+        <v>17.2</v>
       </c>
       <c r="F21" s="22">
-        <v>29.6</v>
-      </c>
-      <c r="G21" s="21">
-        <v>7.1</v>
+        <v>23.3</v>
+      </c>
+      <c r="G21" s="20">
+        <v>7</v>
       </c>
       <c r="H21" s="29">
         <v>7.8</v>
       </c>
-      <c r="I21" s="31">
-        <v>7.19</v>
-      </c>
-      <c r="J21" s="20">
-        <v>8</v>
+      <c r="I21" s="22">
+        <v>7.3</v>
+      </c>
+      <c r="J21" s="21">
+        <v>8.3000000000000007</v>
       </c>
       <c r="K21" s="23">
-        <v>179</v>
+        <v>226</v>
       </c>
       <c r="L21" s="20">
-        <v>311</v>
+        <v>2600</v>
       </c>
       <c r="M21" s="24" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="22">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="O21" s="19" t="s">
         <v>3</v>
       </c>
       <c r="P21" s="25">
-        <v>0.45</v>
+        <v>1.34</v>
       </c>
       <c r="Q21" s="20">
         <v>2</v>
       </c>
       <c r="R21" s="20">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="S21" s="20">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="T21" s="20">
-        <v>47</v>
-      </c>
-      <c r="U21" s="20">
-        <v>2</v>
-      </c>
-      <c r="V21" s="20">
-        <v>2</v>
+        <v>49</v>
+      </c>
+      <c r="U21" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="19" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
-        <v>2123</v>
+        <v>2118</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="51"/>
       <c r="D22" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="26">
-        <v>17</v>
-      </c>
-      <c r="F22" s="20">
-        <v>30</v>
+      <c r="E22" s="28">
+        <v>18.2</v>
+      </c>
+      <c r="F22" s="22">
+        <v>29.6</v>
       </c>
       <c r="G22" s="21">
-        <v>5.8</v>
+        <v>7.1</v>
       </c>
       <c r="H22" s="29">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="I22" s="31">
-        <v>7.59</v>
-      </c>
-      <c r="J22" s="25">
-        <v>8.34</v>
+        <v>7.19</v>
+      </c>
+      <c r="J22" s="20">
+        <v>8</v>
       </c>
       <c r="K22" s="23">
-        <v>251</v>
+        <v>179</v>
       </c>
       <c r="L22" s="20">
-        <v>388</v>
-      </c>
-      <c r="M22" s="20">
-        <v>1</v>
+        <v>311</v>
+      </c>
+      <c r="M22" s="24" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="22">
-        <v>1.4</v>
-      </c>
-      <c r="O22" s="31">
-        <v>1.42</v>
+        <v>1.7</v>
+      </c>
+      <c r="O22" s="19" t="s">
+        <v>3</v>
       </c>
       <c r="P22" s="25">
-        <v>10.72</v>
+        <v>0.45</v>
       </c>
       <c r="Q22" s="20">
         <v>2</v>
       </c>
       <c r="R22" s="20">
-        <v>35000</v>
+        <v>18</v>
       </c>
       <c r="S22" s="20">
-        <v>63</v>
-      </c>
-      <c r="T22" s="30">
-        <v>92000</v>
+        <v>33</v>
+      </c>
+      <c r="T22" s="20">
+        <v>47</v>
       </c>
       <c r="U22" s="20">
         <v>2</v>
       </c>
       <c r="V22" s="20">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
-        <v>3847</v>
+        <v>2123</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="51"/>
       <c r="D23" s="19" t="s">
         <v>5</v>
       </c>
       <c r="E23" s="26">
-        <v>20</v>
-      </c>
-      <c r="F23" s="22">
-        <v>24.6</v>
+        <v>17</v>
+      </c>
+      <c r="F23" s="20">
+        <v>30</v>
       </c>
       <c r="G23" s="21">
-        <v>7.1</v>
-      </c>
-      <c r="H23" s="20">
-        <v>8</v>
-      </c>
-      <c r="I23" s="22">
-        <v>7.6</v>
-      </c>
-      <c r="J23" s="21">
-        <v>8.3000000000000007</v>
+        <v>5.8</v>
+      </c>
+      <c r="H23" s="29">
+        <v>8.6</v>
+      </c>
+      <c r="I23" s="31">
+        <v>7.59</v>
+      </c>
+      <c r="J23" s="25">
+        <v>8.34</v>
       </c>
       <c r="K23" s="23">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="L23" s="20">
-        <v>306</v>
-      </c>
-      <c r="M23" s="24" t="s">
-        <v>3</v>
+        <v>388</v>
+      </c>
+      <c r="M23" s="20">
+        <v>1</v>
       </c>
       <c r="N23" s="22">
         <v>1.4</v>
       </c>
       <c r="O23" s="31">
-        <v>0.66</v>
-      </c>
-      <c r="P23" s="37">
-        <v>1.778</v>
+        <v>1.42</v>
+      </c>
+      <c r="P23" s="25">
+        <v>10.72</v>
       </c>
       <c r="Q23" s="20">
         <v>2</v>
       </c>
       <c r="R23" s="20">
-        <v>2</v>
+        <v>35000</v>
       </c>
       <c r="S23" s="20">
-        <v>32</v>
-      </c>
-      <c r="T23" s="20">
-        <v>49</v>
-      </c>
-      <c r="U23" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="V23" s="19" t="s">
-        <v>4</v>
+        <v>63</v>
+      </c>
+      <c r="T23" s="30">
+        <v>92000</v>
+      </c>
+      <c r="U23" s="20">
+        <v>2</v>
+      </c>
+      <c r="V23" s="20">
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
-        <v>4582</v>
+        <v>3847</v>
       </c>
       <c r="B24" s="50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="51"/>
       <c r="D24" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="28">
-        <v>17.3</v>
+      <c r="E24" s="26">
+        <v>20</v>
       </c>
       <c r="F24" s="22">
-        <v>25.9</v>
-      </c>
-      <c r="G24" s="20">
-        <v>7</v>
-      </c>
-      <c r="H24" s="29">
-        <v>8.4</v>
+        <v>24.6</v>
+      </c>
+      <c r="G24" s="21">
+        <v>7.1</v>
+      </c>
+      <c r="H24" s="20">
+        <v>8</v>
       </c>
       <c r="I24" s="22">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="J24" s="21">
         <v>8.3000000000000007</v>
       </c>
       <c r="K24" s="23">
-        <v>150</v>
+        <v>244</v>
       </c>
       <c r="L24" s="20">
-        <v>3330</v>
-      </c>
-      <c r="M24" s="29">
-        <v>0.4</v>
-      </c>
-      <c r="N24" s="20">
-        <v>2</v>
+        <v>306</v>
+      </c>
+      <c r="M24" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="22">
+        <v>1.4</v>
       </c>
       <c r="O24" s="31">
-        <v>0.31</v>
-      </c>
-      <c r="P24" s="21">
-        <v>1.3</v>
-      </c>
-      <c r="Q24" s="22">
-        <v>1.8</v>
+        <v>0.66</v>
+      </c>
+      <c r="P24" s="37">
+        <v>1.778</v>
+      </c>
+      <c r="Q24" s="20">
+        <v>2</v>
       </c>
       <c r="R24" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S24" s="20">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="T24" s="20">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U24" s="19" t="s">
         <v>4</v>
@@ -2801,62 +2776,62 @@
     </row>
     <row r="25" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
-        <v>4583</v>
-      </c>
-      <c r="B25" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="53"/>
+        <v>4582</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="51"/>
       <c r="D25" s="19" t="s">
         <v>5</v>
       </c>
       <c r="E25" s="28">
-        <v>17.399999999999999</v>
+        <v>17.3</v>
       </c>
       <c r="F25" s="22">
-        <v>23.6</v>
+        <v>25.9</v>
       </c>
       <c r="G25" s="20">
         <v>7</v>
       </c>
       <c r="H25" s="29">
-        <v>8.1999999999999993</v>
+        <v>8.4</v>
       </c>
       <c r="I25" s="22">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J25" s="21">
-        <v>8.1</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="K25" s="23">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="L25" s="20">
-        <v>390</v>
+        <v>3330</v>
       </c>
       <c r="M25" s="29">
-        <v>0.7</v>
-      </c>
-      <c r="N25" s="22">
-        <v>1.8</v>
+        <v>0.4</v>
+      </c>
+      <c r="N25" s="20">
+        <v>2</v>
       </c>
       <c r="O25" s="31">
-        <v>0.46</v>
-      </c>
-      <c r="P25" s="25">
-        <v>2.44</v>
+        <v>0.31</v>
+      </c>
+      <c r="P25" s="21">
+        <v>1.3</v>
       </c>
       <c r="Q25" s="22">
         <v>1.8</v>
       </c>
       <c r="R25" s="20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S25" s="20">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T25" s="20">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U25" s="19" t="s">
         <v>4</v>
@@ -2867,62 +2842,62 @@
     </row>
     <row r="26" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
-        <v>4584</v>
-      </c>
-      <c r="B26" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="55"/>
+        <v>4583</v>
+      </c>
+      <c r="B26" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="53"/>
       <c r="D26" s="19" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="28">
-        <v>17.3</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="F26" s="22">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="G26" s="20">
         <v>7</v>
       </c>
       <c r="H26" s="29">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I26" s="22">
+        <v>7.2</v>
+      </c>
+      <c r="J26" s="21">
         <v>8.1</v>
-      </c>
-      <c r="I26" s="22">
-        <v>7.1</v>
-      </c>
-      <c r="J26" s="21">
-        <v>8.3000000000000007</v>
       </c>
       <c r="K26" s="23">
         <v>160</v>
       </c>
       <c r="L26" s="20">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="M26" s="29">
         <v>0.7</v>
       </c>
       <c r="N26" s="22">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="O26" s="31">
-        <v>0.36</v>
+        <v>0.46</v>
       </c>
       <c r="P26" s="25">
-        <v>1.21</v>
+        <v>2.44</v>
       </c>
       <c r="Q26" s="22">
         <v>1.8</v>
       </c>
       <c r="R26" s="20">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S26" s="20">
-        <v>430</v>
-      </c>
-      <c r="T26" s="26">
-        <v>430</v>
+        <v>40</v>
+      </c>
+      <c r="T26" s="20">
+        <v>40</v>
       </c>
       <c r="U26" s="19" t="s">
         <v>4</v>
@@ -2933,12 +2908,12 @@
     </row>
     <row r="27" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
-        <v>4586</v>
-      </c>
-      <c r="B27" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="55"/>
+        <v>4584</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="47"/>
       <c r="D27" s="19" t="s">
         <v>5</v>
       </c>
@@ -2946,131 +2921,131 @@
         <v>17.3</v>
       </c>
       <c r="F27" s="22">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="G27" s="20">
         <v>7</v>
       </c>
-      <c r="H27" s="20">
-        <v>8</v>
+      <c r="H27" s="29">
+        <v>8.1</v>
       </c>
       <c r="I27" s="22">
         <v>7.1</v>
       </c>
       <c r="J27" s="21">
-        <v>8.1999999999999993</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="K27" s="23">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="L27" s="20">
-        <v>2800</v>
+        <v>352</v>
       </c>
       <c r="M27" s="29">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="N27" s="22">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="O27" s="31">
-        <v>0.53</v>
+        <v>0.36</v>
       </c>
       <c r="P27" s="25">
-        <v>2.42</v>
+        <v>1.21</v>
       </c>
       <c r="Q27" s="22">
         <v>1.8</v>
       </c>
-      <c r="R27" s="22">
+      <c r="R27" s="20">
+        <v>10</v>
+      </c>
+      <c r="S27" s="20">
+        <v>430</v>
+      </c>
+      <c r="T27" s="26">
+        <v>430</v>
+      </c>
+      <c r="U27" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="V27" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A28" s="18">
+        <v>4586</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="47"/>
+      <c r="D28" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="28">
+        <v>17.3</v>
+      </c>
+      <c r="F28" s="22">
+        <v>23.6</v>
+      </c>
+      <c r="G28" s="20">
+        <v>7</v>
+      </c>
+      <c r="H28" s="20">
+        <v>8</v>
+      </c>
+      <c r="I28" s="22">
+        <v>7.1</v>
+      </c>
+      <c r="J28" s="21">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K28" s="23">
+        <v>147</v>
+      </c>
+      <c r="L28" s="20">
+        <v>2800</v>
+      </c>
+      <c r="M28" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="N28" s="22">
         <v>1.8</v>
       </c>
-      <c r="S27" s="20">
+      <c r="O28" s="31">
+        <v>0.53</v>
+      </c>
+      <c r="P28" s="25">
+        <v>2.42</v>
+      </c>
+      <c r="Q28" s="22">
+        <v>1.8</v>
+      </c>
+      <c r="R28" s="22">
+        <v>1.8</v>
+      </c>
+      <c r="S28" s="20">
         <v>0</v>
       </c>
-      <c r="T27" s="20">
+      <c r="T28" s="20">
         <v>0</v>
       </c>
-      <c r="U27" s="20">
-        <v>4</v>
-      </c>
-      <c r="V27" s="20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>4587</v>
-      </c>
-      <c r="B28" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="47"/>
-      <c r="D28" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="9">
-        <v>18</v>
-      </c>
-      <c r="F28" s="5">
-        <v>25</v>
-      </c>
-      <c r="G28" s="6">
-        <v>8.6</v>
-      </c>
-      <c r="H28" s="16">
-        <v>8.9</v>
-      </c>
-      <c r="I28" s="5">
-        <v>8</v>
-      </c>
-      <c r="J28" s="6">
-        <v>8.1</v>
-      </c>
-      <c r="K28" s="12">
-        <v>208</v>
-      </c>
-      <c r="L28" s="5">
-        <v>288</v>
-      </c>
-      <c r="M28" s="5">
-        <v>1</v>
-      </c>
-      <c r="N28" s="8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O28" s="15">
-        <v>1.02</v>
-      </c>
-      <c r="P28" s="11">
-        <v>1.55</v>
-      </c>
-      <c r="Q28" s="5">
-        <v>2</v>
-      </c>
-      <c r="R28" s="5">
-        <v>2</v>
-      </c>
-      <c r="S28" s="5">
-        <v>41</v>
-      </c>
-      <c r="T28" s="5">
-        <v>58</v>
-      </c>
-      <c r="U28" s="5">
-        <v>2</v>
-      </c>
-      <c r="V28" s="5">
-        <v>2</v>
+      <c r="U28" s="20">
+        <v>4</v>
+      </c>
+      <c r="V28" s="20">
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>4588</v>
-      </c>
-      <c r="B29" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="47"/>
+        <v>4587</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="45"/>
       <c r="D29" s="4" t="s">
         <v>5</v>
       </c>
@@ -3078,49 +3053,49 @@
         <v>18</v>
       </c>
       <c r="F29" s="5">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G29" s="6">
-        <v>8.8000000000000007</v>
+        <v>8.6</v>
       </c>
       <c r="H29" s="16">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="I29" s="8">
-        <v>7.7</v>
-      </c>
-      <c r="J29" s="5">
+        <v>8.9</v>
+      </c>
+      <c r="I29" s="5">
         <v>8</v>
       </c>
+      <c r="J29" s="6">
+        <v>8.1</v>
+      </c>
       <c r="K29" s="12">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="L29" s="5">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="M29" s="5">
         <v>1</v>
       </c>
       <c r="N29" s="8">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O29" s="15">
-        <v>0.87</v>
-      </c>
-      <c r="P29" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="Q29" s="8">
-        <v>1.8</v>
+        <v>1.02</v>
+      </c>
+      <c r="P29" s="11">
+        <v>1.55</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>2</v>
       </c>
       <c r="R29" s="5">
         <v>2</v>
       </c>
       <c r="S29" s="5">
+        <v>41</v>
+      </c>
+      <c r="T29" s="5">
         <v>58</v>
-      </c>
-      <c r="T29" s="5">
-        <v>63</v>
       </c>
       <c r="U29" s="5">
         <v>2</v>
@@ -3131,50 +3106,50 @@
     </row>
     <row r="30" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>4589</v>
-      </c>
-      <c r="B30" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="47"/>
+        <v>4588</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="45"/>
       <c r="D30" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E30" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F30" s="5">
         <v>32</v>
       </c>
       <c r="G30" s="6">
-        <v>8.5</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H30" s="16">
-        <v>9.1999999999999993</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I30" s="8">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="J30" s="5">
         <v>8</v>
       </c>
       <c r="K30" s="12">
-        <v>258</v>
+        <v>216</v>
       </c>
       <c r="L30" s="5">
-        <v>327</v>
-      </c>
-      <c r="M30" s="16">
+        <v>307</v>
+      </c>
+      <c r="M30" s="5">
+        <v>1</v>
+      </c>
+      <c r="N30" s="8">
         <v>1.2</v>
       </c>
-      <c r="N30" s="8">
-        <v>1.5</v>
-      </c>
       <c r="O30" s="15">
-        <v>1.37</v>
-      </c>
-      <c r="P30" s="11">
-        <v>3.03</v>
+        <v>0.87</v>
+      </c>
+      <c r="P30" s="6">
+        <v>4.5999999999999996</v>
       </c>
       <c r="Q30" s="8">
         <v>1.8</v>
@@ -3183,10 +3158,10 @@
         <v>2</v>
       </c>
       <c r="S30" s="5">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="T30" s="5">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="U30" s="5">
         <v>2</v>
@@ -3197,50 +3172,50 @@
     </row>
     <row r="31" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>4590</v>
-      </c>
-      <c r="B31" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="57"/>
+        <v>4589</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="45"/>
       <c r="D31" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E31" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F31" s="5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G31" s="6">
-        <v>8.6999999999999993</v>
+        <v>8.5</v>
       </c>
       <c r="H31" s="16">
-        <v>9.9</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="I31" s="8">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="J31" s="5">
         <v>8</v>
       </c>
       <c r="K31" s="12">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="L31" s="5">
-        <v>295</v>
-      </c>
-      <c r="M31" s="5">
-        <v>1</v>
+        <v>327</v>
+      </c>
+      <c r="M31" s="16">
+        <v>1.2</v>
       </c>
       <c r="N31" s="8">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O31" s="15">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="P31" s="11">
-        <v>2.08</v>
+        <v>3.03</v>
       </c>
       <c r="Q31" s="8">
         <v>1.8</v>
@@ -3249,10 +3224,10 @@
         <v>2</v>
       </c>
       <c r="S31" s="5">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="T31" s="5">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="U31" s="5">
         <v>2</v>
@@ -3263,50 +3238,50 @@
     </row>
     <row r="32" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>4591</v>
+        <v>4590</v>
       </c>
       <c r="B32" s="54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" s="55"/>
       <c r="D32" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E32" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F32" s="5">
         <v>31</v>
       </c>
       <c r="G32" s="6">
-        <v>8.1</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="H32" s="16">
-        <v>9.6999999999999993</v>
+        <v>9.9</v>
       </c>
       <c r="I32" s="8">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="J32" s="5">
         <v>8</v>
       </c>
       <c r="K32" s="12">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="L32" s="5">
-        <v>306</v>
-      </c>
-      <c r="M32" s="16">
-        <v>1.1000000000000001</v>
+        <v>295</v>
+      </c>
+      <c r="M32" s="5">
+        <v>1</v>
       </c>
       <c r="N32" s="8">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="O32" s="15">
-        <v>1.83</v>
-      </c>
-      <c r="P32" s="6">
-        <v>2.2000000000000002</v>
+        <v>1.29</v>
+      </c>
+      <c r="P32" s="11">
+        <v>2.08</v>
       </c>
       <c r="Q32" s="8">
         <v>1.8</v>
@@ -3315,10 +3290,10 @@
         <v>2</v>
       </c>
       <c r="S32" s="5">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="T32" s="5">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="U32" s="5">
         <v>2</v>
@@ -3329,50 +3304,50 @@
     </row>
     <row r="33" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>4592</v>
+        <v>4591</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="47"/>
       <c r="D33" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E33" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F33" s="5">
         <v>31</v>
       </c>
       <c r="G33" s="6">
-        <v>8.1999999999999993</v>
+        <v>8.1</v>
       </c>
       <c r="H33" s="16">
-        <v>9.9</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I33" s="8">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="J33" s="5">
         <v>8</v>
       </c>
       <c r="K33" s="12">
-        <v>178</v>
+        <v>251</v>
       </c>
       <c r="L33" s="5">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="M33" s="16">
         <v>1.1000000000000001</v>
       </c>
       <c r="N33" s="8">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="O33" s="15">
-        <v>0.97</v>
-      </c>
-      <c r="P33" s="11">
-        <v>2.04</v>
+        <v>1.83</v>
+      </c>
+      <c r="P33" s="6">
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q33" s="8">
         <v>1.8</v>
@@ -3384,7 +3359,7 @@
         <v>58</v>
       </c>
       <c r="T33" s="5">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="U33" s="5">
         <v>2</v>
@@ -3395,12 +3370,12 @@
     </row>
     <row r="34" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>4593</v>
-      </c>
-      <c r="B34" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="55"/>
+        <v>4592</v>
+      </c>
+      <c r="B34" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="45"/>
       <c r="D34" s="4" t="s">
         <v>5</v>
       </c>
@@ -3408,37 +3383,37 @@
         <v>18</v>
       </c>
       <c r="F34" s="5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G34" s="6">
-        <v>8.6</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="H34" s="16">
-        <v>9.3000000000000007</v>
+        <v>9.9</v>
       </c>
       <c r="I34" s="8">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="J34" s="5">
         <v>8</v>
       </c>
       <c r="K34" s="12">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c r="L34" s="5">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M34" s="16">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N34" s="8">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="O34" s="15">
-        <v>0.17</v>
-      </c>
-      <c r="P34" s="6">
-        <v>3.8</v>
+        <v>0.97</v>
+      </c>
+      <c r="P34" s="11">
+        <v>2.04</v>
       </c>
       <c r="Q34" s="8">
         <v>1.8</v>
@@ -3450,7 +3425,7 @@
         <v>58</v>
       </c>
       <c r="T34" s="5">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="U34" s="5">
         <v>2</v>
@@ -3461,89 +3436,89 @@
     </row>
     <row r="35" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>4594</v>
-      </c>
-      <c r="B35" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="49"/>
+        <v>4593</v>
+      </c>
+      <c r="B35" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="47"/>
       <c r="D35" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E35" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F35" s="5">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G35" s="6">
-        <v>7.1</v>
+        <v>8.6</v>
       </c>
       <c r="H35" s="16">
-        <v>7.8</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I35" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="J35" s="6">
-        <v>8.6</v>
+        <v>7.7</v>
+      </c>
+      <c r="J35" s="5">
+        <v>8</v>
       </c>
       <c r="K35" s="12">
-        <v>319</v>
+        <v>218</v>
       </c>
       <c r="L35" s="5">
-        <v>352</v>
+        <v>285</v>
       </c>
       <c r="M35" s="16">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="N35" s="8">
-        <v>2.4</v>
-      </c>
-      <c r="O35" s="38">
-        <v>0.58099999999999996</v>
-      </c>
-      <c r="P35" s="33">
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="Q35" s="5">
-        <v>2</v>
+        <v>1.5</v>
+      </c>
+      <c r="O35" s="15">
+        <v>0.17</v>
+      </c>
+      <c r="P35" s="6">
+        <v>3.8</v>
+      </c>
+      <c r="Q35" s="8">
+        <v>1.8</v>
       </c>
       <c r="R35" s="5">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="S35" s="5">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="T35" s="5">
-        <v>49</v>
-      </c>
-      <c r="U35" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V35" s="4" t="s">
-        <v>4</v>
+        <v>79</v>
+      </c>
+      <c r="U35" s="5">
+        <v>2</v>
+      </c>
+      <c r="V35" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>4595</v>
+        <v>4594</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" s="49"/>
       <c r="D36" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E36" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F36" s="5">
         <v>28</v>
       </c>
-      <c r="G36" s="5">
-        <v>7</v>
+      <c r="G36" s="6">
+        <v>7.1</v>
       </c>
       <c r="H36" s="16">
         <v>7.8</v>
@@ -3552,223 +3527,223 @@
         <v>7.4</v>
       </c>
       <c r="J36" s="6">
-        <v>8.3000000000000007</v>
+        <v>8.6</v>
       </c>
       <c r="K36" s="12">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L36" s="5">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="M36" s="16">
         <v>0.7</v>
       </c>
       <c r="N36" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="O36" s="38">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="P36" s="33">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>2</v>
+      </c>
+      <c r="R36" s="5">
+        <v>18</v>
+      </c>
+      <c r="S36" s="5">
+        <v>30</v>
+      </c>
+      <c r="T36" s="5">
+        <v>49</v>
+      </c>
+      <c r="U36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V36" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>4595</v>
+      </c>
+      <c r="B37" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="49"/>
+      <c r="D37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="9">
+        <v>20</v>
+      </c>
+      <c r="F37" s="5">
+        <v>28</v>
+      </c>
+      <c r="G37" s="5">
+        <v>7</v>
+      </c>
+      <c r="H37" s="16">
+        <v>7.8</v>
+      </c>
+      <c r="I37" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="J37" s="6">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K37" s="12">
+        <v>325</v>
+      </c>
+      <c r="L37" s="5">
+        <v>343</v>
+      </c>
+      <c r="M37" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="N37" s="8">
         <v>2.8</v>
       </c>
-      <c r="O36" s="38">
+      <c r="O37" s="38">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="P36" s="33">
+      <c r="P37" s="33">
         <v>0.91800000000000004</v>
       </c>
-      <c r="Q36" s="5">
-        <v>2</v>
-      </c>
-      <c r="R36" s="5">
+      <c r="Q37" s="5">
+        <v>2</v>
+      </c>
+      <c r="R37" s="5">
         <v>6</v>
       </c>
-      <c r="S36" s="5">
+      <c r="S37" s="5">
         <v>29</v>
       </c>
-      <c r="T36" s="5">
+      <c r="T37" s="5">
         <v>58</v>
       </c>
-      <c r="U36" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V36" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A37" s="18">
+      <c r="U37" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V37" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A38" s="18">
         <v>4596</v>
       </c>
-      <c r="B37" s="50" t="s">
+      <c r="B38" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="19" t="s">
+      <c r="C38" s="51"/>
+      <c r="D38" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="26">
+      <c r="E38" s="26">
         <v>19</v>
       </c>
-      <c r="F37" s="22">
+      <c r="F38" s="22">
         <v>24.8</v>
       </c>
-      <c r="G37" s="21">
+      <c r="G38" s="21">
         <v>7.2</v>
       </c>
-      <c r="H37" s="29">
+      <c r="H38" s="29">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I37" s="22">
+      <c r="I38" s="22">
         <v>7.5</v>
       </c>
-      <c r="J37" s="21">
+      <c r="J38" s="21">
         <v>8.5</v>
       </c>
-      <c r="K37" s="23">
+      <c r="K38" s="23">
         <v>208</v>
       </c>
-      <c r="L37" s="20">
+      <c r="L38" s="20">
         <v>284</v>
       </c>
-      <c r="M37" s="29">
+      <c r="M38" s="29">
         <v>0.6</v>
       </c>
-      <c r="N37" s="22">
+      <c r="N38" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O37" s="39">
+      <c r="O38" s="39">
         <v>0.60199999999999998</v>
       </c>
-      <c r="P37" s="37">
+      <c r="P38" s="37">
         <v>0.93200000000000005</v>
       </c>
-      <c r="Q37" s="20">
+      <c r="Q38" s="20">
         <v>1</v>
       </c>
-      <c r="R37" s="20">
+      <c r="R38" s="20">
         <v>1</v>
       </c>
-      <c r="S37" s="20">
+      <c r="S38" s="20">
         <v>14</v>
       </c>
-      <c r="T37" s="20">
+      <c r="T38" s="20">
         <v>43</v>
       </c>
-      <c r="U37" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="V37" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="U38" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="V38" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <v>4597</v>
       </c>
-      <c r="B38" s="54" t="s">
+      <c r="B39" s="46" t="s">
         <v>43</v>
-      </c>
-      <c r="C38" s="55"/>
-      <c r="D38" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="9">
-        <v>19</v>
-      </c>
-      <c r="F38" s="8">
-        <v>24.4</v>
-      </c>
-      <c r="G38" s="5">
-        <v>7</v>
-      </c>
-      <c r="H38" s="16">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="I38" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="J38" s="6">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="K38" s="12">
-        <v>248</v>
-      </c>
-      <c r="L38" s="5">
-        <v>429</v>
-      </c>
-      <c r="M38" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="N38" s="8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O38" s="38">
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="P38" s="33">
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="Q38" s="5">
-        <v>1</v>
-      </c>
-      <c r="R38" s="5">
-        <v>1</v>
-      </c>
-      <c r="S38" s="5">
-        <v>31</v>
-      </c>
-      <c r="T38" s="5">
-        <v>43</v>
-      </c>
-      <c r="U38" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V38" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A39" s="34">
-        <v>4598</v>
-      </c>
-      <c r="B39" s="46" t="s">
-        <v>44</v>
       </c>
       <c r="C39" s="47"/>
       <c r="D39" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E39" s="9">
-        <v>20</v>
-      </c>
-      <c r="F39" s="5">
-        <v>25</v>
-      </c>
-      <c r="G39" s="6">
-        <v>7.2</v>
+        <v>19</v>
+      </c>
+      <c r="F39" s="8">
+        <v>24.4</v>
+      </c>
+      <c r="G39" s="5">
+        <v>7</v>
       </c>
       <c r="H39" s="16">
-        <v>8.4</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="I39" s="8">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="J39" s="6">
-        <v>8.4</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="K39" s="12">
         <v>248</v>
       </c>
       <c r="L39" s="5">
-        <v>328</v>
-      </c>
-      <c r="M39" s="8">
-        <v>0.5</v>
+        <v>429</v>
+      </c>
+      <c r="M39" s="16">
+        <v>0.6</v>
       </c>
       <c r="N39" s="8">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O39" s="38">
-        <v>0.52100000000000002</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="P39" s="33">
-        <v>1.2909999999999999</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="Q39" s="5">
         <v>1</v>
@@ -3779,8 +3754,8 @@
       <c r="S39" s="5">
         <v>31</v>
       </c>
-      <c r="T39" s="13">
-        <v>49</v>
+      <c r="T39" s="5">
+        <v>43</v>
       </c>
       <c r="U39" s="4" t="s">
         <v>4</v>
@@ -3791,50 +3766,50 @@
     </row>
     <row r="40" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A40" s="34">
-        <v>4599</v>
-      </c>
-      <c r="B40" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="47"/>
+        <v>4598</v>
+      </c>
+      <c r="B40" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="45"/>
       <c r="D40" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E40" s="9">
-        <v>19</v>
-      </c>
-      <c r="F40" s="8">
-        <v>24.3</v>
+        <v>20</v>
+      </c>
+      <c r="F40" s="5">
+        <v>25</v>
       </c>
       <c r="G40" s="6">
-        <v>7.3</v>
-      </c>
-      <c r="H40" s="5">
-        <v>8</v>
+        <v>7.2</v>
+      </c>
+      <c r="H40" s="16">
+        <v>8.4</v>
       </c>
       <c r="I40" s="8">
         <v>7.5</v>
       </c>
       <c r="J40" s="6">
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
       <c r="K40" s="12">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="L40" s="5">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="M40" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="N40" s="5">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="N40" s="8">
+        <v>1.2</v>
       </c>
       <c r="O40" s="38">
-        <v>0.60099999999999998</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="P40" s="33">
-        <v>1.0980000000000001</v>
+        <v>1.2909999999999999</v>
       </c>
       <c r="Q40" s="5">
         <v>1</v>
@@ -3843,10 +3818,10 @@
         <v>1</v>
       </c>
       <c r="S40" s="5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T40" s="13">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="U40" s="4" t="s">
         <v>4</v>
@@ -3857,12 +3832,12 @@
     </row>
     <row r="41" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A41" s="34">
-        <v>4600</v>
-      </c>
-      <c r="B41" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="47"/>
+        <v>4599</v>
+      </c>
+      <c r="B41" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="45"/>
       <c r="D41" s="4" t="s">
         <v>5</v>
       </c>
@@ -3873,34 +3848,34 @@
         <v>24.3</v>
       </c>
       <c r="G41" s="6">
-        <v>7.2</v>
-      </c>
-      <c r="H41" s="16">
-        <v>8.3000000000000007</v>
+        <v>7.3</v>
+      </c>
+      <c r="H41" s="5">
+        <v>8</v>
       </c>
       <c r="I41" s="8">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="J41" s="6">
-        <v>8.3000000000000007</v>
+        <v>8.1</v>
       </c>
       <c r="K41" s="12">
-        <v>254</v>
+        <v>207</v>
       </c>
       <c r="L41" s="5">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="M41" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="N41" s="8">
-        <v>1.1000000000000001</v>
+        <v>0.6</v>
+      </c>
+      <c r="N41" s="5">
+        <v>1</v>
       </c>
       <c r="O41" s="38">
-        <v>0.52100000000000002</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="P41" s="33">
-        <v>1.966</v>
+        <v>1.0980000000000001</v>
       </c>
       <c r="Q41" s="5">
         <v>1</v>
@@ -3909,10 +3884,10 @@
         <v>1</v>
       </c>
       <c r="S41" s="5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T41" s="13">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="U41" s="4" t="s">
         <v>4</v>
@@ -3923,12 +3898,12 @@
     </row>
     <row r="42" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A42" s="34">
-        <v>4601</v>
-      </c>
-      <c r="B42" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="47"/>
+        <v>4600</v>
+      </c>
+      <c r="B42" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="45"/>
       <c r="D42" s="4" t="s">
         <v>5</v>
       </c>
@@ -3936,37 +3911,37 @@
         <v>19</v>
       </c>
       <c r="F42" s="8">
-        <v>24.6</v>
+        <v>24.3</v>
       </c>
       <c r="G42" s="6">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="H42" s="16">
-        <v>8.1</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I42" s="8">
         <v>7.6</v>
       </c>
       <c r="J42" s="6">
-        <v>8.8000000000000007</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="K42" s="12">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="L42" s="5">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="M42" s="8">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="N42" s="8">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O42" s="38">
-        <v>0.45100000000000001</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="P42" s="33">
-        <v>1.238</v>
+        <v>1.966</v>
       </c>
       <c r="Q42" s="5">
         <v>1</v>
@@ -3975,10 +3950,10 @@
         <v>1</v>
       </c>
       <c r="S42" s="5">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T42" s="13">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U42" s="4" t="s">
         <v>4</v>
@@ -3987,64 +3962,64 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A43" s="34">
-        <v>7</v>
-      </c>
-      <c r="B43" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="47"/>
+        <v>4601</v>
+      </c>
+      <c r="B43" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="45"/>
       <c r="D43" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E43" s="9">
-        <v>27</v>
-      </c>
-      <c r="F43" s="5">
-        <v>30</v>
-      </c>
-      <c r="G43" s="5">
-        <v>6</v>
-      </c>
-      <c r="H43" s="5">
-        <v>8</v>
+        <v>19</v>
+      </c>
+      <c r="F43" s="8">
+        <v>24.6</v>
+      </c>
+      <c r="G43" s="6">
+        <v>6.9</v>
+      </c>
+      <c r="H43" s="16">
+        <v>8.1</v>
       </c>
       <c r="I43" s="8">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="J43" s="6">
-        <v>8.3000000000000007</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="K43" s="12">
         <v>264</v>
       </c>
       <c r="L43" s="5">
-        <v>346</v>
-      </c>
-      <c r="M43" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N43" s="5">
+        <v>307</v>
+      </c>
+      <c r="M43" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="N43" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="O43" s="38">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="P43" s="33">
+        <v>1.238</v>
+      </c>
+      <c r="Q43" s="5">
         <v>1</v>
       </c>
-      <c r="O43" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="P43" s="11">
-        <v>0.32</v>
-      </c>
-      <c r="Q43" s="5">
-        <v>4</v>
-      </c>
       <c r="R43" s="5">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="S43" s="5">
-        <v>47</v>
-      </c>
-      <c r="T43" s="9">
-        <v>152</v>
+        <v>36</v>
+      </c>
+      <c r="T43" s="13">
+        <v>49</v>
       </c>
       <c r="U43" s="4" t="s">
         <v>4</v>
@@ -4055,12 +4030,12 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="34">
-        <v>1244</v>
-      </c>
-      <c r="B44" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="47"/>
+        <v>7</v>
+      </c>
+      <c r="B44" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="45"/>
       <c r="D44" s="4" t="s">
         <v>6</v>
       </c>
@@ -4068,49 +4043,49 @@
         <v>27</v>
       </c>
       <c r="F44" s="5">
-        <v>33</v>
-      </c>
-      <c r="G44" s="6">
-        <v>6.9</v>
+        <v>30</v>
+      </c>
+      <c r="G44" s="5">
+        <v>6</v>
       </c>
       <c r="H44" s="5">
         <v>8</v>
       </c>
       <c r="I44" s="8">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="J44" s="6">
         <v>8.3000000000000007</v>
       </c>
       <c r="K44" s="12">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="L44" s="5">
-        <v>2656</v>
+        <v>346</v>
       </c>
       <c r="M44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="8">
-        <v>1.1000000000000001</v>
+      <c r="N44" s="5">
+        <v>1</v>
       </c>
       <c r="O44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="P44" s="17" t="s">
-        <v>3</v>
+      <c r="P44" s="11">
+        <v>0.32</v>
       </c>
       <c r="Q44" s="5">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="R44" s="5">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S44" s="5">
-        <v>46</v>
-      </c>
-      <c r="T44" s="13">
-        <v>94</v>
+        <v>47</v>
+      </c>
+      <c r="T44" s="9">
+        <v>152</v>
       </c>
       <c r="U44" s="4" t="s">
         <v>4</v>
@@ -4121,62 +4096,62 @@
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="34">
-        <v>1245</v>
-      </c>
-      <c r="B45" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="47"/>
+        <v>1244</v>
+      </c>
+      <c r="B45" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="45"/>
       <c r="D45" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E45" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F45" s="5">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G45" s="6">
-        <v>6.8</v>
-      </c>
-      <c r="H45" s="16">
-        <v>8.6999999999999993</v>
+        <v>6.9</v>
+      </c>
+      <c r="H45" s="5">
+        <v>8</v>
       </c>
       <c r="I45" s="8">
-        <v>7.1</v>
-      </c>
-      <c r="J45" s="5">
-        <v>8</v>
+        <v>7.6</v>
+      </c>
+      <c r="J45" s="6">
+        <v>8.3000000000000007</v>
       </c>
       <c r="K45" s="12">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="L45" s="5">
-        <v>510</v>
+        <v>2656</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="5">
-        <v>1</v>
+      <c r="N45" s="8">
+        <v>1.1000000000000001</v>
       </c>
       <c r="O45" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="P45" s="33">
-        <v>0.70399999999999996</v>
+      <c r="P45" s="17" t="s">
+        <v>3</v>
       </c>
       <c r="Q45" s="5">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="R45" s="5">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="S45" s="5">
-        <v>21</v>
-      </c>
-      <c r="T45" s="9">
-        <v>210</v>
+        <v>46</v>
+      </c>
+      <c r="T45" s="13">
+        <v>94</v>
       </c>
       <c r="U45" s="4" t="s">
         <v>4</v>
@@ -4187,62 +4162,62 @@
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="34">
-        <v>1981</v>
-      </c>
-      <c r="B46" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="47"/>
+        <v>1245</v>
+      </c>
+      <c r="B46" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="45"/>
       <c r="D46" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E46" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F46" s="5">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G46" s="6">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="H46" s="16">
-        <v>7.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I46" s="8">
-        <v>7.5</v>
-      </c>
-      <c r="J46" s="6">
-        <v>8.4</v>
+        <v>7.1</v>
+      </c>
+      <c r="J46" s="5">
+        <v>8</v>
       </c>
       <c r="K46" s="12">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="L46" s="5">
-        <v>481</v>
+        <v>510</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="8">
-        <v>1.1000000000000001</v>
+      <c r="N46" s="5">
+        <v>1</v>
       </c>
       <c r="O46" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="P46" s="17" t="s">
-        <v>3</v>
+      <c r="P46" s="33">
+        <v>0.70399999999999996</v>
       </c>
       <c r="Q46" s="5">
+        <v>4</v>
+      </c>
+      <c r="R46" s="5">
+        <v>18</v>
+      </c>
+      <c r="S46" s="5">
         <v>21</v>
       </c>
-      <c r="R46" s="5">
-        <v>49</v>
-      </c>
-      <c r="S46" s="5">
-        <v>68</v>
-      </c>
-      <c r="T46" s="13">
-        <v>92</v>
+      <c r="T46" s="9">
+        <v>210</v>
       </c>
       <c r="U46" s="4" t="s">
         <v>4</v>
@@ -4253,12 +4228,12 @@
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="34">
-        <v>1243</v>
-      </c>
-      <c r="B47" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C47" s="47"/>
+        <v>1981</v>
+      </c>
+      <c r="B47" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="45"/>
       <c r="D47" s="4" t="s">
         <v>6</v>
       </c>
@@ -4269,28 +4244,28 @@
         <v>30</v>
       </c>
       <c r="G47" s="6">
-        <v>3.6</v>
+        <v>6.4</v>
       </c>
       <c r="H47" s="16">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="I47" s="8">
         <v>7.5</v>
       </c>
       <c r="J47" s="6">
-        <v>8.1999999999999993</v>
+        <v>8.4</v>
       </c>
       <c r="K47" s="12">
-        <v>244</v>
+        <v>321</v>
       </c>
       <c r="L47" s="5">
-        <v>972</v>
+        <v>481</v>
       </c>
       <c r="M47" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="5">
-        <v>1</v>
+      <c r="N47" s="8">
+        <v>1.1000000000000001</v>
       </c>
       <c r="O47" s="4" t="s">
         <v>3</v>
@@ -4299,43 +4274,114 @@
         <v>3</v>
       </c>
       <c r="Q47" s="5">
+        <v>21</v>
+      </c>
+      <c r="R47" s="5">
+        <v>49</v>
+      </c>
+      <c r="S47" s="5">
+        <v>68</v>
+      </c>
+      <c r="T47" s="13">
+        <v>92</v>
+      </c>
+      <c r="U47" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V47" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48" s="34">
+        <v>1243</v>
+      </c>
+      <c r="B48" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="45"/>
+      <c r="D48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="9">
+        <v>26</v>
+      </c>
+      <c r="F48" s="5">
+        <v>30</v>
+      </c>
+      <c r="G48" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="H48" s="16">
+        <v>7.5</v>
+      </c>
+      <c r="I48" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="J48" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K48" s="12">
+        <v>244</v>
+      </c>
+      <c r="L48" s="5">
+        <v>972</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="5">
+        <v>1</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="5">
         <v>70</v>
       </c>
-      <c r="R47" s="5">
+      <c r="R48" s="5">
         <v>170</v>
       </c>
-      <c r="S47" s="5">
+      <c r="S48" s="5">
         <v>210</v>
       </c>
-      <c r="T47" s="9">
+      <c r="T48" s="9">
         <v>320</v>
       </c>
-      <c r="U47" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V47" s="4" t="s">
+      <c r="U48" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V48" s="4" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B39:C39"/>
+  <mergeCells count="48">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
@@ -4346,26 +4392,22 @@
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Water-Quality-Prediction/Code/Narmada.xlsx
+++ b/Water-Quality-Prediction/Code/Narmada.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="71">
   <si>
     <r>
       <rPr>
@@ -615,9 +615,6 @@
   </si>
   <si>
     <t>FS_MAX</t>
-  </si>
-  <si>
-    <t>Water Quality Data Narmada</t>
   </si>
 </sst>
 </file>
@@ -682,7 +679,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -731,20 +728,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -877,6 +865,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -884,43 +878,34 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1226,152 +1211,192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V48"/>
+  <dimension ref="A1:V47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+      <selection sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="40" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F1" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G1" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H1" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I1" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J1" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="43" t="s">
+      <c r="K1" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="41" t="s">
+      <c r="L1" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="M1" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N1" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O1" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="P2" s="42" t="s">
+      <c r="P1" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="Q1" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="R1" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="S2" s="41" t="s">
+      <c r="S1" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="T2" s="41" t="s">
+      <c r="T1" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="U2" s="41" t="s">
+      <c r="U1" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="V2" s="41" t="s">
+      <c r="V1" s="41" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A2" s="34">
+        <v>3321</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7">
+        <v>18.5</v>
+      </c>
+      <c r="F2" s="8">
+        <v>29.5</v>
+      </c>
+      <c r="G2" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="H2" s="16">
+        <v>8.4</v>
+      </c>
+      <c r="I2" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="J2" s="11">
+        <v>8.01</v>
+      </c>
+      <c r="K2" s="12">
+        <v>218</v>
+      </c>
+      <c r="L2" s="5">
+        <v>387</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="11">
+        <v>0.49</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>2</v>
+      </c>
+      <c r="R2" s="5">
+        <v>18</v>
+      </c>
+      <c r="S2" s="5">
+        <v>26</v>
+      </c>
+      <c r="T2" s="5">
+        <v>43</v>
+      </c>
+      <c r="U2" s="5">
+        <v>2</v>
+      </c>
+      <c r="V2" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="34">
-        <v>3321</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="49"/>
+        <v>1242</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="47"/>
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7">
-        <v>18.5</v>
+      <c r="E3" s="9">
+        <v>18</v>
       </c>
       <c r="F3" s="8">
         <v>29.5</v>
       </c>
       <c r="G3" s="6">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="H3" s="16">
-        <v>8.4</v>
-      </c>
-      <c r="I3" s="8">
-        <v>7.5</v>
-      </c>
-      <c r="J3" s="11">
-        <v>8.01</v>
+        <v>7.7</v>
+      </c>
+      <c r="I3" s="5">
+        <v>7</v>
+      </c>
+      <c r="J3" s="6">
+        <v>7.9</v>
       </c>
       <c r="K3" s="12">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="L3" s="5">
-        <v>387</v>
+        <v>2216</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N3" s="8">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="O3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="P3" s="11">
-        <v>0.49</v>
+        <v>0.42</v>
       </c>
       <c r="Q3" s="5">
         <v>2</v>
@@ -1380,10 +1405,10 @@
         <v>18</v>
       </c>
       <c r="S3" s="5">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="T3" s="5">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U3" s="5">
         <v>2</v>
@@ -1394,128 +1419,128 @@
     </row>
     <row r="4" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A4" s="34">
-        <v>1242</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="45"/>
+        <v>1241</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="47"/>
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="9">
-        <v>18</v>
-      </c>
-      <c r="F4" s="8">
-        <v>29.5</v>
+      <c r="E4" s="7">
+        <v>17.2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>26</v>
       </c>
       <c r="G4" s="6">
-        <v>3.6</v>
+        <v>6.8</v>
       </c>
       <c r="H4" s="16">
-        <v>7.7</v>
-      </c>
-      <c r="I4" s="5">
-        <v>7</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I4" s="8">
+        <v>7.2</v>
       </c>
       <c r="J4" s="6">
-        <v>7.9</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="K4" s="12">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="L4" s="5">
-        <v>2216</v>
+        <v>363</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N4" s="8">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="O4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="11">
-        <v>0.42</v>
+      <c r="P4" s="6">
+        <v>0.8</v>
       </c>
       <c r="Q4" s="5">
         <v>2</v>
       </c>
       <c r="R4" s="5">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="S4" s="5">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="T4" s="5">
-        <v>44</v>
-      </c>
-      <c r="U4" s="5">
-        <v>2</v>
-      </c>
-      <c r="V4" s="5">
-        <v>2</v>
+        <v>48</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="34">
-        <v>1241</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="45"/>
+        <v>1240</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="47"/>
       <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="7">
-        <v>17.2</v>
-      </c>
-      <c r="F5" s="5">
-        <v>26</v>
-      </c>
-      <c r="G5" s="6">
-        <v>6.8</v>
+      <c r="E5" s="9">
+        <v>17</v>
+      </c>
+      <c r="F5" s="8">
+        <v>23.5</v>
+      </c>
+      <c r="G5" s="5">
+        <v>7</v>
       </c>
       <c r="H5" s="16">
+        <v>8.6</v>
+      </c>
+      <c r="I5" s="5">
+        <v>7</v>
+      </c>
+      <c r="J5" s="6">
         <v>8.3000000000000007</v>
       </c>
-      <c r="I5" s="8">
-        <v>7.2</v>
-      </c>
-      <c r="J5" s="6">
-        <v>8.6999999999999993</v>
-      </c>
       <c r="K5" s="12">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="L5" s="5">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N5" s="8">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="O5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="6">
-        <v>0.8</v>
+      <c r="P5" s="11">
+        <v>1.1599999999999999</v>
       </c>
       <c r="Q5" s="5">
         <v>2</v>
       </c>
       <c r="R5" s="5">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="S5" s="5">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="T5" s="5">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U5" s="4" t="s">
         <v>4</v>
@@ -1526,182 +1551,182 @@
     </row>
     <row r="6" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A6" s="34">
-        <v>1240</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="45"/>
+        <v>2106</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="47"/>
       <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="9">
-        <v>17</v>
-      </c>
-      <c r="F6" s="8">
-        <v>23.5</v>
+        <v>22</v>
+      </c>
+      <c r="F6" s="5">
+        <v>28</v>
       </c>
       <c r="G6" s="5">
         <v>7</v>
       </c>
       <c r="H6" s="16">
-        <v>8.6</v>
-      </c>
-      <c r="I6" s="5">
-        <v>7</v>
+        <v>7.9</v>
+      </c>
+      <c r="I6" s="8">
+        <v>7.3</v>
       </c>
       <c r="J6" s="6">
         <v>8.3000000000000007</v>
       </c>
       <c r="K6" s="12">
-        <v>170</v>
+        <v>279</v>
       </c>
       <c r="L6" s="5">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="8">
-        <v>1.9</v>
-      </c>
-      <c r="O6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="P6" s="11">
-        <v>1.1599999999999999</v>
+      <c r="N6" s="5">
+        <v>2</v>
+      </c>
+      <c r="O6" s="14">
+        <v>0.31</v>
+      </c>
+      <c r="P6" s="9">
+        <v>51</v>
       </c>
       <c r="Q6" s="5">
         <v>2</v>
       </c>
       <c r="R6" s="5">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="S6" s="5">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="T6" s="5">
         <v>49</v>
       </c>
-      <c r="U6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>4</v>
+      <c r="U6" s="5">
+        <v>2</v>
+      </c>
+      <c r="V6" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="34">
-        <v>2106</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="45"/>
+        <v>45</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="47"/>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F7" s="5">
-        <v>28</v>
-      </c>
-      <c r="G7" s="5">
-        <v>7</v>
+        <v>24</v>
+      </c>
+      <c r="G7" s="6">
+        <v>7.3</v>
       </c>
       <c r="H7" s="16">
-        <v>7.9</v>
+        <v>8.6</v>
       </c>
       <c r="I7" s="8">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="J7" s="6">
-        <v>8.3000000000000007</v>
+        <v>8.5</v>
       </c>
       <c r="K7" s="12">
-        <v>279</v>
+        <v>214</v>
       </c>
       <c r="L7" s="5">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="5">
-        <v>2</v>
+      <c r="N7" s="8">
+        <v>1.3</v>
       </c>
       <c r="O7" s="14">
-        <v>0.31</v>
-      </c>
-      <c r="P7" s="9">
-        <v>51</v>
+        <v>0.51</v>
+      </c>
+      <c r="P7" s="11">
+        <v>1.33</v>
       </c>
       <c r="Q7" s="5">
         <v>2</v>
       </c>
       <c r="R7" s="5">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="S7" s="5">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="T7" s="5">
-        <v>49</v>
-      </c>
-      <c r="U7" s="5">
-        <v>2</v>
-      </c>
-      <c r="V7" s="5">
-        <v>2</v>
+        <v>47</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="34">
-        <v>45</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="45"/>
+        <v>1239</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="47"/>
       <c r="D8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="9">
         <v>20</v>
       </c>
-      <c r="F8" s="5">
-        <v>24</v>
+      <c r="F8" s="8">
+        <v>24.6</v>
       </c>
       <c r="G8" s="6">
-        <v>7.3</v>
-      </c>
-      <c r="H8" s="16">
-        <v>8.6</v>
+        <v>7.2</v>
+      </c>
+      <c r="H8" s="5">
+        <v>8</v>
       </c>
       <c r="I8" s="8">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="J8" s="6">
-        <v>8.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="K8" s="12">
-        <v>214</v>
+        <v>152</v>
       </c>
       <c r="L8" s="5">
-        <v>340</v>
+        <v>594</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N8" s="8">
-        <v>1.3</v>
-      </c>
-      <c r="O8" s="14">
-        <v>0.51</v>
+        <v>1.2</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>3</v>
       </c>
       <c r="P8" s="11">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="Q8" s="5">
         <v>2</v>
@@ -1710,10 +1735,10 @@
         <v>2</v>
       </c>
       <c r="S8" s="5">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T8" s="5">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U8" s="4" t="s">
         <v>4</v>
@@ -1724,50 +1749,50 @@
     </row>
     <row r="9" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="34">
-        <v>1239</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="45"/>
+        <v>1431</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="47"/>
       <c r="D9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="8">
-        <v>24.6</v>
+        <v>24.3</v>
       </c>
       <c r="G9" s="6">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="H9" s="5">
         <v>8</v>
       </c>
       <c r="I9" s="8">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="J9" s="6">
-        <v>8.3000000000000007</v>
+        <v>8.1</v>
       </c>
       <c r="K9" s="12">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="L9" s="5">
-        <v>594</v>
+        <v>338</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N9" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>3</v>
+        <v>1.3</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0.61</v>
       </c>
       <c r="P9" s="11">
-        <v>1.24</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="Q9" s="5">
         <v>2</v>
@@ -1776,10 +1801,10 @@
         <v>2</v>
       </c>
       <c r="S9" s="5">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T9" s="5">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U9" s="4" t="s">
         <v>4</v>
@@ -1790,62 +1815,62 @@
     </row>
     <row r="10" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="34">
-        <v>1431</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="45"/>
+        <v>2099</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="47"/>
       <c r="D10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="9">
-        <v>19</v>
-      </c>
-      <c r="F10" s="8">
-        <v>24.3</v>
-      </c>
-      <c r="G10" s="6">
-        <v>7.3</v>
-      </c>
-      <c r="H10" s="5">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="F10" s="5">
+        <v>25</v>
+      </c>
+      <c r="G10" s="5">
+        <v>7</v>
+      </c>
+      <c r="H10" s="16">
+        <v>8.6999999999999993</v>
       </c>
       <c r="I10" s="8">
         <v>7.4</v>
       </c>
       <c r="J10" s="6">
-        <v>8.1</v>
+        <v>8.6</v>
       </c>
       <c r="K10" s="12">
-        <v>258</v>
+        <v>130</v>
       </c>
       <c r="L10" s="5">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N10" s="8">
-        <v>1.3</v>
-      </c>
-      <c r="O10" s="14">
-        <v>0.61</v>
+        <v>1.9</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>3</v>
       </c>
       <c r="P10" s="11">
-        <v>1.1100000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Q10" s="5">
         <v>2</v>
       </c>
       <c r="R10" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S10" s="5">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="T10" s="5">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="U10" s="4" t="s">
         <v>4</v>
@@ -1856,12 +1881,12 @@
     </row>
     <row r="11" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A11" s="34">
-        <v>2099</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="45"/>
+        <v>1234</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="47"/>
       <c r="D11" s="4" t="s">
         <v>5</v>
       </c>
@@ -1869,103 +1894,103 @@
         <v>17</v>
       </c>
       <c r="F11" s="5">
-        <v>25</v>
-      </c>
-      <c r="G11" s="5">
-        <v>7</v>
+        <v>32</v>
+      </c>
+      <c r="G11" s="6">
+        <v>8.3000000000000007</v>
       </c>
       <c r="H11" s="16">
-        <v>8.6999999999999993</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I11" s="8">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="J11" s="6">
-        <v>8.6</v>
+        <v>7.9</v>
       </c>
       <c r="K11" s="12">
-        <v>130</v>
+        <v>246</v>
       </c>
       <c r="L11" s="5">
-        <v>378</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>3</v>
+        <v>298</v>
+      </c>
+      <c r="M11" s="8">
+        <v>1.1000000000000001</v>
       </c>
       <c r="N11" s="8">
-        <v>1.9</v>
-      </c>
-      <c r="O11" s="10" t="s">
-        <v>3</v>
+        <v>1.7</v>
+      </c>
+      <c r="O11" s="14">
+        <v>0.95</v>
       </c>
       <c r="P11" s="11">
-        <v>0.87</v>
+        <v>1.75</v>
       </c>
       <c r="Q11" s="5">
         <v>2</v>
       </c>
       <c r="R11" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S11" s="5">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="T11" s="5">
-        <v>39</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V11" s="4" t="s">
-        <v>4</v>
+        <v>63</v>
+      </c>
+      <c r="U11" s="5">
+        <v>2</v>
+      </c>
+      <c r="V11" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A12" s="34">
-        <v>1234</v>
-      </c>
-      <c r="B12" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="45"/>
+        <v>2112</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="47"/>
       <c r="D12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="9">
-        <v>17</v>
-      </c>
-      <c r="F12" s="5">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="F12" s="8">
+        <v>24.2</v>
       </c>
       <c r="G12" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="H12" s="16">
         <v>8.3000000000000007</v>
       </c>
-      <c r="H12" s="16">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="I12" s="8">
-        <v>7.5</v>
+      <c r="I12" s="5">
+        <v>7</v>
       </c>
       <c r="J12" s="6">
-        <v>7.9</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="K12" s="12">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="L12" s="5">
-        <v>298</v>
-      </c>
-      <c r="M12" s="8">
-        <v>1.1000000000000001</v>
+        <v>489</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="N12" s="8">
-        <v>1.7</v>
-      </c>
-      <c r="O12" s="14">
-        <v>0.95</v>
+        <v>1.2</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>3</v>
       </c>
       <c r="P12" s="11">
-        <v>1.75</v>
+        <v>3.65</v>
       </c>
       <c r="Q12" s="5">
         <v>2</v>
@@ -1974,88 +1999,88 @@
         <v>2</v>
       </c>
       <c r="S12" s="5">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="T12" s="5">
-        <v>63</v>
-      </c>
-      <c r="U12" s="5">
-        <v>2</v>
-      </c>
-      <c r="V12" s="5">
-        <v>2</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
     </row>
     <row r="13" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="34">
-        <v>2112</v>
-      </c>
-      <c r="B13" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="45"/>
+        <v>44</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="47"/>
       <c r="D13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="9">
-        <v>19</v>
-      </c>
-      <c r="F13" s="8">
-        <v>24.2</v>
+        <v>18</v>
+      </c>
+      <c r="F13" s="5">
+        <v>31</v>
       </c>
       <c r="G13" s="6">
-        <v>7.2</v>
+        <v>5.8</v>
       </c>
       <c r="H13" s="16">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I13" s="5">
-        <v>7</v>
-      </c>
-      <c r="J13" s="6">
-        <v>8.3000000000000007</v>
+        <v>9.1</v>
+      </c>
+      <c r="I13" s="8">
+        <v>7.6</v>
+      </c>
+      <c r="J13" s="11">
+        <v>8.39</v>
       </c>
       <c r="K13" s="12">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="L13" s="5">
-        <v>489</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>3</v>
+        <v>367</v>
+      </c>
+      <c r="M13" s="5">
+        <v>1</v>
       </c>
       <c r="N13" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="O13" s="10" t="s">
-        <v>3</v>
+        <v>1.5</v>
+      </c>
+      <c r="O13" s="14">
+        <v>1.62</v>
       </c>
       <c r="P13" s="11">
-        <v>3.65</v>
+        <v>7.64</v>
       </c>
       <c r="Q13" s="5">
         <v>2</v>
       </c>
       <c r="R13" s="5">
-        <v>2</v>
+        <v>35000</v>
       </c>
       <c r="S13" s="5">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T13" s="5">
-        <v>49</v>
-      </c>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
+        <v>160000</v>
+      </c>
+      <c r="U13" s="5">
+        <v>2</v>
+      </c>
+      <c r="V13" s="5">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A14" s="34">
-        <v>44</v>
-      </c>
-      <c r="B14" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="45"/>
+        <v>1235</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="47"/>
       <c r="D14" s="4" t="s">
         <v>5</v>
       </c>
@@ -2063,25 +2088,25 @@
         <v>18</v>
       </c>
       <c r="F14" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" s="6">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="H14" s="16">
-        <v>9.1</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I14" s="8">
-        <v>7.6</v>
-      </c>
-      <c r="J14" s="11">
-        <v>8.39</v>
+        <v>7.4</v>
+      </c>
+      <c r="J14" s="6">
+        <v>8.1999999999999993</v>
       </c>
       <c r="K14" s="12">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="L14" s="5">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="M14" s="5">
         <v>1</v>
@@ -2090,19 +2115,19 @@
         <v>1.5</v>
       </c>
       <c r="O14" s="14">
-        <v>1.62</v>
+        <v>2.12</v>
       </c>
       <c r="P14" s="11">
-        <v>7.64</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="Q14" s="5">
         <v>2</v>
       </c>
       <c r="R14" s="5">
-        <v>35000</v>
+        <v>57000</v>
       </c>
       <c r="S14" s="5">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="T14" s="5">
         <v>160000</v>
@@ -2111,661 +2136,661 @@
         <v>2</v>
       </c>
       <c r="V14" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="34">
-        <v>1235</v>
-      </c>
-      <c r="B15" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="45"/>
+        <v>2113</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="47"/>
       <c r="D15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="9">
-        <v>18</v>
-      </c>
-      <c r="F15" s="5">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="F15" s="8">
+        <v>24.3</v>
       </c>
       <c r="G15" s="6">
-        <v>5.6</v>
+        <v>7.1</v>
       </c>
       <c r="H15" s="16">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I15" s="8">
+        <v>7.3</v>
+      </c>
+      <c r="J15" s="6">
+        <v>8.4</v>
+      </c>
+      <c r="K15" s="12">
+        <v>242</v>
+      </c>
+      <c r="L15" s="5">
+        <v>2676</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O15" s="14">
+        <v>0.59</v>
+      </c>
+      <c r="P15" s="11">
+        <v>1.02</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>2</v>
+      </c>
+      <c r="R15" s="5">
+        <v>2</v>
+      </c>
+      <c r="S15" s="5">
+        <v>27</v>
+      </c>
+      <c r="T15" s="5">
+        <v>49</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A16" s="35">
+        <v>1430</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="51"/>
+      <c r="D16" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="26">
+        <v>19</v>
+      </c>
+      <c r="F16" s="22">
+        <v>24.4</v>
+      </c>
+      <c r="G16" s="20">
+        <v>7</v>
+      </c>
+      <c r="H16" s="29">
+        <v>8.1</v>
+      </c>
+      <c r="I16" s="22">
+        <v>7.4</v>
+      </c>
+      <c r="J16" s="21">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K16" s="23">
+        <v>224</v>
+      </c>
+      <c r="L16" s="20">
+        <v>292</v>
+      </c>
+      <c r="M16" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N16" s="22">
+        <v>1.2</v>
+      </c>
+      <c r="O16" s="36">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="P16" s="25">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="Q16" s="20">
+        <v>2</v>
+      </c>
+      <c r="R16" s="20">
+        <v>2</v>
+      </c>
+      <c r="S16" s="20">
+        <v>31</v>
+      </c>
+      <c r="T16" s="20">
+        <v>49</v>
+      </c>
+      <c r="U16" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="V16" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A17" s="34">
+        <v>3322</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="53"/>
+      <c r="D17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="9">
+        <v>13</v>
+      </c>
+      <c r="F17" s="5">
+        <v>26</v>
+      </c>
+      <c r="G17" s="5">
+        <v>7</v>
+      </c>
+      <c r="H17" s="16">
+        <v>7.8</v>
+      </c>
+      <c r="I17" s="8">
+        <v>7.3</v>
+      </c>
+      <c r="J17" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="K17" s="12">
+        <v>160</v>
+      </c>
+      <c r="L17" s="5">
+        <v>366</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="5">
+        <v>2</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="11">
+        <v>0.85</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>2</v>
+      </c>
+      <c r="R17" s="5">
+        <v>6</v>
+      </c>
+      <c r="S17" s="5">
+        <v>14</v>
+      </c>
+      <c r="T17" s="5">
+        <v>48</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A18" s="35">
+        <v>3323</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="49"/>
+      <c r="D18" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="26">
+        <v>17</v>
+      </c>
+      <c r="F18" s="22">
+        <v>25.2</v>
+      </c>
+      <c r="G18" s="20">
+        <v>7</v>
+      </c>
+      <c r="H18" s="29">
+        <v>8.6</v>
+      </c>
+      <c r="I18" s="22">
+        <v>7.2</v>
+      </c>
+      <c r="J18" s="21">
         <v>8.6999999999999993</v>
       </c>
-      <c r="I15" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="J15" s="6">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="K15" s="12">
-        <v>278</v>
-      </c>
-      <c r="L15" s="5">
-        <v>365</v>
-      </c>
-      <c r="M15" s="5">
-        <v>1</v>
-      </c>
-      <c r="N15" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="O15" s="14">
-        <v>2.12</v>
-      </c>
-      <c r="P15" s="11">
-        <v>8.1199999999999992</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>2</v>
-      </c>
-      <c r="R15" s="5">
-        <v>57000</v>
-      </c>
-      <c r="S15" s="5">
-        <v>84</v>
-      </c>
-      <c r="T15" s="5">
-        <v>160000</v>
-      </c>
-      <c r="U15" s="5">
-        <v>2</v>
-      </c>
-      <c r="V15" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A16" s="34">
-        <v>2113</v>
-      </c>
-      <c r="B16" s="44" t="s">
+      <c r="K18" s="23">
+        <v>138</v>
+      </c>
+      <c r="L18" s="20">
+        <v>411</v>
+      </c>
+      <c r="M18" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="22">
+        <v>1.8</v>
+      </c>
+      <c r="O18" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q18" s="20">
+        <v>2</v>
+      </c>
+      <c r="R18" s="20">
+        <v>59</v>
+      </c>
+      <c r="S18" s="20">
         <v>20</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="4" t="s">
+      <c r="T18" s="20">
+        <v>48</v>
+      </c>
+      <c r="U18" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="V18" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A19" s="34">
+        <v>3324</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="49"/>
+      <c r="D19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="9">
-        <v>19</v>
-      </c>
-      <c r="F16" s="8">
-        <v>24.3</v>
-      </c>
-      <c r="G16" s="6">
-        <v>7.1</v>
-      </c>
-      <c r="H16" s="16">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="I16" s="8">
+      <c r="E19" s="7">
+        <v>17.2</v>
+      </c>
+      <c r="F19" s="8">
+        <v>23.5</v>
+      </c>
+      <c r="G19" s="5">
+        <v>7</v>
+      </c>
+      <c r="H19" s="16">
+        <v>8.1</v>
+      </c>
+      <c r="I19" s="8">
         <v>7.3</v>
       </c>
-      <c r="J16" s="6">
-        <v>8.4</v>
-      </c>
-      <c r="K16" s="12">
-        <v>242</v>
-      </c>
-      <c r="L16" s="5">
-        <v>2676</v>
-      </c>
-      <c r="M16" s="4" t="s">
+      <c r="J19" s="6">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K19" s="12">
+        <v>218</v>
+      </c>
+      <c r="L19" s="5">
+        <v>385</v>
+      </c>
+      <c r="M19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N16" s="8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O16" s="14">
-        <v>0.59</v>
-      </c>
-      <c r="P16" s="11">
-        <v>1.02</v>
-      </c>
-      <c r="Q16" s="5">
-        <v>2</v>
-      </c>
-      <c r="R16" s="5">
-        <v>2</v>
-      </c>
-      <c r="S16" s="5">
-        <v>27</v>
-      </c>
-      <c r="T16" s="5">
+      <c r="N19" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="P19" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>2</v>
+      </c>
+      <c r="R19" s="5">
+        <v>6</v>
+      </c>
+      <c r="S19" s="5">
+        <v>8</v>
+      </c>
+      <c r="T19" s="5">
+        <v>400</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>3325</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="49"/>
+      <c r="D20" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="28">
+        <v>17.2</v>
+      </c>
+      <c r="F20" s="22">
+        <v>23.3</v>
+      </c>
+      <c r="G20" s="20">
+        <v>7</v>
+      </c>
+      <c r="H20" s="29">
+        <v>7.8</v>
+      </c>
+      <c r="I20" s="22">
+        <v>7.3</v>
+      </c>
+      <c r="J20" s="21">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K20" s="23">
+        <v>226</v>
+      </c>
+      <c r="L20" s="20">
+        <v>2600</v>
+      </c>
+      <c r="M20" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="22">
+        <v>1.9</v>
+      </c>
+      <c r="O20" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="25">
+        <v>1.34</v>
+      </c>
+      <c r="Q20" s="20">
+        <v>2</v>
+      </c>
+      <c r="R20" s="20">
+        <v>6</v>
+      </c>
+      <c r="S20" s="20">
+        <v>10</v>
+      </c>
+      <c r="T20" s="20">
         <v>49</v>
       </c>
-      <c r="U16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V16" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A17" s="35">
-        <v>1430</v>
-      </c>
-      <c r="B17" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="26">
-        <v>19</v>
-      </c>
-      <c r="F17" s="22">
-        <v>24.4</v>
-      </c>
-      <c r="G17" s="20">
-        <v>7</v>
-      </c>
-      <c r="H17" s="29">
-        <v>8.1</v>
-      </c>
-      <c r="I17" s="22">
-        <v>7.4</v>
-      </c>
-      <c r="J17" s="21">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="K17" s="23">
-        <v>224</v>
-      </c>
-      <c r="L17" s="20">
-        <v>292</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="22">
-        <v>1.2</v>
-      </c>
-      <c r="O17" s="36">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="P17" s="25">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="Q17" s="20">
-        <v>2</v>
-      </c>
-      <c r="R17" s="20">
-        <v>2</v>
-      </c>
-      <c r="S17" s="20">
-        <v>31</v>
-      </c>
-      <c r="T17" s="20">
-        <v>49</v>
-      </c>
-      <c r="U17" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="V17" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A18" s="34">
-        <v>3322</v>
-      </c>
-      <c r="B18" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="53"/>
-      <c r="D18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="9">
-        <v>13</v>
-      </c>
-      <c r="F18" s="5">
-        <v>26</v>
-      </c>
-      <c r="G18" s="5">
-        <v>7</v>
-      </c>
-      <c r="H18" s="16">
-        <v>7.8</v>
-      </c>
-      <c r="I18" s="8">
-        <v>7.3</v>
-      </c>
-      <c r="J18" s="6">
-        <v>8.6</v>
-      </c>
-      <c r="K18" s="12">
-        <v>160</v>
-      </c>
-      <c r="L18" s="5">
-        <v>366</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="5">
-        <v>2</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="P18" s="11">
-        <v>0.85</v>
-      </c>
-      <c r="Q18" s="5">
-        <v>2</v>
-      </c>
-      <c r="R18" s="5">
-        <v>6</v>
-      </c>
-      <c r="S18" s="5">
-        <v>14</v>
-      </c>
-      <c r="T18" s="5">
-        <v>48</v>
-      </c>
-      <c r="U18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V18" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A19" s="35">
-        <v>3323</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="26">
-        <v>17</v>
-      </c>
-      <c r="F19" s="22">
-        <v>25.2</v>
-      </c>
-      <c r="G19" s="20">
-        <v>7</v>
-      </c>
-      <c r="H19" s="29">
-        <v>8.6</v>
-      </c>
-      <c r="I19" s="22">
-        <v>7.2</v>
-      </c>
-      <c r="J19" s="21">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="K19" s="23">
-        <v>138</v>
-      </c>
-      <c r="L19" s="20">
-        <v>411</v>
-      </c>
-      <c r="M19" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="N19" s="22">
-        <v>1.8</v>
-      </c>
-      <c r="O19" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="P19" s="21">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Q19" s="20">
-        <v>2</v>
-      </c>
-      <c r="R19" s="20">
-        <v>59</v>
-      </c>
-      <c r="S19" s="20">
-        <v>20</v>
-      </c>
-      <c r="T19" s="20">
-        <v>48</v>
-      </c>
-      <c r="U19" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="V19" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A20" s="34">
-        <v>3324</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="7">
-        <v>17.2</v>
-      </c>
-      <c r="F20" s="8">
-        <v>23.5</v>
-      </c>
-      <c r="G20" s="5">
-        <v>7</v>
-      </c>
-      <c r="H20" s="16">
-        <v>8.1</v>
-      </c>
-      <c r="I20" s="8">
-        <v>7.3</v>
-      </c>
-      <c r="J20" s="6">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="K20" s="12">
-        <v>218</v>
-      </c>
-      <c r="L20" s="5">
-        <v>385</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="8">
-        <v>1.9</v>
-      </c>
-      <c r="O20" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="Q20" s="5">
-        <v>2</v>
-      </c>
-      <c r="R20" s="5">
-        <v>6</v>
-      </c>
-      <c r="S20" s="5">
-        <v>8</v>
-      </c>
-      <c r="T20" s="5">
-        <v>400</v>
-      </c>
-      <c r="U20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V20" s="4" t="s">
+      <c r="U20" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="V20" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
-        <v>3325</v>
-      </c>
-      <c r="B21" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="49"/>
+        <v>2118</v>
+      </c>
+      <c r="B21" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="51"/>
       <c r="D21" s="19" t="s">
         <v>5</v>
       </c>
       <c r="E21" s="28">
-        <v>17.2</v>
+        <v>18.2</v>
       </c>
       <c r="F21" s="22">
-        <v>23.3</v>
-      </c>
-      <c r="G21" s="20">
-        <v>7</v>
+        <v>29.6</v>
+      </c>
+      <c r="G21" s="21">
+        <v>7.1</v>
       </c>
       <c r="H21" s="29">
         <v>7.8</v>
       </c>
-      <c r="I21" s="22">
-        <v>7.3</v>
-      </c>
-      <c r="J21" s="21">
-        <v>8.3000000000000007</v>
+      <c r="I21" s="31">
+        <v>7.19</v>
+      </c>
+      <c r="J21" s="20">
+        <v>8</v>
       </c>
       <c r="K21" s="23">
-        <v>226</v>
+        <v>179</v>
       </c>
       <c r="L21" s="20">
-        <v>2600</v>
+        <v>311</v>
       </c>
       <c r="M21" s="24" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="22">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="O21" s="19" t="s">
         <v>3</v>
       </c>
       <c r="P21" s="25">
-        <v>1.34</v>
+        <v>0.45</v>
       </c>
       <c r="Q21" s="20">
         <v>2</v>
       </c>
       <c r="R21" s="20">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="S21" s="20">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="T21" s="20">
-        <v>49</v>
-      </c>
-      <c r="U21" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="V21" s="19" t="s">
-        <v>4</v>
+        <v>47</v>
+      </c>
+      <c r="U21" s="20">
+        <v>2</v>
+      </c>
+      <c r="V21" s="20">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
-        <v>2118</v>
+        <v>2123</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" s="51"/>
       <c r="D22" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="28">
-        <v>18.2</v>
-      </c>
-      <c r="F22" s="22">
-        <v>29.6</v>
+      <c r="E22" s="26">
+        <v>17</v>
+      </c>
+      <c r="F22" s="20">
+        <v>30</v>
       </c>
       <c r="G22" s="21">
-        <v>7.1</v>
+        <v>5.8</v>
       </c>
       <c r="H22" s="29">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="I22" s="31">
-        <v>7.19</v>
-      </c>
-      <c r="J22" s="20">
-        <v>8</v>
+        <v>7.59</v>
+      </c>
+      <c r="J22" s="25">
+        <v>8.34</v>
       </c>
       <c r="K22" s="23">
-        <v>179</v>
+        <v>251</v>
       </c>
       <c r="L22" s="20">
-        <v>311</v>
-      </c>
-      <c r="M22" s="24" t="s">
-        <v>3</v>
+        <v>388</v>
+      </c>
+      <c r="M22" s="20">
+        <v>1</v>
       </c>
       <c r="N22" s="22">
-        <v>1.7</v>
-      </c>
-      <c r="O22" s="19" t="s">
-        <v>3</v>
+        <v>1.4</v>
+      </c>
+      <c r="O22" s="31">
+        <v>1.42</v>
       </c>
       <c r="P22" s="25">
-        <v>0.45</v>
+        <v>10.72</v>
       </c>
       <c r="Q22" s="20">
         <v>2</v>
       </c>
       <c r="R22" s="20">
-        <v>18</v>
+        <v>35000</v>
       </c>
       <c r="S22" s="20">
-        <v>33</v>
-      </c>
-      <c r="T22" s="20">
-        <v>47</v>
+        <v>63</v>
+      </c>
+      <c r="T22" s="30">
+        <v>92000</v>
       </c>
       <c r="U22" s="20">
         <v>2</v>
       </c>
       <c r="V22" s="20">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
-        <v>2123</v>
+        <v>3847</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23" s="51"/>
       <c r="D23" s="19" t="s">
         <v>5</v>
       </c>
       <c r="E23" s="26">
-        <v>17</v>
-      </c>
-      <c r="F23" s="20">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="F23" s="22">
+        <v>24.6</v>
       </c>
       <c r="G23" s="21">
-        <v>5.8</v>
-      </c>
-      <c r="H23" s="29">
-        <v>8.6</v>
-      </c>
-      <c r="I23" s="31">
-        <v>7.59</v>
-      </c>
-      <c r="J23" s="25">
-        <v>8.34</v>
+        <v>7.1</v>
+      </c>
+      <c r="H23" s="20">
+        <v>8</v>
+      </c>
+      <c r="I23" s="22">
+        <v>7.6</v>
+      </c>
+      <c r="J23" s="21">
+        <v>8.3000000000000007</v>
       </c>
       <c r="K23" s="23">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="L23" s="20">
-        <v>388</v>
-      </c>
-      <c r="M23" s="20">
-        <v>1</v>
+        <v>306</v>
+      </c>
+      <c r="M23" s="24" t="s">
+        <v>3</v>
       </c>
       <c r="N23" s="22">
         <v>1.4</v>
       </c>
       <c r="O23" s="31">
-        <v>1.42</v>
-      </c>
-      <c r="P23" s="25">
-        <v>10.72</v>
+        <v>0.66</v>
+      </c>
+      <c r="P23" s="37">
+        <v>1.778</v>
       </c>
       <c r="Q23" s="20">
         <v>2</v>
       </c>
       <c r="R23" s="20">
-        <v>35000</v>
+        <v>2</v>
       </c>
       <c r="S23" s="20">
-        <v>63</v>
-      </c>
-      <c r="T23" s="30">
-        <v>92000</v>
-      </c>
-      <c r="U23" s="20">
-        <v>2</v>
-      </c>
-      <c r="V23" s="20">
-        <v>13</v>
+        <v>32</v>
+      </c>
+      <c r="T23" s="20">
+        <v>49</v>
+      </c>
+      <c r="U23" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="V23" s="19" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
-        <v>3847</v>
+        <v>4582</v>
       </c>
       <c r="B24" s="50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" s="51"/>
       <c r="D24" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="26">
-        <v>20</v>
+      <c r="E24" s="28">
+        <v>17.3</v>
       </c>
       <c r="F24" s="22">
-        <v>24.6</v>
-      </c>
-      <c r="G24" s="21">
-        <v>7.1</v>
-      </c>
-      <c r="H24" s="20">
-        <v>8</v>
+        <v>25.9</v>
+      </c>
+      <c r="G24" s="20">
+        <v>7</v>
+      </c>
+      <c r="H24" s="29">
+        <v>8.4</v>
       </c>
       <c r="I24" s="22">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J24" s="21">
         <v>8.3000000000000007</v>
       </c>
       <c r="K24" s="23">
-        <v>244</v>
+        <v>150</v>
       </c>
       <c r="L24" s="20">
-        <v>306</v>
-      </c>
-      <c r="M24" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="22">
-        <v>1.4</v>
+        <v>3330</v>
+      </c>
+      <c r="M24" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="N24" s="20">
+        <v>2</v>
       </c>
       <c r="O24" s="31">
-        <v>0.66</v>
-      </c>
-      <c r="P24" s="37">
-        <v>1.778</v>
-      </c>
-      <c r="Q24" s="20">
-        <v>2</v>
+        <v>0.31</v>
+      </c>
+      <c r="P24" s="21">
+        <v>1.3</v>
+      </c>
+      <c r="Q24" s="22">
+        <v>1.8</v>
       </c>
       <c r="R24" s="20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S24" s="20">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="T24" s="20">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="U24" s="19" t="s">
         <v>4</v>
@@ -2776,62 +2801,62 @@
     </row>
     <row r="25" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
-        <v>4582</v>
-      </c>
-      <c r="B25" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="51"/>
+        <v>4583</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="53"/>
       <c r="D25" s="19" t="s">
         <v>5</v>
       </c>
       <c r="E25" s="28">
-        <v>17.3</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="F25" s="22">
-        <v>25.9</v>
+        <v>23.6</v>
       </c>
       <c r="G25" s="20">
         <v>7</v>
       </c>
       <c r="H25" s="29">
-        <v>8.4</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="I25" s="22">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J25" s="21">
-        <v>8.3000000000000007</v>
+        <v>8.1</v>
       </c>
       <c r="K25" s="23">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="L25" s="20">
-        <v>3330</v>
+        <v>390</v>
       </c>
       <c r="M25" s="29">
-        <v>0.4</v>
-      </c>
-      <c r="N25" s="20">
-        <v>2</v>
+        <v>0.7</v>
+      </c>
+      <c r="N25" s="22">
+        <v>1.8</v>
       </c>
       <c r="O25" s="31">
-        <v>0.31</v>
-      </c>
-      <c r="P25" s="21">
-        <v>1.3</v>
+        <v>0.46</v>
+      </c>
+      <c r="P25" s="25">
+        <v>2.44</v>
       </c>
       <c r="Q25" s="22">
         <v>1.8</v>
       </c>
       <c r="R25" s="20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S25" s="20">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T25" s="20">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U25" s="19" t="s">
         <v>4</v>
@@ -2842,62 +2867,62 @@
     </row>
     <row r="26" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
-        <v>4583</v>
-      </c>
-      <c r="B26" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="53"/>
+        <v>4584</v>
+      </c>
+      <c r="B26" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="55"/>
       <c r="D26" s="19" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="28">
-        <v>17.399999999999999</v>
+        <v>17.3</v>
       </c>
       <c r="F26" s="22">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="G26" s="20">
         <v>7</v>
       </c>
       <c r="H26" s="29">
-        <v>8.1999999999999993</v>
+        <v>8.1</v>
       </c>
       <c r="I26" s="22">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="J26" s="21">
-        <v>8.1</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="K26" s="23">
         <v>160</v>
       </c>
       <c r="L26" s="20">
-        <v>390</v>
+        <v>352</v>
       </c>
       <c r="M26" s="29">
         <v>0.7</v>
       </c>
       <c r="N26" s="22">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="O26" s="31">
-        <v>0.46</v>
+        <v>0.36</v>
       </c>
       <c r="P26" s="25">
-        <v>2.44</v>
+        <v>1.21</v>
       </c>
       <c r="Q26" s="22">
         <v>1.8</v>
       </c>
       <c r="R26" s="20">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S26" s="20">
-        <v>40</v>
-      </c>
-      <c r="T26" s="20">
-        <v>40</v>
+        <v>430</v>
+      </c>
+      <c r="T26" s="26">
+        <v>430</v>
       </c>
       <c r="U26" s="19" t="s">
         <v>4</v>
@@ -2908,12 +2933,12 @@
     </row>
     <row r="27" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
-        <v>4584</v>
-      </c>
-      <c r="B27" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="47"/>
+        <v>4586</v>
+      </c>
+      <c r="B27" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="55"/>
       <c r="D27" s="19" t="s">
         <v>5</v>
       </c>
@@ -2921,131 +2946,131 @@
         <v>17.3</v>
       </c>
       <c r="F27" s="22">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="G27" s="20">
         <v>7</v>
       </c>
-      <c r="H27" s="29">
-        <v>8.1</v>
+      <c r="H27" s="20">
+        <v>8</v>
       </c>
       <c r="I27" s="22">
         <v>7.1</v>
       </c>
       <c r="J27" s="21">
-        <v>8.3000000000000007</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="K27" s="23">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="L27" s="20">
-        <v>352</v>
+        <v>2800</v>
       </c>
       <c r="M27" s="29">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="N27" s="22">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="O27" s="31">
-        <v>0.36</v>
+        <v>0.53</v>
       </c>
       <c r="P27" s="25">
-        <v>1.21</v>
+        <v>2.42</v>
       </c>
       <c r="Q27" s="22">
         <v>1.8</v>
       </c>
-      <c r="R27" s="20">
-        <v>10</v>
+      <c r="R27" s="22">
+        <v>1.8</v>
       </c>
       <c r="S27" s="20">
-        <v>430</v>
-      </c>
-      <c r="T27" s="26">
-        <v>430</v>
-      </c>
-      <c r="U27" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="V27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="T27" s="20">
+        <v>0</v>
+      </c>
+      <c r="U27" s="20">
+        <v>4</v>
+      </c>
+      <c r="V27" s="20">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A28" s="18">
-        <v>4586</v>
+      <c r="A28" s="3">
+        <v>4587</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C28" s="47"/>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="28">
-        <v>17.3</v>
-      </c>
-      <c r="F28" s="22">
-        <v>23.6</v>
-      </c>
-      <c r="G28" s="20">
-        <v>7</v>
-      </c>
-      <c r="H28" s="20">
+      <c r="E28" s="9">
+        <v>18</v>
+      </c>
+      <c r="F28" s="5">
+        <v>25</v>
+      </c>
+      <c r="G28" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="H28" s="16">
+        <v>8.9</v>
+      </c>
+      <c r="I28" s="5">
         <v>8</v>
       </c>
-      <c r="I28" s="22">
-        <v>7.1</v>
-      </c>
-      <c r="J28" s="21">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="K28" s="23">
-        <v>147</v>
-      </c>
-      <c r="L28" s="20">
-        <v>2800</v>
-      </c>
-      <c r="M28" s="29">
-        <v>0.8</v>
-      </c>
-      <c r="N28" s="22">
-        <v>1.8</v>
-      </c>
-      <c r="O28" s="31">
-        <v>0.53</v>
-      </c>
-      <c r="P28" s="25">
-        <v>2.42</v>
-      </c>
-      <c r="Q28" s="22">
-        <v>1.8</v>
-      </c>
-      <c r="R28" s="22">
-        <v>1.8</v>
-      </c>
-      <c r="S28" s="20">
-        <v>0</v>
-      </c>
-      <c r="T28" s="20">
-        <v>0</v>
-      </c>
-      <c r="U28" s="20">
-        <v>4</v>
-      </c>
-      <c r="V28" s="20">
-        <v>4</v>
+      <c r="J28" s="6">
+        <v>8.1</v>
+      </c>
+      <c r="K28" s="12">
+        <v>208</v>
+      </c>
+      <c r="L28" s="5">
+        <v>288</v>
+      </c>
+      <c r="M28" s="5">
+        <v>1</v>
+      </c>
+      <c r="N28" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O28" s="15">
+        <v>1.02</v>
+      </c>
+      <c r="P28" s="11">
+        <v>1.55</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>2</v>
+      </c>
+      <c r="R28" s="5">
+        <v>2</v>
+      </c>
+      <c r="S28" s="5">
+        <v>41</v>
+      </c>
+      <c r="T28" s="5">
+        <v>58</v>
+      </c>
+      <c r="U28" s="5">
+        <v>2</v>
+      </c>
+      <c r="V28" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>4587</v>
-      </c>
-      <c r="B29" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="45"/>
+        <v>4588</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="47"/>
       <c r="D29" s="4" t="s">
         <v>5</v>
       </c>
@@ -3053,49 +3078,49 @@
         <v>18</v>
       </c>
       <c r="F29" s="5">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G29" s="6">
-        <v>8.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H29" s="16">
-        <v>8.9</v>
-      </c>
-      <c r="I29" s="5">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I29" s="8">
+        <v>7.7</v>
+      </c>
+      <c r="J29" s="5">
         <v>8</v>
       </c>
-      <c r="J29" s="6">
-        <v>8.1</v>
-      </c>
       <c r="K29" s="12">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="L29" s="5">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="M29" s="5">
         <v>1</v>
       </c>
       <c r="N29" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="O29" s="15">
-        <v>1.02</v>
-      </c>
-      <c r="P29" s="11">
-        <v>1.55</v>
-      </c>
-      <c r="Q29" s="5">
-        <v>2</v>
+        <v>0.87</v>
+      </c>
+      <c r="P29" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>1.8</v>
       </c>
       <c r="R29" s="5">
         <v>2</v>
       </c>
       <c r="S29" s="5">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="T29" s="5">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="U29" s="5">
         <v>2</v>
@@ -3106,50 +3131,50 @@
     </row>
     <row r="30" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>4588</v>
-      </c>
-      <c r="B30" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="45"/>
+        <v>4589</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="47"/>
       <c r="D30" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E30" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F30" s="5">
         <v>32</v>
       </c>
       <c r="G30" s="6">
-        <v>8.8000000000000007</v>
+        <v>8.5</v>
       </c>
       <c r="H30" s="16">
-        <v>9.3000000000000007</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="I30" s="8">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="J30" s="5">
         <v>8</v>
       </c>
       <c r="K30" s="12">
-        <v>216</v>
+        <v>258</v>
       </c>
       <c r="L30" s="5">
-        <v>307</v>
-      </c>
-      <c r="M30" s="5">
-        <v>1</v>
+        <v>327</v>
+      </c>
+      <c r="M30" s="16">
+        <v>1.2</v>
       </c>
       <c r="N30" s="8">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="O30" s="15">
-        <v>0.87</v>
-      </c>
-      <c r="P30" s="6">
-        <v>4.5999999999999996</v>
+        <v>1.37</v>
+      </c>
+      <c r="P30" s="11">
+        <v>3.03</v>
       </c>
       <c r="Q30" s="8">
         <v>1.8</v>
@@ -3158,10 +3183,10 @@
         <v>2</v>
       </c>
       <c r="S30" s="5">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="T30" s="5">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="U30" s="5">
         <v>2</v>
@@ -3172,50 +3197,50 @@
     </row>
     <row r="31" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>4589</v>
-      </c>
-      <c r="B31" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="45"/>
+        <v>4590</v>
+      </c>
+      <c r="B31" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="57"/>
       <c r="D31" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E31" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F31" s="5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G31" s="6">
-        <v>8.5</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="H31" s="16">
-        <v>9.1999999999999993</v>
+        <v>9.9</v>
       </c>
       <c r="I31" s="8">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="J31" s="5">
         <v>8</v>
       </c>
       <c r="K31" s="12">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="L31" s="5">
-        <v>327</v>
-      </c>
-      <c r="M31" s="16">
-        <v>1.2</v>
+        <v>295</v>
+      </c>
+      <c r="M31" s="5">
+        <v>1</v>
       </c>
       <c r="N31" s="8">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O31" s="15">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="P31" s="11">
-        <v>3.03</v>
+        <v>2.08</v>
       </c>
       <c r="Q31" s="8">
         <v>1.8</v>
@@ -3224,10 +3249,10 @@
         <v>2</v>
       </c>
       <c r="S31" s="5">
+        <v>49</v>
+      </c>
+      <c r="T31" s="5">
         <v>70</v>
-      </c>
-      <c r="T31" s="5">
-        <v>84</v>
       </c>
       <c r="U31" s="5">
         <v>2</v>
@@ -3238,50 +3263,50 @@
     </row>
     <row r="32" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>4590</v>
+        <v>4591</v>
       </c>
       <c r="B32" s="54" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C32" s="55"/>
       <c r="D32" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E32" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F32" s="5">
         <v>31</v>
       </c>
       <c r="G32" s="6">
-        <v>8.6999999999999993</v>
+        <v>8.1</v>
       </c>
       <c r="H32" s="16">
-        <v>9.9</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I32" s="8">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="J32" s="5">
         <v>8</v>
       </c>
       <c r="K32" s="12">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="L32" s="5">
-        <v>295</v>
-      </c>
-      <c r="M32" s="5">
-        <v>1</v>
+        <v>306</v>
+      </c>
+      <c r="M32" s="16">
+        <v>1.1000000000000001</v>
       </c>
       <c r="N32" s="8">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="O32" s="15">
-        <v>1.29</v>
-      </c>
-      <c r="P32" s="11">
-        <v>2.08</v>
+        <v>1.83</v>
+      </c>
+      <c r="P32" s="6">
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q32" s="8">
         <v>1.8</v>
@@ -3290,10 +3315,10 @@
         <v>2</v>
       </c>
       <c r="S32" s="5">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="T32" s="5">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="U32" s="5">
         <v>2</v>
@@ -3304,50 +3329,50 @@
     </row>
     <row r="33" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>4591</v>
+        <v>4592</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C33" s="47"/>
       <c r="D33" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E33" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F33" s="5">
         <v>31</v>
       </c>
       <c r="G33" s="6">
-        <v>8.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="H33" s="16">
-        <v>9.6999999999999993</v>
+        <v>9.9</v>
       </c>
       <c r="I33" s="8">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="J33" s="5">
         <v>8</v>
       </c>
       <c r="K33" s="12">
-        <v>251</v>
+        <v>178</v>
       </c>
       <c r="L33" s="5">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="M33" s="16">
         <v>1.1000000000000001</v>
       </c>
       <c r="N33" s="8">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="O33" s="15">
-        <v>1.83</v>
-      </c>
-      <c r="P33" s="6">
-        <v>2.2000000000000002</v>
+        <v>0.97</v>
+      </c>
+      <c r="P33" s="11">
+        <v>2.04</v>
       </c>
       <c r="Q33" s="8">
         <v>1.8</v>
@@ -3359,7 +3384,7 @@
         <v>58</v>
       </c>
       <c r="T33" s="5">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="U33" s="5">
         <v>2</v>
@@ -3370,12 +3395,12 @@
     </row>
     <row r="34" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>4592</v>
-      </c>
-      <c r="B34" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="45"/>
+        <v>4593</v>
+      </c>
+      <c r="B34" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="55"/>
       <c r="D34" s="4" t="s">
         <v>5</v>
       </c>
@@ -3383,37 +3408,37 @@
         <v>18</v>
       </c>
       <c r="F34" s="5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G34" s="6">
-        <v>8.1999999999999993</v>
+        <v>8.6</v>
       </c>
       <c r="H34" s="16">
-        <v>9.9</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I34" s="8">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="J34" s="5">
         <v>8</v>
       </c>
       <c r="K34" s="12">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="L34" s="5">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M34" s="16">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="N34" s="8">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O34" s="15">
-        <v>0.97</v>
-      </c>
-      <c r="P34" s="11">
-        <v>2.04</v>
+        <v>0.17</v>
+      </c>
+      <c r="P34" s="6">
+        <v>3.8</v>
       </c>
       <c r="Q34" s="8">
         <v>1.8</v>
@@ -3425,7 +3450,7 @@
         <v>58</v>
       </c>
       <c r="T34" s="5">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="U34" s="5">
         <v>2</v>
@@ -3436,89 +3461,89 @@
     </row>
     <row r="35" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>4593</v>
-      </c>
-      <c r="B35" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="47"/>
+        <v>4594</v>
+      </c>
+      <c r="B35" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="49"/>
       <c r="D35" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E35" s="9">
+        <v>22</v>
+      </c>
+      <c r="F35" s="5">
+        <v>28</v>
+      </c>
+      <c r="G35" s="6">
+        <v>7.1</v>
+      </c>
+      <c r="H35" s="16">
+        <v>7.8</v>
+      </c>
+      <c r="I35" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="J35" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="K35" s="12">
+        <v>319</v>
+      </c>
+      <c r="L35" s="5">
+        <v>352</v>
+      </c>
+      <c r="M35" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="N35" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="O35" s="38">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="P35" s="33">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>2</v>
+      </c>
+      <c r="R35" s="5">
         <v>18</v>
       </c>
-      <c r="F35" s="5">
-        <v>32</v>
-      </c>
-      <c r="G35" s="6">
-        <v>8.6</v>
-      </c>
-      <c r="H35" s="16">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="I35" s="8">
-        <v>7.7</v>
-      </c>
-      <c r="J35" s="5">
-        <v>8</v>
-      </c>
-      <c r="K35" s="12">
-        <v>218</v>
-      </c>
-      <c r="L35" s="5">
-        <v>285</v>
-      </c>
-      <c r="M35" s="16">
-        <v>1.2</v>
-      </c>
-      <c r="N35" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="O35" s="15">
-        <v>0.17</v>
-      </c>
-      <c r="P35" s="6">
-        <v>3.8</v>
-      </c>
-      <c r="Q35" s="8">
-        <v>1.8</v>
-      </c>
-      <c r="R35" s="5">
-        <v>2</v>
-      </c>
       <c r="S35" s="5">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="T35" s="5">
-        <v>79</v>
-      </c>
-      <c r="U35" s="5">
-        <v>2</v>
-      </c>
-      <c r="V35" s="5">
-        <v>2</v>
+        <v>49</v>
+      </c>
+      <c r="U35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V35" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>4594</v>
+        <v>4595</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C36" s="49"/>
       <c r="D36" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E36" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F36" s="5">
         <v>28</v>
       </c>
-      <c r="G36" s="6">
-        <v>7.1</v>
+      <c r="G36" s="5">
+        <v>7</v>
       </c>
       <c r="H36" s="16">
         <v>7.8</v>
@@ -3527,37 +3552,37 @@
         <v>7.4</v>
       </c>
       <c r="J36" s="6">
-        <v>8.6</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="K36" s="12">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="L36" s="5">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="M36" s="16">
         <v>0.7</v>
       </c>
       <c r="N36" s="8">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="O36" s="38">
-        <v>0.58099999999999996</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="P36" s="33">
-        <v>0.85699999999999998</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="Q36" s="5">
         <v>2</v>
       </c>
       <c r="R36" s="5">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="S36" s="5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T36" s="5">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="U36" s="4" t="s">
         <v>4</v>
@@ -3567,183 +3592,183 @@
       </c>
     </row>
     <row r="37" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>4595</v>
-      </c>
-      <c r="B37" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="49"/>
-      <c r="D37" s="4" t="s">
+      <c r="A37" s="18">
+        <v>4596</v>
+      </c>
+      <c r="B37" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="51"/>
+      <c r="D37" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="9">
-        <v>20</v>
-      </c>
-      <c r="F37" s="5">
-        <v>28</v>
-      </c>
-      <c r="G37" s="5">
+      <c r="E37" s="26">
+        <v>19</v>
+      </c>
+      <c r="F37" s="22">
+        <v>24.8</v>
+      </c>
+      <c r="G37" s="21">
+        <v>7.2</v>
+      </c>
+      <c r="H37" s="29">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I37" s="22">
+        <v>7.5</v>
+      </c>
+      <c r="J37" s="21">
+        <v>8.5</v>
+      </c>
+      <c r="K37" s="23">
+        <v>208</v>
+      </c>
+      <c r="L37" s="20">
+        <v>284</v>
+      </c>
+      <c r="M37" s="29">
+        <v>0.6</v>
+      </c>
+      <c r="N37" s="22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O37" s="39">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="P37" s="37">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="Q37" s="20">
+        <v>1</v>
+      </c>
+      <c r="R37" s="20">
+        <v>1</v>
+      </c>
+      <c r="S37" s="20">
+        <v>14</v>
+      </c>
+      <c r="T37" s="20">
+        <v>43</v>
+      </c>
+      <c r="U37" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="V37" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>4597</v>
+      </c>
+      <c r="B38" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="55"/>
+      <c r="D38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="9">
+        <v>19</v>
+      </c>
+      <c r="F38" s="8">
+        <v>24.4</v>
+      </c>
+      <c r="G38" s="5">
         <v>7</v>
       </c>
-      <c r="H37" s="16">
-        <v>7.8</v>
-      </c>
-      <c r="I37" s="8">
+      <c r="H38" s="16">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I38" s="8">
         <v>7.4</v>
       </c>
-      <c r="J37" s="6">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="K37" s="12">
-        <v>325</v>
-      </c>
-      <c r="L37" s="5">
-        <v>343</v>
-      </c>
-      <c r="M37" s="16">
-        <v>0.7</v>
-      </c>
-      <c r="N37" s="8">
-        <v>2.8</v>
-      </c>
-      <c r="O37" s="38">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="P37" s="33">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="Q37" s="5">
-        <v>2</v>
-      </c>
-      <c r="R37" s="5">
-        <v>6</v>
-      </c>
-      <c r="S37" s="5">
-        <v>29</v>
-      </c>
-      <c r="T37" s="5">
-        <v>58</v>
-      </c>
-      <c r="U37" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V37" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A38" s="18">
-        <v>4596</v>
-      </c>
-      <c r="B38" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="51"/>
-      <c r="D38" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="26">
-        <v>19</v>
-      </c>
-      <c r="F38" s="22">
-        <v>24.8</v>
-      </c>
-      <c r="G38" s="21">
-        <v>7.2</v>
-      </c>
-      <c r="H38" s="29">
+      <c r="J38" s="6">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I38" s="22">
-        <v>7.5</v>
-      </c>
-      <c r="J38" s="21">
-        <v>8.5</v>
-      </c>
-      <c r="K38" s="23">
-        <v>208</v>
-      </c>
-      <c r="L38" s="20">
-        <v>284</v>
-      </c>
-      <c r="M38" s="29">
+      <c r="K38" s="12">
+        <v>248</v>
+      </c>
+      <c r="L38" s="5">
+        <v>429</v>
+      </c>
+      <c r="M38" s="16">
         <v>0.6</v>
       </c>
-      <c r="N38" s="22">
+      <c r="N38" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O38" s="39">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="P38" s="37">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="Q38" s="20">
+      <c r="O38" s="38">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="P38" s="33">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="Q38" s="5">
         <v>1</v>
       </c>
-      <c r="R38" s="20">
+      <c r="R38" s="5">
         <v>1</v>
       </c>
-      <c r="S38" s="20">
-        <v>14</v>
-      </c>
-      <c r="T38" s="20">
+      <c r="S38" s="5">
+        <v>31</v>
+      </c>
+      <c r="T38" s="5">
         <v>43</v>
       </c>
-      <c r="U38" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="V38" s="19" t="s">
+      <c r="U38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V38" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>4597</v>
+      <c r="A39" s="34">
+        <v>4598</v>
       </c>
       <c r="B39" s="46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C39" s="47"/>
       <c r="D39" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E39" s="9">
-        <v>19</v>
-      </c>
-      <c r="F39" s="8">
-        <v>24.4</v>
-      </c>
-      <c r="G39" s="5">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="F39" s="5">
+        <v>25</v>
+      </c>
+      <c r="G39" s="6">
+        <v>7.2</v>
       </c>
       <c r="H39" s="16">
-        <v>8.1999999999999993</v>
+        <v>8.4</v>
       </c>
       <c r="I39" s="8">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="J39" s="6">
-        <v>8.1999999999999993</v>
+        <v>8.4</v>
       </c>
       <c r="K39" s="12">
         <v>248</v>
       </c>
       <c r="L39" s="5">
-        <v>429</v>
-      </c>
-      <c r="M39" s="16">
-        <v>0.6</v>
+        <v>328</v>
+      </c>
+      <c r="M39" s="8">
+        <v>0.5</v>
       </c>
       <c r="N39" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="O39" s="38">
-        <v>0.51200000000000001</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="P39" s="33">
-        <v>0.90800000000000003</v>
+        <v>1.2909999999999999</v>
       </c>
       <c r="Q39" s="5">
         <v>1</v>
@@ -3754,8 +3779,8 @@
       <c r="S39" s="5">
         <v>31</v>
       </c>
-      <c r="T39" s="5">
-        <v>43</v>
+      <c r="T39" s="13">
+        <v>49</v>
       </c>
       <c r="U39" s="4" t="s">
         <v>4</v>
@@ -3766,50 +3791,50 @@
     </row>
     <row r="40" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A40" s="34">
-        <v>4598</v>
-      </c>
-      <c r="B40" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="45"/>
+        <v>4599</v>
+      </c>
+      <c r="B40" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="47"/>
       <c r="D40" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E40" s="9">
-        <v>20</v>
-      </c>
-      <c r="F40" s="5">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="F40" s="8">
+        <v>24.3</v>
       </c>
       <c r="G40" s="6">
-        <v>7.2</v>
-      </c>
-      <c r="H40" s="16">
-        <v>8.4</v>
+        <v>7.3</v>
+      </c>
+      <c r="H40" s="5">
+        <v>8</v>
       </c>
       <c r="I40" s="8">
         <v>7.5</v>
       </c>
       <c r="J40" s="6">
-        <v>8.4</v>
+        <v>8.1</v>
       </c>
       <c r="K40" s="12">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="L40" s="5">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="M40" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="N40" s="8">
-        <v>1.2</v>
+        <v>0.6</v>
+      </c>
+      <c r="N40" s="5">
+        <v>1</v>
       </c>
       <c r="O40" s="38">
-        <v>0.52100000000000002</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="P40" s="33">
-        <v>1.2909999999999999</v>
+        <v>1.0980000000000001</v>
       </c>
       <c r="Q40" s="5">
         <v>1</v>
@@ -3818,10 +3843,10 @@
         <v>1</v>
       </c>
       <c r="S40" s="5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T40" s="13">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="U40" s="4" t="s">
         <v>4</v>
@@ -3832,12 +3857,12 @@
     </row>
     <row r="41" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A41" s="34">
-        <v>4599</v>
-      </c>
-      <c r="B41" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="45"/>
+        <v>4600</v>
+      </c>
+      <c r="B41" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="47"/>
       <c r="D41" s="4" t="s">
         <v>5</v>
       </c>
@@ -3848,34 +3873,34 @@
         <v>24.3</v>
       </c>
       <c r="G41" s="6">
-        <v>7.3</v>
-      </c>
-      <c r="H41" s="5">
-        <v>8</v>
+        <v>7.2</v>
+      </c>
+      <c r="H41" s="16">
+        <v>8.3000000000000007</v>
       </c>
       <c r="I41" s="8">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="J41" s="6">
-        <v>8.1</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="K41" s="12">
-        <v>207</v>
+        <v>254</v>
       </c>
       <c r="L41" s="5">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="M41" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="N41" s="5">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="N41" s="8">
+        <v>1.1000000000000001</v>
       </c>
       <c r="O41" s="38">
-        <v>0.60099999999999998</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="P41" s="33">
-        <v>1.0980000000000001</v>
+        <v>1.966</v>
       </c>
       <c r="Q41" s="5">
         <v>1</v>
@@ -3884,10 +3909,10 @@
         <v>1</v>
       </c>
       <c r="S41" s="5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T41" s="13">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="U41" s="4" t="s">
         <v>4</v>
@@ -3898,12 +3923,12 @@
     </row>
     <row r="42" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A42" s="34">
-        <v>4600</v>
-      </c>
-      <c r="B42" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="45"/>
+        <v>4601</v>
+      </c>
+      <c r="B42" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="47"/>
       <c r="D42" s="4" t="s">
         <v>5</v>
       </c>
@@ -3911,37 +3936,37 @@
         <v>19</v>
       </c>
       <c r="F42" s="8">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="G42" s="6">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="H42" s="16">
-        <v>8.3000000000000007</v>
+        <v>8.1</v>
       </c>
       <c r="I42" s="8">
         <v>7.6</v>
       </c>
       <c r="J42" s="6">
-        <v>8.3000000000000007</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="K42" s="12">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="L42" s="5">
-        <v>341</v>
+        <v>307</v>
       </c>
       <c r="M42" s="8">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="N42" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="O42" s="38">
-        <v>0.52100000000000002</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="P42" s="33">
-        <v>1.966</v>
+        <v>1.238</v>
       </c>
       <c r="Q42" s="5">
         <v>1</v>
@@ -3950,76 +3975,76 @@
         <v>1</v>
       </c>
       <c r="S42" s="5">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T42" s="13">
+        <v>49</v>
+      </c>
+      <c r="U42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V42" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43" s="34">
+        <v>7</v>
+      </c>
+      <c r="B43" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="U42" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V42" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A43" s="34">
-        <v>4601</v>
-      </c>
-      <c r="B43" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="45"/>
+      <c r="C43" s="47"/>
       <c r="D43" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E43" s="9">
-        <v>19</v>
-      </c>
-      <c r="F43" s="8">
-        <v>24.6</v>
-      </c>
-      <c r="G43" s="6">
-        <v>6.9</v>
-      </c>
-      <c r="H43" s="16">
-        <v>8.1</v>
+        <v>27</v>
+      </c>
+      <c r="F43" s="5">
+        <v>30</v>
+      </c>
+      <c r="G43" s="5">
+        <v>6</v>
+      </c>
+      <c r="H43" s="5">
+        <v>8</v>
       </c>
       <c r="I43" s="8">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="J43" s="6">
-        <v>8.8000000000000007</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="K43" s="12">
         <v>264</v>
       </c>
       <c r="L43" s="5">
-        <v>307</v>
-      </c>
-      <c r="M43" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="N43" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="O43" s="38">
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="P43" s="33">
-        <v>1.238</v>
+        <v>346</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="5">
+        <v>1</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="11">
+        <v>0.32</v>
       </c>
       <c r="Q43" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R43" s="5">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="S43" s="5">
-        <v>36</v>
-      </c>
-      <c r="T43" s="13">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="T43" s="9">
+        <v>152</v>
       </c>
       <c r="U43" s="4" t="s">
         <v>4</v>
@@ -4030,12 +4055,12 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="34">
-        <v>7</v>
-      </c>
-      <c r="B44" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="45"/>
+        <v>1244</v>
+      </c>
+      <c r="B44" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="47"/>
       <c r="D44" s="4" t="s">
         <v>6</v>
       </c>
@@ -4043,49 +4068,49 @@
         <v>27</v>
       </c>
       <c r="F44" s="5">
-        <v>30</v>
-      </c>
-      <c r="G44" s="5">
-        <v>6</v>
+        <v>33</v>
+      </c>
+      <c r="G44" s="6">
+        <v>6.9</v>
       </c>
       <c r="H44" s="5">
         <v>8</v>
       </c>
       <c r="I44" s="8">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="J44" s="6">
         <v>8.3000000000000007</v>
       </c>
       <c r="K44" s="12">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="L44" s="5">
-        <v>346</v>
+        <v>2656</v>
       </c>
       <c r="M44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="5">
-        <v>1</v>
+      <c r="N44" s="8">
+        <v>1.1000000000000001</v>
       </c>
       <c r="O44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="P44" s="11">
-        <v>0.32</v>
+      <c r="P44" s="17" t="s">
+        <v>3</v>
       </c>
       <c r="Q44" s="5">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="R44" s="5">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="S44" s="5">
-        <v>47</v>
-      </c>
-      <c r="T44" s="9">
-        <v>152</v>
+        <v>46</v>
+      </c>
+      <c r="T44" s="13">
+        <v>94</v>
       </c>
       <c r="U44" s="4" t="s">
         <v>4</v>
@@ -4096,62 +4121,62 @@
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="34">
-        <v>1244</v>
-      </c>
-      <c r="B45" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" s="45"/>
+        <v>1245</v>
+      </c>
+      <c r="B45" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="47"/>
       <c r="D45" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E45" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F45" s="5">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G45" s="6">
-        <v>6.9</v>
-      </c>
-      <c r="H45" s="5">
+        <v>6.8</v>
+      </c>
+      <c r="H45" s="16">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I45" s="8">
+        <v>7.1</v>
+      </c>
+      <c r="J45" s="5">
         <v>8</v>
       </c>
-      <c r="I45" s="8">
-        <v>7.6</v>
-      </c>
-      <c r="J45" s="6">
-        <v>8.3000000000000007</v>
-      </c>
       <c r="K45" s="12">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="L45" s="5">
-        <v>2656</v>
+        <v>510</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="8">
-        <v>1.1000000000000001</v>
+      <c r="N45" s="5">
+        <v>1</v>
       </c>
       <c r="O45" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="P45" s="17" t="s">
-        <v>3</v>
+      <c r="P45" s="33">
+        <v>0.70399999999999996</v>
       </c>
       <c r="Q45" s="5">
+        <v>4</v>
+      </c>
+      <c r="R45" s="5">
+        <v>18</v>
+      </c>
+      <c r="S45" s="5">
         <v>21</v>
       </c>
-      <c r="R45" s="5">
-        <v>32</v>
-      </c>
-      <c r="S45" s="5">
-        <v>46</v>
-      </c>
-      <c r="T45" s="13">
-        <v>94</v>
+      <c r="T45" s="9">
+        <v>210</v>
       </c>
       <c r="U45" s="4" t="s">
         <v>4</v>
@@ -4162,62 +4187,62 @@
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="34">
-        <v>1245</v>
-      </c>
-      <c r="B46" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" s="45"/>
+        <v>1981</v>
+      </c>
+      <c r="B46" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="47"/>
       <c r="D46" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E46" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F46" s="5">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G46" s="6">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="H46" s="16">
-        <v>8.6999999999999993</v>
+        <v>7.7</v>
       </c>
       <c r="I46" s="8">
-        <v>7.1</v>
-      </c>
-      <c r="J46" s="5">
-        <v>8</v>
+        <v>7.5</v>
+      </c>
+      <c r="J46" s="6">
+        <v>8.4</v>
       </c>
       <c r="K46" s="12">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="L46" s="5">
-        <v>510</v>
+        <v>481</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="5">
-        <v>1</v>
+      <c r="N46" s="8">
+        <v>1.1000000000000001</v>
       </c>
       <c r="O46" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="P46" s="33">
-        <v>0.70399999999999996</v>
+      <c r="P46" s="17" t="s">
+        <v>3</v>
       </c>
       <c r="Q46" s="5">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="R46" s="5">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="S46" s="5">
-        <v>21</v>
-      </c>
-      <c r="T46" s="9">
-        <v>210</v>
+        <v>68</v>
+      </c>
+      <c r="T46" s="13">
+        <v>92</v>
       </c>
       <c r="U46" s="4" t="s">
         <v>4</v>
@@ -4228,12 +4253,12 @@
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="34">
-        <v>1981</v>
-      </c>
-      <c r="B47" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" s="45"/>
+        <v>1243</v>
+      </c>
+      <c r="B47" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="47"/>
       <c r="D47" s="4" t="s">
         <v>6</v>
       </c>
@@ -4244,28 +4269,28 @@
         <v>30</v>
       </c>
       <c r="G47" s="6">
-        <v>6.4</v>
+        <v>3.6</v>
       </c>
       <c r="H47" s="16">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="I47" s="8">
         <v>7.5</v>
       </c>
       <c r="J47" s="6">
-        <v>8.4</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="K47" s="12">
-        <v>321</v>
+        <v>244</v>
       </c>
       <c r="L47" s="5">
-        <v>481</v>
+        <v>972</v>
       </c>
       <c r="M47" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="8">
-        <v>1.1000000000000001</v>
+      <c r="N47" s="5">
+        <v>1</v>
       </c>
       <c r="O47" s="4" t="s">
         <v>3</v>
@@ -4274,16 +4299,16 @@
         <v>3</v>
       </c>
       <c r="Q47" s="5">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="R47" s="5">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="S47" s="5">
-        <v>68</v>
-      </c>
-      <c r="T47" s="13">
-        <v>92</v>
+        <v>210</v>
+      </c>
+      <c r="T47" s="9">
+        <v>320</v>
       </c>
       <c r="U47" s="4" t="s">
         <v>4</v>
@@ -4292,96 +4317,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A48" s="34">
-        <v>1243</v>
-      </c>
-      <c r="B48" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" s="45"/>
-      <c r="D48" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="9">
-        <v>26</v>
-      </c>
-      <c r="F48" s="5">
-        <v>30</v>
-      </c>
-      <c r="G48" s="6">
-        <v>3.6</v>
-      </c>
-      <c r="H48" s="16">
-        <v>7.5</v>
-      </c>
-      <c r="I48" s="8">
-        <v>7.5</v>
-      </c>
-      <c r="J48" s="6">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="K48" s="12">
-        <v>244</v>
-      </c>
-      <c r="L48" s="5">
-        <v>972</v>
-      </c>
-      <c r="M48" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N48" s="5">
-        <v>1</v>
-      </c>
-      <c r="O48" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="P48" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q48" s="5">
-        <v>70</v>
-      </c>
-      <c r="R48" s="5">
-        <v>170</v>
-      </c>
-      <c r="S48" s="5">
-        <v>210</v>
-      </c>
-      <c r="T48" s="9">
-        <v>320</v>
-      </c>
-      <c r="U48" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V48" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
+  <mergeCells count="47">
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B33:C33"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
@@ -4392,22 +4346,26 @@
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Water-Quality-Prediction/Code/Narmada.xlsx
+++ b/Water-Quality-Prediction/Code/Narmada.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="110">
   <si>
     <r>
       <rPr>
@@ -615,6 +615,531 @@
   </si>
   <si>
     <t>FS_MAX</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">NARMADA AT AMARKANTAK FROM ORIGIN POINT, REWA RIVER NARMADA AT DINDORI,U/S INTAKE
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>POINT,DISTT.DINDORI(M.P.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">NARMADA NEAR SOURCE AT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AMARKANTAK M.P.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">MADHYA
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PRADESH</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NARMADA AT NARSINGHPUR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>--</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NARMADA AT BADWANI,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NARMADA AT MAHESHWAR,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NARMADA AT HOSHANGABAD U S M.P.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NARMADA AT HOSHANGABAD D S M.P.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">NARMADA AT LALPUR, NEAR WATER SUPPLY INTAKE POINT,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>JABALPUR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">NARMADA AT PANCHWATIGHAT, BEFORE MIXING WITH BAWANGANGA
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RIVER, JABALPUR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">NARMADA AT SARSWATIGHAT, AFTER MIXING WITH BAWANGANGA
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RIVER, JABALPUR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">NARMADA RIVER AT D/S OF
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>KAPILDHARA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">NARMADA AT KORIGHAT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>HOSHANGABAD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SIMRAR AT KATNI NEAR ACC W/S INTAKE POINT, JABALPUR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>HIRAN, NH 7 ROAD BRIDGE, SIHORA, DIST JABALPUR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>HIRAN, NH -12 ROAD BRIDGE VIL VIKRAMPUR ,DIST NARSINGPUR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NARMADA AT BHARUCH, ZADESHVAR,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">CHOTA TAWA BEFORE CONFL. WITH RIVER
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NARMADA, M.P.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">GOUR RIVER BHOGA
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>DOOR, JABALPUR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>KUNDA AT KHARGONE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">BANJAR AT MALANJKHAND NEAR W/S INTAKE POINT,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>JABALPUR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NARMADA AT SETHANIGHAT M.P.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NARMADA AT MANDLESHWAR M.P.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RIVER NARMADA AT NEMAWAR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RIVER NARMADA LALPUR, JABALPUR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">NARMADA AT LALPUR, NEAR WATER SUPPLY INTAKE
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>POINT,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RIVER NARMADA NEAR MORTAKKA BRIDGE, BADWAH</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">RIVER NARMADA
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NEAR PUNASA DAM, PUNASA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NARMADA AT GARUDESHWAR, GUJARAT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NARMADA AT BHARUCH, ZADESHVAR, GUJARAT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NARMADA AT PANETHA, GUJARAT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NARMADA AT CHANDOD, GUJARAT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">GOUR RIVER
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>BHOGA DOOR, JABALPUR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>KATNI RIVER NEAR NAGAR NIGAM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RIVER BANJAR AT MALANJKHAND NEAR W/S INTAKE POINT,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RIVER HIRAN, NH 7 ROAD BRIDGE, SIHORA, DIST JABALP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">RIVER HIRAN, NH - 12 ROAD BRIDGE VIL VIKRAMPUR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>,DIS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SIMRAR AT KATNI NEAR ACC W/S INTAKE POINT, JABLAPU</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -625,7 +1150,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -636,6 +1161,7 @@
       <b/>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -647,6 +1173,7 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -656,11 +1183,6 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -679,7 +1201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -728,11 +1250,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -906,6 +1439,69 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1211,13 +1807,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V47"/>
+  <dimension ref="A1:V113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:V1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1285,7 +1884,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34">
         <v>3321</v>
       </c>
@@ -1351,7 +1950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34">
         <v>1242</v>
       </c>
@@ -1417,7 +2016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34">
         <v>1241</v>
       </c>
@@ -1483,7 +2082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="34">
         <v>1240</v>
       </c>
@@ -1615,7 +2214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="34">
         <v>45</v>
       </c>
@@ -1681,7 +2280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34">
         <v>1239</v>
       </c>
@@ -1747,7 +2346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34">
         <v>1431</v>
       </c>
@@ -1813,7 +2412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="34">
         <v>2099</v>
       </c>
@@ -1879,7 +2478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="34">
         <v>1234</v>
       </c>
@@ -1945,7 +2544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34">
         <v>2112</v>
       </c>
@@ -2007,7 +2606,7 @@
       <c r="U12" s="27"/>
       <c r="V12" s="27"/>
     </row>
-    <row r="13" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="34">
         <v>44</v>
       </c>
@@ -2073,7 +2672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34">
         <v>1235</v>
       </c>
@@ -2139,7 +2738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="34">
         <v>2113</v>
       </c>
@@ -2205,7 +2804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="35">
         <v>1430</v>
       </c>
@@ -2271,7 +2870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34">
         <v>3322</v>
       </c>
@@ -2337,7 +2936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35">
         <v>3323</v>
       </c>
@@ -2403,7 +3002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="34">
         <v>3324</v>
       </c>
@@ -2469,7 +3068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>3325</v>
       </c>
@@ -2535,7 +3134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>2118</v>
       </c>
@@ -2601,7 +3200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>2123</v>
       </c>
@@ -2667,7 +3266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>3847</v>
       </c>
@@ -2733,7 +3332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>4582</v>
       </c>
@@ -2799,7 +3398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>4583</v>
       </c>
@@ -2865,7 +3464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>4584</v>
       </c>
@@ -2931,7 +3530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>4586</v>
       </c>
@@ -2997,7 +3596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>4587</v>
       </c>
@@ -3063,7 +3662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>4588</v>
       </c>
@@ -3129,7 +3728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>4589</v>
       </c>
@@ -3195,7 +3794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>4590</v>
       </c>
@@ -3261,7 +3860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>4591</v>
       </c>
@@ -3327,7 +3926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>4592</v>
       </c>
@@ -3393,7 +3992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>4593</v>
       </c>
@@ -3459,7 +4058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>4594</v>
       </c>
@@ -3525,7 +4124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>4595</v>
       </c>
@@ -3591,7 +4190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18">
         <v>4596</v>
       </c>
@@ -3657,7 +4256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>4597</v>
       </c>
@@ -3723,7 +4322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="34">
         <v>4598</v>
       </c>
@@ -3789,7 +4388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="34">
         <v>4599</v>
       </c>
@@ -3855,7 +4454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="34">
         <v>4600</v>
       </c>
@@ -3987,7 +4586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="34">
         <v>7</v>
       </c>
@@ -4053,7 +4652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="34">
         <v>1244</v>
       </c>
@@ -4119,7 +4718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="34">
         <v>1245</v>
       </c>
@@ -4185,7 +4784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="34">
         <v>1981</v>
       </c>
@@ -4251,7 +4850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="34">
         <v>1243</v>
       </c>
@@ -4317,8 +4916,4430 @@
         <v>4</v>
       </c>
     </row>
+    <row r="48" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A48" s="20">
+        <v>3321</v>
+      </c>
+      <c r="B48" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="57"/>
+      <c r="D48" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="59">
+        <v>20.5</v>
+      </c>
+      <c r="F48" s="59">
+        <v>31.5</v>
+      </c>
+      <c r="G48" s="59">
+        <v>7.2</v>
+      </c>
+      <c r="H48" s="59">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I48" s="59">
+        <v>7.7</v>
+      </c>
+      <c r="J48" s="59">
+        <v>7.9</v>
+      </c>
+      <c r="K48" s="60">
+        <v>237</v>
+      </c>
+      <c r="L48" s="60">
+        <v>3315</v>
+      </c>
+      <c r="M48" s="59">
+        <v>0.8</v>
+      </c>
+      <c r="N48" s="59">
+        <v>1.7</v>
+      </c>
+      <c r="O48" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="59">
+        <v>0.8</v>
+      </c>
+      <c r="Q48" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="60">
+        <v>25</v>
+      </c>
+      <c r="T48" s="60">
+        <v>47</v>
+      </c>
+      <c r="U48" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="V48" s="61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>1242</v>
+      </c>
+      <c r="B49" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="57"/>
+      <c r="D49" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="E49" s="63">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="F49" s="63">
+        <v>30.5</v>
+      </c>
+      <c r="G49" s="64">
+        <v>7</v>
+      </c>
+      <c r="H49" s="63">
+        <v>7.7</v>
+      </c>
+      <c r="I49" s="63">
+        <v>7.5</v>
+      </c>
+      <c r="J49" s="63">
+        <v>7.8</v>
+      </c>
+      <c r="K49" s="64">
+        <v>196</v>
+      </c>
+      <c r="L49" s="64">
+        <v>2218</v>
+      </c>
+      <c r="M49" s="63">
+        <v>0.2</v>
+      </c>
+      <c r="N49" s="63">
+        <v>0.7</v>
+      </c>
+      <c r="O49" s="63">
+        <v>0.2</v>
+      </c>
+      <c r="P49" s="63">
+        <v>0.5</v>
+      </c>
+      <c r="Q49" s="63">
+        <v>1.8</v>
+      </c>
+      <c r="R49" s="63">
+        <v>1.8</v>
+      </c>
+      <c r="S49" s="63">
+        <v>1.8</v>
+      </c>
+      <c r="T49" s="64">
+        <v>36</v>
+      </c>
+      <c r="U49" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V49" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>1241</v>
+      </c>
+      <c r="B50" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="47"/>
+      <c r="D50" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="64">
+        <v>18</v>
+      </c>
+      <c r="F50" s="63">
+        <v>22.8</v>
+      </c>
+      <c r="G50" s="64">
+        <v>7</v>
+      </c>
+      <c r="H50" s="63">
+        <v>7.8</v>
+      </c>
+      <c r="I50" s="63">
+        <v>7.3</v>
+      </c>
+      <c r="J50" s="63">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K50" s="64">
+        <v>170</v>
+      </c>
+      <c r="L50" s="64">
+        <v>398</v>
+      </c>
+      <c r="M50" s="63">
+        <v>1.3</v>
+      </c>
+      <c r="N50" s="63">
+        <v>1.8</v>
+      </c>
+      <c r="O50" s="63">
+        <v>0.3</v>
+      </c>
+      <c r="P50" s="63">
+        <v>1.4</v>
+      </c>
+      <c r="Q50" s="63">
+        <v>1.8</v>
+      </c>
+      <c r="R50" s="64">
+        <v>10</v>
+      </c>
+      <c r="S50" s="64">
+        <v>43</v>
+      </c>
+      <c r="T50" s="64">
+        <v>43</v>
+      </c>
+      <c r="U50" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V50" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>1240</v>
+      </c>
+      <c r="B51" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="47"/>
+      <c r="D51" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="64">
+        <v>15</v>
+      </c>
+      <c r="F51" s="63">
+        <v>22.2</v>
+      </c>
+      <c r="G51" s="64">
+        <v>7</v>
+      </c>
+      <c r="H51" s="63">
+        <v>7.9</v>
+      </c>
+      <c r="I51" s="63">
+        <v>7.2</v>
+      </c>
+      <c r="J51" s="63">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K51" s="64">
+        <v>280</v>
+      </c>
+      <c r="L51" s="64">
+        <v>2280</v>
+      </c>
+      <c r="M51" s="63">
+        <v>1.3</v>
+      </c>
+      <c r="N51" s="63">
+        <v>1.9</v>
+      </c>
+      <c r="O51" s="63">
+        <v>0.3</v>
+      </c>
+      <c r="P51" s="63">
+        <v>1.6</v>
+      </c>
+      <c r="Q51" s="63">
+        <v>1.8</v>
+      </c>
+      <c r="R51" s="64">
+        <v>13</v>
+      </c>
+      <c r="S51" s="64">
+        <v>47</v>
+      </c>
+      <c r="T51" s="64">
+        <v>48</v>
+      </c>
+      <c r="U51" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V51" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>2106</v>
+      </c>
+      <c r="B52" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="66"/>
+      <c r="D52" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="64">
+        <v>20</v>
+      </c>
+      <c r="F52" s="64">
+        <v>26</v>
+      </c>
+      <c r="G52" s="63">
+        <v>6.1</v>
+      </c>
+      <c r="H52" s="63">
+        <v>7.6</v>
+      </c>
+      <c r="I52" s="63">
+        <v>7.3</v>
+      </c>
+      <c r="J52" s="63">
+        <v>8.4</v>
+      </c>
+      <c r="K52" s="64">
+        <v>139</v>
+      </c>
+      <c r="L52" s="64">
+        <v>350</v>
+      </c>
+      <c r="M52" s="63">
+        <v>1.6</v>
+      </c>
+      <c r="N52" s="64">
+        <v>2</v>
+      </c>
+      <c r="O52" s="63">
+        <v>0.1</v>
+      </c>
+      <c r="P52" s="63">
+        <v>0.8</v>
+      </c>
+      <c r="Q52" s="63">
+        <v>1.8</v>
+      </c>
+      <c r="R52" s="64">
+        <v>18</v>
+      </c>
+      <c r="S52" s="64">
+        <v>40</v>
+      </c>
+      <c r="T52" s="64">
+        <v>63</v>
+      </c>
+      <c r="U52" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V52" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>45</v>
+      </c>
+      <c r="B53" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="66"/>
+      <c r="D53" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="64">
+        <v>17</v>
+      </c>
+      <c r="F53" s="64">
+        <v>28</v>
+      </c>
+      <c r="G53" s="63">
+        <v>6.7</v>
+      </c>
+      <c r="H53" s="63">
+        <v>8.6</v>
+      </c>
+      <c r="I53" s="63">
+        <v>7.6</v>
+      </c>
+      <c r="J53" s="63">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K53" s="64">
+        <v>34</v>
+      </c>
+      <c r="L53" s="64">
+        <v>459</v>
+      </c>
+      <c r="M53" s="63">
+        <v>0.8</v>
+      </c>
+      <c r="N53" s="63">
+        <v>1.4</v>
+      </c>
+      <c r="O53" s="67">
+        <v>0.02</v>
+      </c>
+      <c r="P53" s="67">
+        <v>0.87</v>
+      </c>
+      <c r="Q53" s="63">
+        <v>1.8</v>
+      </c>
+      <c r="R53" s="63">
+        <v>1.8</v>
+      </c>
+      <c r="S53" s="64">
+        <v>34</v>
+      </c>
+      <c r="T53" s="64">
+        <v>50</v>
+      </c>
+      <c r="U53" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="V53" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>1239</v>
+      </c>
+      <c r="B54" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="66"/>
+      <c r="D54" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="64">
+        <v>18</v>
+      </c>
+      <c r="F54" s="64">
+        <v>27</v>
+      </c>
+      <c r="G54" s="63">
+        <v>6.4</v>
+      </c>
+      <c r="H54" s="63">
+        <v>8.6</v>
+      </c>
+      <c r="I54" s="63">
+        <v>7.8</v>
+      </c>
+      <c r="J54" s="63">
+        <v>8.6</v>
+      </c>
+      <c r="K54" s="64">
+        <v>249</v>
+      </c>
+      <c r="L54" s="64">
+        <v>456</v>
+      </c>
+      <c r="M54" s="63">
+        <v>0.8</v>
+      </c>
+      <c r="N54" s="63">
+        <v>1.8</v>
+      </c>
+      <c r="O54" s="63">
+        <v>0.5</v>
+      </c>
+      <c r="P54" s="63">
+        <v>1.2</v>
+      </c>
+      <c r="Q54" s="63">
+        <v>1.8</v>
+      </c>
+      <c r="R54" s="63">
+        <v>1.8</v>
+      </c>
+      <c r="S54" s="64">
+        <v>30</v>
+      </c>
+      <c r="T54" s="64">
+        <v>49</v>
+      </c>
+      <c r="U54" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V54" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>1431</v>
+      </c>
+      <c r="B55" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="66"/>
+      <c r="D55" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="64">
+        <v>18</v>
+      </c>
+      <c r="F55" s="64">
+        <v>28</v>
+      </c>
+      <c r="G55" s="63">
+        <v>6.9</v>
+      </c>
+      <c r="H55" s="63">
+        <v>8.6</v>
+      </c>
+      <c r="I55" s="63">
+        <v>7.8</v>
+      </c>
+      <c r="J55" s="63">
+        <v>8.5</v>
+      </c>
+      <c r="K55" s="64">
+        <v>272</v>
+      </c>
+      <c r="L55" s="64">
+        <v>355</v>
+      </c>
+      <c r="M55" s="63">
+        <v>0.6</v>
+      </c>
+      <c r="N55" s="63">
+        <v>1.8</v>
+      </c>
+      <c r="O55" s="63">
+        <v>0.4</v>
+      </c>
+      <c r="P55" s="63">
+        <v>0.9</v>
+      </c>
+      <c r="Q55" s="63">
+        <v>1.8</v>
+      </c>
+      <c r="R55" s="63">
+        <v>1.8</v>
+      </c>
+      <c r="S55" s="64">
+        <v>32</v>
+      </c>
+      <c r="T55" s="64">
+        <v>49</v>
+      </c>
+      <c r="U55" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V55" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>2099</v>
+      </c>
+      <c r="B56" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="66"/>
+      <c r="D56" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="64">
+        <v>18</v>
+      </c>
+      <c r="F56" s="63">
+        <v>22.5</v>
+      </c>
+      <c r="G56" s="63">
+        <v>7.2</v>
+      </c>
+      <c r="H56" s="63">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I56" s="63">
+        <v>7.3</v>
+      </c>
+      <c r="J56" s="63">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K56" s="64">
+        <v>170</v>
+      </c>
+      <c r="L56" s="64">
+        <v>348</v>
+      </c>
+      <c r="M56" s="63">
+        <v>1.2</v>
+      </c>
+      <c r="N56" s="63">
+        <v>1.7</v>
+      </c>
+      <c r="O56" s="63">
+        <v>0.2</v>
+      </c>
+      <c r="P56" s="63">
+        <v>1.4</v>
+      </c>
+      <c r="Q56" s="63">
+        <v>1.8</v>
+      </c>
+      <c r="R56" s="64">
+        <v>11</v>
+      </c>
+      <c r="S56" s="64">
+        <v>43</v>
+      </c>
+      <c r="T56" s="64">
+        <v>43</v>
+      </c>
+      <c r="U56" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V56" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>1234</v>
+      </c>
+      <c r="B57" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="66"/>
+      <c r="D57" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="64">
+        <v>19</v>
+      </c>
+      <c r="F57" s="64">
+        <v>31</v>
+      </c>
+      <c r="G57" s="63">
+        <v>7.4</v>
+      </c>
+      <c r="H57" s="63">
+        <v>9.4</v>
+      </c>
+      <c r="I57" s="63">
+        <v>7.4</v>
+      </c>
+      <c r="J57" s="63">
+        <v>8.6</v>
+      </c>
+      <c r="K57" s="64">
+        <v>206</v>
+      </c>
+      <c r="L57" s="64">
+        <v>1661</v>
+      </c>
+      <c r="M57" s="63">
+        <v>1.2</v>
+      </c>
+      <c r="N57" s="63">
+        <v>2.1</v>
+      </c>
+      <c r="O57" s="63">
+        <v>0.4</v>
+      </c>
+      <c r="P57" s="63">
+        <v>4.2</v>
+      </c>
+      <c r="Q57" s="64">
+        <v>2</v>
+      </c>
+      <c r="R57" s="64">
+        <v>18</v>
+      </c>
+      <c r="S57" s="64">
+        <v>94</v>
+      </c>
+      <c r="T57" s="64">
+        <v>540</v>
+      </c>
+      <c r="U57" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V57" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>2112</v>
+      </c>
+      <c r="B58" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="66"/>
+      <c r="D58" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="64">
+        <v>17</v>
+      </c>
+      <c r="F58" s="64">
+        <v>29</v>
+      </c>
+      <c r="G58" s="63">
+        <v>6.5</v>
+      </c>
+      <c r="H58" s="63">
+        <v>8.4</v>
+      </c>
+      <c r="I58" s="63">
+        <v>7.9</v>
+      </c>
+      <c r="J58" s="63">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K58" s="64">
+        <v>270</v>
+      </c>
+      <c r="L58" s="64">
+        <v>349</v>
+      </c>
+      <c r="M58" s="63">
+        <v>0.8</v>
+      </c>
+      <c r="N58" s="63">
+        <v>1.2</v>
+      </c>
+      <c r="O58" s="63">
+        <v>0.4</v>
+      </c>
+      <c r="P58" s="63">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="63">
+        <v>1.8</v>
+      </c>
+      <c r="R58" s="63">
+        <v>1.8</v>
+      </c>
+      <c r="S58" s="64">
+        <v>39</v>
+      </c>
+      <c r="T58" s="64">
+        <v>49</v>
+      </c>
+      <c r="U58" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V58" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>44</v>
+      </c>
+      <c r="B59" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="66"/>
+      <c r="D59" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="E59" s="64">
+        <v>19</v>
+      </c>
+      <c r="F59" s="64">
+        <v>30</v>
+      </c>
+      <c r="G59" s="63">
+        <v>6.2</v>
+      </c>
+      <c r="H59" s="63">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I59" s="63">
+        <v>7.7</v>
+      </c>
+      <c r="J59" s="63">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K59" s="64">
+        <v>207</v>
+      </c>
+      <c r="L59" s="64">
+        <v>1843</v>
+      </c>
+      <c r="M59" s="63">
+        <v>1.4</v>
+      </c>
+      <c r="N59" s="63">
+        <v>2.9</v>
+      </c>
+      <c r="O59" s="67">
+        <v>1.01</v>
+      </c>
+      <c r="P59" s="67">
+        <v>4.42</v>
+      </c>
+      <c r="Q59" s="64">
+        <v>2</v>
+      </c>
+      <c r="R59" s="64">
+        <v>49</v>
+      </c>
+      <c r="S59" s="64">
+        <v>70</v>
+      </c>
+      <c r="T59" s="64">
+        <v>2400</v>
+      </c>
+      <c r="U59" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V59" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>1235</v>
+      </c>
+      <c r="B60" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="66"/>
+      <c r="D60" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="64">
+        <v>20</v>
+      </c>
+      <c r="F60" s="64">
+        <v>30</v>
+      </c>
+      <c r="G60" s="63">
+        <v>7.5</v>
+      </c>
+      <c r="H60" s="63">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I60" s="63">
+        <v>7.4</v>
+      </c>
+      <c r="J60" s="63">
+        <v>8.6</v>
+      </c>
+      <c r="K60" s="64">
+        <v>180</v>
+      </c>
+      <c r="L60" s="64">
+        <v>484</v>
+      </c>
+      <c r="M60" s="63">
+        <v>1.5</v>
+      </c>
+      <c r="N60" s="63">
+        <v>2.8</v>
+      </c>
+      <c r="O60" s="63">
+        <v>0.5</v>
+      </c>
+      <c r="P60" s="63">
+        <v>15.5</v>
+      </c>
+      <c r="Q60" s="64">
+        <v>2</v>
+      </c>
+      <c r="R60" s="64">
+        <v>110</v>
+      </c>
+      <c r="S60" s="64">
+        <v>110</v>
+      </c>
+      <c r="T60" s="64">
+        <v>2100</v>
+      </c>
+      <c r="U60" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V60" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A61" s="20">
+        <v>2113</v>
+      </c>
+      <c r="B61" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="66"/>
+      <c r="D61" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" s="60">
+        <v>17</v>
+      </c>
+      <c r="F61" s="60">
+        <v>28</v>
+      </c>
+      <c r="G61" s="59">
+        <v>6.3</v>
+      </c>
+      <c r="H61" s="59">
+        <v>7.9</v>
+      </c>
+      <c r="I61" s="59">
+        <v>7.9</v>
+      </c>
+      <c r="J61" s="59">
+        <v>8.6</v>
+      </c>
+      <c r="K61" s="60">
+        <v>248</v>
+      </c>
+      <c r="L61" s="60">
+        <v>349</v>
+      </c>
+      <c r="M61" s="59">
+        <v>0.8</v>
+      </c>
+      <c r="N61" s="59">
+        <v>1.4</v>
+      </c>
+      <c r="O61" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="P61" s="59">
+        <v>1.4</v>
+      </c>
+      <c r="Q61" s="59">
+        <v>1.8</v>
+      </c>
+      <c r="R61" s="60">
+        <v>18</v>
+      </c>
+      <c r="S61" s="60">
+        <v>34</v>
+      </c>
+      <c r="T61" s="60">
+        <v>49</v>
+      </c>
+      <c r="U61" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="V61" s="61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A62" s="20">
+        <v>1430</v>
+      </c>
+      <c r="B62" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" s="66"/>
+      <c r="D62" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="60">
+        <v>17</v>
+      </c>
+      <c r="F62" s="60">
+        <v>28</v>
+      </c>
+      <c r="G62" s="59">
+        <v>6.7</v>
+      </c>
+      <c r="H62" s="60">
+        <v>8</v>
+      </c>
+      <c r="I62" s="59">
+        <v>7.9</v>
+      </c>
+      <c r="J62" s="59">
+        <v>8.5</v>
+      </c>
+      <c r="K62" s="60">
+        <v>264</v>
+      </c>
+      <c r="L62" s="60">
+        <v>422</v>
+      </c>
+      <c r="M62" s="59">
+        <v>1</v>
+      </c>
+      <c r="N62" s="59">
+        <v>1.4</v>
+      </c>
+      <c r="O62" s="59">
+        <v>0.4</v>
+      </c>
+      <c r="P62" s="59">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q62" s="59">
+        <v>1.8</v>
+      </c>
+      <c r="R62" s="59">
+        <v>1.8</v>
+      </c>
+      <c r="S62" s="60">
+        <v>38</v>
+      </c>
+      <c r="T62" s="60">
+        <v>49</v>
+      </c>
+      <c r="U62" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="V62" s="61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A63" s="20">
+        <v>3322</v>
+      </c>
+      <c r="B63" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="66"/>
+      <c r="D63" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="60">
+        <v>18</v>
+      </c>
+      <c r="F63" s="59">
+        <v>22.3</v>
+      </c>
+      <c r="G63" s="59">
+        <v>7.2</v>
+      </c>
+      <c r="H63" s="60">
+        <v>8</v>
+      </c>
+      <c r="I63" s="59">
+        <v>7.2</v>
+      </c>
+      <c r="J63" s="59">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K63" s="60">
+        <v>170</v>
+      </c>
+      <c r="L63" s="60">
+        <v>392</v>
+      </c>
+      <c r="M63" s="59">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N63" s="59">
+        <v>1.8</v>
+      </c>
+      <c r="O63" s="59">
+        <v>0.3</v>
+      </c>
+      <c r="P63" s="59">
+        <v>1.3</v>
+      </c>
+      <c r="Q63" s="59">
+        <v>1.8</v>
+      </c>
+      <c r="R63" s="59">
+        <v>1.8</v>
+      </c>
+      <c r="S63" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="T63" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="U63" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="V63" s="61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A64" s="20">
+        <v>3323</v>
+      </c>
+      <c r="B64" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="69"/>
+      <c r="D64" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="59">
+        <v>17.8</v>
+      </c>
+      <c r="F64" s="59">
+        <v>22.3</v>
+      </c>
+      <c r="G64" s="59">
+        <v>6.4</v>
+      </c>
+      <c r="H64" s="59">
+        <v>7.9</v>
+      </c>
+      <c r="I64" s="59">
+        <v>7.3</v>
+      </c>
+      <c r="J64" s="59">
+        <v>8.6</v>
+      </c>
+      <c r="K64" s="60">
+        <v>230</v>
+      </c>
+      <c r="L64" s="60">
+        <v>2860</v>
+      </c>
+      <c r="M64" s="59">
+        <v>1.2</v>
+      </c>
+      <c r="N64" s="59">
+        <v>1.8</v>
+      </c>
+      <c r="O64" s="59">
+        <v>0.3</v>
+      </c>
+      <c r="P64" s="59">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q64" s="59">
+        <v>1.8</v>
+      </c>
+      <c r="R64" s="60">
+        <v>6</v>
+      </c>
+      <c r="S64" s="60">
+        <v>25</v>
+      </c>
+      <c r="T64" s="60">
+        <v>25</v>
+      </c>
+      <c r="U64" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="V64" s="61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>3324</v>
+      </c>
+      <c r="B65" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" s="69"/>
+      <c r="D65" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="64">
+        <v>15</v>
+      </c>
+      <c r="F65" s="63">
+        <v>22.2</v>
+      </c>
+      <c r="G65" s="63">
+        <v>7.2</v>
+      </c>
+      <c r="H65" s="63">
+        <v>7.8</v>
+      </c>
+      <c r="I65" s="63">
+        <v>7.2</v>
+      </c>
+      <c r="J65" s="63">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K65" s="64">
+        <v>225</v>
+      </c>
+      <c r="L65" s="64">
+        <v>380</v>
+      </c>
+      <c r="M65" s="63">
+        <v>1.4</v>
+      </c>
+      <c r="N65" s="63">
+        <v>1.8</v>
+      </c>
+      <c r="O65" s="63">
+        <v>0.3</v>
+      </c>
+      <c r="P65" s="63">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q65" s="63">
+        <v>1.8</v>
+      </c>
+      <c r="R65" s="64">
+        <v>9</v>
+      </c>
+      <c r="S65" s="64">
+        <v>39</v>
+      </c>
+      <c r="T65" s="64">
+        <v>39</v>
+      </c>
+      <c r="U65" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V65" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>3325</v>
+      </c>
+      <c r="B66" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" s="69"/>
+      <c r="D66" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="64">
+        <v>15</v>
+      </c>
+      <c r="F66" s="63">
+        <v>22.4</v>
+      </c>
+      <c r="G66" s="63">
+        <v>7.2</v>
+      </c>
+      <c r="H66" s="63">
+        <v>7.8</v>
+      </c>
+      <c r="I66" s="63">
+        <v>7.1</v>
+      </c>
+      <c r="J66" s="63">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K66" s="64">
+        <v>254</v>
+      </c>
+      <c r="L66" s="64">
+        <v>396</v>
+      </c>
+      <c r="M66" s="63">
+        <v>1.4</v>
+      </c>
+      <c r="N66" s="63">
+        <v>1.8</v>
+      </c>
+      <c r="O66" s="63">
+        <v>0.2</v>
+      </c>
+      <c r="P66" s="63">
+        <v>1.6</v>
+      </c>
+      <c r="Q66" s="63">
+        <v>1.8</v>
+      </c>
+      <c r="R66" s="64">
+        <v>14</v>
+      </c>
+      <c r="S66" s="64">
+        <v>43</v>
+      </c>
+      <c r="T66" s="64">
+        <v>47</v>
+      </c>
+      <c r="U66" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V66" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>2118</v>
+      </c>
+      <c r="B67" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" s="69"/>
+      <c r="D67" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="E67" s="63">
+        <v>19.5</v>
+      </c>
+      <c r="F67" s="63">
+        <v>31.5</v>
+      </c>
+      <c r="G67" s="63">
+        <v>7.2</v>
+      </c>
+      <c r="H67" s="63">
+        <v>7.8</v>
+      </c>
+      <c r="I67" s="63">
+        <v>7.6</v>
+      </c>
+      <c r="J67" s="63">
+        <v>7.9</v>
+      </c>
+      <c r="K67" s="64">
+        <v>246</v>
+      </c>
+      <c r="L67" s="64">
+        <v>562</v>
+      </c>
+      <c r="M67" s="63">
+        <v>1.3</v>
+      </c>
+      <c r="N67" s="63">
+        <v>1.9</v>
+      </c>
+      <c r="O67" s="63">
+        <v>0.4</v>
+      </c>
+      <c r="P67" s="63">
+        <v>0.8</v>
+      </c>
+      <c r="Q67" s="63">
+        <v>1.8</v>
+      </c>
+      <c r="R67" s="63">
+        <v>1.8</v>
+      </c>
+      <c r="S67" s="64">
+        <v>40</v>
+      </c>
+      <c r="T67" s="64">
+        <v>48</v>
+      </c>
+      <c r="U67" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V67" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
+        <v>2123</v>
+      </c>
+      <c r="B68" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="69"/>
+      <c r="D68" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="E68" s="64">
+        <v>19</v>
+      </c>
+      <c r="F68" s="64">
+        <v>30</v>
+      </c>
+      <c r="G68" s="63">
+        <v>7.2</v>
+      </c>
+      <c r="H68" s="63">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I68" s="64">
+        <v>8</v>
+      </c>
+      <c r="J68" s="63">
+        <v>8.4</v>
+      </c>
+      <c r="K68" s="64">
+        <v>174</v>
+      </c>
+      <c r="L68" s="64">
+        <v>336</v>
+      </c>
+      <c r="M68" s="63">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N68" s="63">
+        <v>2.4</v>
+      </c>
+      <c r="O68" s="63">
+        <v>1</v>
+      </c>
+      <c r="P68" s="63">
+        <v>3.5</v>
+      </c>
+      <c r="Q68" s="63">
+        <v>1.8</v>
+      </c>
+      <c r="R68" s="64">
+        <v>63</v>
+      </c>
+      <c r="S68" s="64">
+        <v>63</v>
+      </c>
+      <c r="T68" s="64">
+        <v>2100</v>
+      </c>
+      <c r="U68" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V68" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>3326</v>
+      </c>
+      <c r="B69" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" s="66"/>
+      <c r="D69" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="63">
+        <v>23.4</v>
+      </c>
+      <c r="F69" s="63">
+        <v>27.8</v>
+      </c>
+      <c r="G69" s="63">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H69" s="63">
+        <v>6.3</v>
+      </c>
+      <c r="I69" s="63">
+        <v>7.4</v>
+      </c>
+      <c r="J69" s="63">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K69" s="64">
+        <v>212</v>
+      </c>
+      <c r="L69" s="64">
+        <v>586</v>
+      </c>
+      <c r="M69" s="63">
+        <v>1.3</v>
+      </c>
+      <c r="N69" s="63">
+        <v>1.9</v>
+      </c>
+      <c r="O69" s="63">
+        <v>0.4</v>
+      </c>
+      <c r="P69" s="63">
+        <v>1.8</v>
+      </c>
+      <c r="Q69" s="63">
+        <v>1.8</v>
+      </c>
+      <c r="R69" s="64">
+        <v>18</v>
+      </c>
+      <c r="S69" s="64">
+        <v>31</v>
+      </c>
+      <c r="T69" s="64">
+        <v>47</v>
+      </c>
+      <c r="U69" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V69" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
+        <v>3828</v>
+      </c>
+      <c r="B70" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="C70" s="66"/>
+      <c r="D70" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="63">
+        <v>15.6</v>
+      </c>
+      <c r="F70" s="63">
+        <v>22.3</v>
+      </c>
+      <c r="G70" s="63">
+        <v>7.2</v>
+      </c>
+      <c r="H70" s="63">
+        <v>7.6</v>
+      </c>
+      <c r="I70" s="63">
+        <v>7.2</v>
+      </c>
+      <c r="J70" s="63">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K70" s="64">
+        <v>258</v>
+      </c>
+      <c r="L70" s="64">
+        <v>448</v>
+      </c>
+      <c r="M70" s="63">
+        <v>1.3</v>
+      </c>
+      <c r="N70" s="63">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O70" s="63">
+        <v>0.3</v>
+      </c>
+      <c r="P70" s="63">
+        <v>1.6</v>
+      </c>
+      <c r="Q70" s="63">
+        <v>1.8</v>
+      </c>
+      <c r="R70" s="64">
+        <v>11</v>
+      </c>
+      <c r="S70" s="64">
+        <v>45</v>
+      </c>
+      <c r="T70" s="64">
+        <v>46</v>
+      </c>
+      <c r="U70" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V70" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A71" s="20">
+        <v>3829</v>
+      </c>
+      <c r="B71" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="C71" s="66"/>
+      <c r="D71" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="59">
+        <v>15.3</v>
+      </c>
+      <c r="F71" s="59">
+        <v>22.8</v>
+      </c>
+      <c r="G71" s="59">
+        <v>6.1</v>
+      </c>
+      <c r="H71" s="59">
+        <v>7.9</v>
+      </c>
+      <c r="I71" s="60">
+        <v>7</v>
+      </c>
+      <c r="J71" s="59">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K71" s="60">
+        <v>264</v>
+      </c>
+      <c r="L71" s="60">
+        <v>4240</v>
+      </c>
+      <c r="M71" s="59">
+        <v>1.2</v>
+      </c>
+      <c r="N71" s="59">
+        <v>2.8</v>
+      </c>
+      <c r="O71" s="59">
+        <v>0.2</v>
+      </c>
+      <c r="P71" s="59">
+        <v>1.6</v>
+      </c>
+      <c r="Q71" s="59">
+        <v>1.8</v>
+      </c>
+      <c r="R71" s="60">
+        <v>11</v>
+      </c>
+      <c r="S71" s="60">
+        <v>39</v>
+      </c>
+      <c r="T71" s="60">
+        <v>43</v>
+      </c>
+      <c r="U71" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="V71" s="61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
+        <v>3847</v>
+      </c>
+      <c r="B72" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" s="66"/>
+      <c r="D72" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="64">
+        <v>18</v>
+      </c>
+      <c r="F72" s="64">
+        <v>29</v>
+      </c>
+      <c r="G72" s="63">
+        <v>6.4</v>
+      </c>
+      <c r="H72" s="63">
+        <v>7.8</v>
+      </c>
+      <c r="I72" s="63">
+        <v>7.5</v>
+      </c>
+      <c r="J72" s="63">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K72" s="64">
+        <v>287</v>
+      </c>
+      <c r="L72" s="64">
+        <v>388</v>
+      </c>
+      <c r="M72" s="63">
+        <v>0.6</v>
+      </c>
+      <c r="N72" s="63">
+        <v>1.4</v>
+      </c>
+      <c r="O72" s="63">
+        <v>0.5</v>
+      </c>
+      <c r="P72" s="63">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q72" s="63">
+        <v>1.8</v>
+      </c>
+      <c r="R72" s="63">
+        <v>1.8</v>
+      </c>
+      <c r="S72" s="64">
+        <v>33</v>
+      </c>
+      <c r="T72" s="64">
+        <v>49</v>
+      </c>
+      <c r="U72" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V72" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
+        <v>7</v>
+      </c>
+      <c r="B73" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="C73" s="66"/>
+      <c r="D73" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="64">
+        <v>26</v>
+      </c>
+      <c r="F73" s="64">
+        <v>30</v>
+      </c>
+      <c r="G73" s="63">
+        <v>6.2</v>
+      </c>
+      <c r="H73" s="63">
+        <v>7.7</v>
+      </c>
+      <c r="I73" s="63">
+        <v>7.5</v>
+      </c>
+      <c r="J73" s="63">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K73" s="64">
+        <v>230</v>
+      </c>
+      <c r="L73" s="64">
+        <v>333</v>
+      </c>
+      <c r="M73" s="63">
+        <v>0.1</v>
+      </c>
+      <c r="N73" s="67">
+        <v>0.64</v>
+      </c>
+      <c r="O73" s="67">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P73" s="67">
+        <v>0.16</v>
+      </c>
+      <c r="Q73" s="64">
+        <v>17</v>
+      </c>
+      <c r="R73" s="64">
+        <v>33</v>
+      </c>
+      <c r="S73" s="64">
+        <v>33</v>
+      </c>
+      <c r="T73" s="64">
+        <v>79</v>
+      </c>
+      <c r="U73" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V73" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
+        <v>1244</v>
+      </c>
+      <c r="B74" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="C74" s="66"/>
+      <c r="D74" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" s="64">
+        <v>25</v>
+      </c>
+      <c r="F74" s="64">
+        <v>31</v>
+      </c>
+      <c r="G74" s="63">
+        <v>6.3</v>
+      </c>
+      <c r="H74" s="63">
+        <v>7.5</v>
+      </c>
+      <c r="I74" s="63">
+        <v>7.6</v>
+      </c>
+      <c r="J74" s="63">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K74" s="64">
+        <v>217</v>
+      </c>
+      <c r="L74" s="64">
+        <v>331</v>
+      </c>
+      <c r="M74" s="63">
+        <v>0.3</v>
+      </c>
+      <c r="N74" s="63">
+        <v>0.9</v>
+      </c>
+      <c r="O74" s="63">
+        <v>0.1</v>
+      </c>
+      <c r="P74" s="63">
+        <v>0.2</v>
+      </c>
+      <c r="Q74" s="64">
+        <v>13</v>
+      </c>
+      <c r="R74" s="64">
+        <v>33</v>
+      </c>
+      <c r="S74" s="64">
+        <v>32</v>
+      </c>
+      <c r="T74" s="64">
+        <v>79</v>
+      </c>
+      <c r="U74" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V74" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
+        <v>1245</v>
+      </c>
+      <c r="B75" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="C75" s="66"/>
+      <c r="D75" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" s="64">
+        <v>20</v>
+      </c>
+      <c r="F75" s="64">
+        <v>30</v>
+      </c>
+      <c r="G75" s="64">
+        <v>7</v>
+      </c>
+      <c r="H75" s="63">
+        <v>7.8</v>
+      </c>
+      <c r="I75" s="64">
+        <v>7</v>
+      </c>
+      <c r="J75" s="63">
+        <v>8.4</v>
+      </c>
+      <c r="K75" s="64">
+        <v>204</v>
+      </c>
+      <c r="L75" s="64">
+        <v>368</v>
+      </c>
+      <c r="M75" s="63">
+        <v>0.3</v>
+      </c>
+      <c r="N75" s="63">
+        <v>0.8</v>
+      </c>
+      <c r="O75" s="63">
+        <v>0.4</v>
+      </c>
+      <c r="P75" s="63">
+        <v>0.6</v>
+      </c>
+      <c r="Q75" s="64">
+        <v>4</v>
+      </c>
+      <c r="R75" s="64">
+        <v>26</v>
+      </c>
+      <c r="S75" s="64">
+        <v>33</v>
+      </c>
+      <c r="T75" s="64">
+        <v>210</v>
+      </c>
+      <c r="U75" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V75" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
+        <v>1981</v>
+      </c>
+      <c r="B76" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="C76" s="66"/>
+      <c r="D76" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" s="64">
+        <v>26</v>
+      </c>
+      <c r="F76" s="64">
+        <v>30</v>
+      </c>
+      <c r="G76" s="63">
+        <v>6.1</v>
+      </c>
+      <c r="H76" s="63">
+        <v>7.4</v>
+      </c>
+      <c r="I76" s="63">
+        <v>7.6</v>
+      </c>
+      <c r="J76" s="63">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K76" s="64">
+        <v>235</v>
+      </c>
+      <c r="L76" s="64">
+        <v>2910</v>
+      </c>
+      <c r="M76" s="63">
+        <v>0.6</v>
+      </c>
+      <c r="N76" s="63">
+        <v>0.8</v>
+      </c>
+      <c r="O76" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="64">
+        <v>21</v>
+      </c>
+      <c r="R76" s="64">
+        <v>33</v>
+      </c>
+      <c r="S76" s="64">
+        <v>46</v>
+      </c>
+      <c r="T76" s="64">
+        <v>94</v>
+      </c>
+      <c r="U76" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V76" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
+        <v>1243</v>
+      </c>
+      <c r="B77" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" s="66"/>
+      <c r="D77" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="64">
+        <v>27</v>
+      </c>
+      <c r="F77" s="64">
+        <v>30</v>
+      </c>
+      <c r="G77" s="63">
+        <v>5.9</v>
+      </c>
+      <c r="H77" s="63">
+        <v>7.1</v>
+      </c>
+      <c r="I77" s="63">
+        <v>7.7</v>
+      </c>
+      <c r="J77" s="63">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K77" s="64">
+        <v>244</v>
+      </c>
+      <c r="L77" s="64">
+        <v>18300</v>
+      </c>
+      <c r="M77" s="63">
+        <v>0.7</v>
+      </c>
+      <c r="N77" s="63">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O77" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="P77" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q77" s="64">
+        <v>49</v>
+      </c>
+      <c r="R77" s="64">
+        <v>110</v>
+      </c>
+      <c r="S77" s="64">
+        <v>170</v>
+      </c>
+      <c r="T77" s="64">
+        <v>390</v>
+      </c>
+      <c r="U77" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V77" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A78" s="20">
+        <v>1236</v>
+      </c>
+      <c r="B78" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" s="57"/>
+      <c r="D78" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" s="23">
+        <v>18</v>
+      </c>
+      <c r="F78" s="70">
+        <v>24</v>
+      </c>
+      <c r="G78" s="59">
+        <v>6.5</v>
+      </c>
+      <c r="H78" s="59">
+        <v>7.6</v>
+      </c>
+      <c r="I78" s="59">
+        <v>7.8</v>
+      </c>
+      <c r="J78" s="59">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K78" s="60">
+        <v>260</v>
+      </c>
+      <c r="L78" s="60">
+        <v>682</v>
+      </c>
+      <c r="M78" s="59">
+        <v>0.8</v>
+      </c>
+      <c r="N78" s="59">
+        <v>1.2</v>
+      </c>
+      <c r="O78" s="59">
+        <v>0.3</v>
+      </c>
+      <c r="P78" s="59">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q78" s="59">
+        <v>1.8</v>
+      </c>
+      <c r="R78" s="59">
+        <v>1.8</v>
+      </c>
+      <c r="S78" s="60">
+        <v>7</v>
+      </c>
+      <c r="T78" s="60">
+        <v>84</v>
+      </c>
+      <c r="U78" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="V78" s="61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
+        <v>2100</v>
+      </c>
+      <c r="B79" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="C79" s="72"/>
+      <c r="D79" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="E79" s="7">
+        <v>16.8</v>
+      </c>
+      <c r="F79" s="6">
+        <v>30.3</v>
+      </c>
+      <c r="G79" s="63">
+        <v>7.3</v>
+      </c>
+      <c r="H79" s="63">
+        <v>7.6</v>
+      </c>
+      <c r="I79" s="63">
+        <v>7.3</v>
+      </c>
+      <c r="J79" s="63">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K79" s="64">
+        <v>220</v>
+      </c>
+      <c r="L79" s="64">
+        <v>3420</v>
+      </c>
+      <c r="M79" s="63">
+        <v>1.3</v>
+      </c>
+      <c r="N79" s="63">
+        <v>1.9</v>
+      </c>
+      <c r="O79" s="63">
+        <v>0.1</v>
+      </c>
+      <c r="P79" s="63">
+        <v>1.7</v>
+      </c>
+      <c r="Q79" s="63">
+        <v>1.8</v>
+      </c>
+      <c r="R79" s="64">
+        <v>12</v>
+      </c>
+      <c r="S79" s="64">
+        <v>39</v>
+      </c>
+      <c r="T79" s="64">
+        <v>48</v>
+      </c>
+      <c r="U79" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V79" s="61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A80" s="5">
+        <v>2114</v>
+      </c>
+      <c r="B80" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80" s="49"/>
+      <c r="D80" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" s="12">
+        <v>14</v>
+      </c>
+      <c r="F80" s="73">
+        <v>29</v>
+      </c>
+      <c r="G80" s="63">
+        <v>5.8</v>
+      </c>
+      <c r="H80" s="63">
+        <v>7.6</v>
+      </c>
+      <c r="I80" s="63">
+        <v>7.4</v>
+      </c>
+      <c r="J80" s="63">
+        <v>8.4</v>
+      </c>
+      <c r="K80" s="64">
+        <v>410</v>
+      </c>
+      <c r="L80" s="64">
+        <v>739</v>
+      </c>
+      <c r="M80" s="63">
+        <v>1</v>
+      </c>
+      <c r="N80" s="63">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O80" s="63">
+        <v>0.3</v>
+      </c>
+      <c r="P80" s="63">
+        <v>4</v>
+      </c>
+      <c r="Q80" s="63">
+        <v>1.8</v>
+      </c>
+      <c r="R80" s="64">
+        <v>130</v>
+      </c>
+      <c r="S80" s="64">
+        <v>43</v>
+      </c>
+      <c r="T80" s="64">
+        <v>540</v>
+      </c>
+      <c r="U80" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V80" s="61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A81" s="5">
+        <v>3305</v>
+      </c>
+      <c r="B81" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" s="57"/>
+      <c r="D81" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="7">
+        <v>15.8</v>
+      </c>
+      <c r="F81" s="6">
+        <v>29.9</v>
+      </c>
+      <c r="G81" s="63">
+        <v>7.2</v>
+      </c>
+      <c r="H81" s="63">
+        <v>7.7</v>
+      </c>
+      <c r="I81" s="63">
+        <v>7.2</v>
+      </c>
+      <c r="J81" s="63">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K81" s="64">
+        <v>230</v>
+      </c>
+      <c r="L81" s="64">
+        <v>2430</v>
+      </c>
+      <c r="M81" s="63">
+        <v>1.2</v>
+      </c>
+      <c r="N81" s="63">
+        <v>1.7</v>
+      </c>
+      <c r="O81" s="63">
+        <v>0.2</v>
+      </c>
+      <c r="P81" s="63">
+        <v>1.6</v>
+      </c>
+      <c r="Q81" s="63">
+        <v>1.8</v>
+      </c>
+      <c r="R81" s="64">
+        <v>12</v>
+      </c>
+      <c r="S81" s="64">
+        <v>43</v>
+      </c>
+      <c r="T81" s="64">
+        <v>46</v>
+      </c>
+      <c r="U81" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V81" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A82" s="60">
+        <v>44</v>
+      </c>
+      <c r="B82" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="C82" s="74"/>
+      <c r="D82" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" s="59">
+        <v>19</v>
+      </c>
+      <c r="F82" s="59">
+        <v>29</v>
+      </c>
+      <c r="G82" s="59">
+        <v>6.4</v>
+      </c>
+      <c r="H82" s="59">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I82" s="59">
+        <v>7.4</v>
+      </c>
+      <c r="J82" s="59">
+        <v>8.4</v>
+      </c>
+      <c r="K82" s="60">
+        <v>178</v>
+      </c>
+      <c r="L82" s="60">
+        <v>413</v>
+      </c>
+      <c r="M82" s="59">
+        <v>1.4</v>
+      </c>
+      <c r="N82" s="59">
+        <v>2.6</v>
+      </c>
+      <c r="O82" s="75">
+        <v>1.96</v>
+      </c>
+      <c r="P82" s="75">
+        <v>5.62</v>
+      </c>
+      <c r="Q82" s="60">
+        <v>2</v>
+      </c>
+      <c r="R82" s="60">
+        <v>39</v>
+      </c>
+      <c r="S82" s="60">
+        <v>34</v>
+      </c>
+      <c r="T82" s="60">
+        <v>1600</v>
+      </c>
+      <c r="U82" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V82" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A83" s="60">
+        <v>45</v>
+      </c>
+      <c r="B83" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="C83" s="74"/>
+      <c r="D83" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="59">
+        <v>20</v>
+      </c>
+      <c r="F83" s="59">
+        <v>29</v>
+      </c>
+      <c r="G83" s="59">
+        <v>6.9</v>
+      </c>
+      <c r="H83" s="59">
+        <v>7.6</v>
+      </c>
+      <c r="I83" s="59">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J83" s="59">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K83" s="60">
+        <v>282</v>
+      </c>
+      <c r="L83" s="60">
+        <v>480</v>
+      </c>
+      <c r="M83" s="59">
+        <v>1</v>
+      </c>
+      <c r="N83" s="59">
+        <v>1.5</v>
+      </c>
+      <c r="O83" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="P83" s="75">
+        <v>1.03</v>
+      </c>
+      <c r="Q83" s="60">
+        <v>2</v>
+      </c>
+      <c r="R83" s="60">
+        <v>2</v>
+      </c>
+      <c r="S83" s="60">
+        <v>34</v>
+      </c>
+      <c r="T83" s="60">
+        <v>50</v>
+      </c>
+      <c r="U83" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V83" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A84" s="64">
+        <v>1240</v>
+      </c>
+      <c r="B84" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="74"/>
+      <c r="D84" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E84" s="63">
+        <v>19</v>
+      </c>
+      <c r="F84" s="63">
+        <v>26</v>
+      </c>
+      <c r="G84" s="63">
+        <v>7</v>
+      </c>
+      <c r="H84" s="63">
+        <v>7.8</v>
+      </c>
+      <c r="I84" s="63">
+        <v>7</v>
+      </c>
+      <c r="J84" s="63">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K84" s="64">
+        <v>211</v>
+      </c>
+      <c r="L84" s="64">
+        <v>412</v>
+      </c>
+      <c r="M84" s="63">
+        <v>1.2</v>
+      </c>
+      <c r="N84" s="63">
+        <v>7.6</v>
+      </c>
+      <c r="O84" s="67">
+        <v>0.25</v>
+      </c>
+      <c r="P84" s="67">
+        <v>1.6</v>
+      </c>
+      <c r="Q84" s="64">
+        <v>2</v>
+      </c>
+      <c r="R84" s="64">
+        <v>13</v>
+      </c>
+      <c r="S84" s="64">
+        <v>26</v>
+      </c>
+      <c r="T84" s="64">
+        <v>48</v>
+      </c>
+      <c r="U84" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V84" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A85" s="60">
+        <v>1234</v>
+      </c>
+      <c r="B85" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="C85" s="74"/>
+      <c r="D85" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" s="59">
+        <v>20</v>
+      </c>
+      <c r="F85" s="59">
+        <v>29</v>
+      </c>
+      <c r="G85" s="59">
+        <v>7.4</v>
+      </c>
+      <c r="H85" s="59">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I85" s="59">
+        <v>7.2</v>
+      </c>
+      <c r="J85" s="59">
+        <v>8.9</v>
+      </c>
+      <c r="K85" s="60">
+        <v>131</v>
+      </c>
+      <c r="L85" s="60">
+        <v>518</v>
+      </c>
+      <c r="M85" s="59">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N85" s="59">
+        <v>1.9</v>
+      </c>
+      <c r="O85" s="75">
+        <v>0.87</v>
+      </c>
+      <c r="P85" s="75">
+        <v>3.86</v>
+      </c>
+      <c r="Q85" s="60">
+        <v>2</v>
+      </c>
+      <c r="R85" s="60">
+        <v>70</v>
+      </c>
+      <c r="S85" s="60">
+        <v>15</v>
+      </c>
+      <c r="T85" s="60">
+        <v>2400</v>
+      </c>
+      <c r="U85" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V85" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A86" s="60">
+        <v>2123</v>
+      </c>
+      <c r="B86" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C86" s="74"/>
+      <c r="D86" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E86" s="59">
+        <v>19</v>
+      </c>
+      <c r="F86" s="59">
+        <v>29</v>
+      </c>
+      <c r="G86" s="59">
+        <v>5.7</v>
+      </c>
+      <c r="H86" s="59">
+        <v>9</v>
+      </c>
+      <c r="I86" s="59">
+        <v>7.8</v>
+      </c>
+      <c r="J86" s="59">
+        <v>8.4</v>
+      </c>
+      <c r="K86" s="60">
+        <v>135</v>
+      </c>
+      <c r="L86" s="60">
+        <v>415</v>
+      </c>
+      <c r="M86" s="59">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N86" s="59">
+        <v>2.7</v>
+      </c>
+      <c r="O86" s="75">
+        <v>1.28</v>
+      </c>
+      <c r="P86" s="75">
+        <v>5.24</v>
+      </c>
+      <c r="Q86" s="60">
+        <v>2</v>
+      </c>
+      <c r="R86" s="60">
+        <v>47</v>
+      </c>
+      <c r="S86" s="60">
+        <v>27</v>
+      </c>
+      <c r="T86" s="60">
+        <v>1600</v>
+      </c>
+      <c r="U86" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V86" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A87" s="64">
+        <v>2106</v>
+      </c>
+      <c r="B87" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="C87" s="74"/>
+      <c r="D87" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87" s="63">
+        <v>22</v>
+      </c>
+      <c r="F87" s="63">
+        <v>26</v>
+      </c>
+      <c r="G87" s="63">
+        <v>6.9</v>
+      </c>
+      <c r="H87" s="63">
+        <v>7.5</v>
+      </c>
+      <c r="I87" s="63">
+        <v>7.2</v>
+      </c>
+      <c r="J87" s="63">
+        <v>8.4</v>
+      </c>
+      <c r="K87" s="64">
+        <v>242</v>
+      </c>
+      <c r="L87" s="64">
+        <v>338</v>
+      </c>
+      <c r="M87" s="63">
+        <v>1.8</v>
+      </c>
+      <c r="N87" s="63">
+        <v>2</v>
+      </c>
+      <c r="O87" s="67">
+        <v>0.52</v>
+      </c>
+      <c r="P87" s="67">
+        <v>0.92</v>
+      </c>
+      <c r="Q87" s="64">
+        <v>2</v>
+      </c>
+      <c r="R87" s="64">
+        <v>70</v>
+      </c>
+      <c r="S87" s="64">
+        <v>40</v>
+      </c>
+      <c r="T87" s="64">
+        <v>540</v>
+      </c>
+      <c r="U87" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V87" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A88" s="64">
+        <v>2099</v>
+      </c>
+      <c r="B88" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="C88" s="74"/>
+      <c r="D88" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88" s="63">
+        <v>18</v>
+      </c>
+      <c r="F88" s="63">
+        <v>20</v>
+      </c>
+      <c r="G88" s="63">
+        <v>7.2</v>
+      </c>
+      <c r="H88" s="63">
+        <v>8</v>
+      </c>
+      <c r="I88" s="63">
+        <v>7.4</v>
+      </c>
+      <c r="J88" s="63">
+        <v>8.4</v>
+      </c>
+      <c r="K88" s="64">
+        <v>156</v>
+      </c>
+      <c r="L88" s="64">
+        <v>584</v>
+      </c>
+      <c r="M88" s="63">
+        <v>0.9</v>
+      </c>
+      <c r="N88" s="63">
+        <v>1.5</v>
+      </c>
+      <c r="O88" s="67">
+        <v>0.3</v>
+      </c>
+      <c r="P88" s="67">
+        <v>1.52</v>
+      </c>
+      <c r="Q88" s="64">
+        <v>2</v>
+      </c>
+      <c r="R88" s="64">
+        <v>18</v>
+      </c>
+      <c r="S88" s="64">
+        <v>21</v>
+      </c>
+      <c r="T88" s="64">
+        <v>41</v>
+      </c>
+      <c r="U88" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V88" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A89" s="60">
+        <v>3322</v>
+      </c>
+      <c r="B89" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" s="74"/>
+      <c r="D89" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="59">
+        <v>19</v>
+      </c>
+      <c r="F89" s="59">
+        <v>20</v>
+      </c>
+      <c r="G89" s="59">
+        <v>7</v>
+      </c>
+      <c r="H89" s="59">
+        <v>10.4</v>
+      </c>
+      <c r="I89" s="59">
+        <v>6.9</v>
+      </c>
+      <c r="J89" s="59">
+        <v>8.5</v>
+      </c>
+      <c r="K89" s="60">
+        <v>159</v>
+      </c>
+      <c r="L89" s="60">
+        <v>386</v>
+      </c>
+      <c r="M89" s="59">
+        <v>0.4</v>
+      </c>
+      <c r="N89" s="59">
+        <v>1.8</v>
+      </c>
+      <c r="O89" s="75">
+        <v>0.2</v>
+      </c>
+      <c r="P89" s="75">
+        <v>1.7</v>
+      </c>
+      <c r="Q89" s="60">
+        <v>2</v>
+      </c>
+      <c r="R89" s="60">
+        <v>11</v>
+      </c>
+      <c r="S89" s="60">
+        <v>39</v>
+      </c>
+      <c r="T89" s="60">
+        <v>47</v>
+      </c>
+      <c r="U89" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V89" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A90" s="64">
+        <v>3323</v>
+      </c>
+      <c r="B90" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="C90" s="76"/>
+      <c r="D90" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E90" s="63">
+        <v>18</v>
+      </c>
+      <c r="F90" s="63">
+        <v>20</v>
+      </c>
+      <c r="G90" s="63">
+        <v>5.8</v>
+      </c>
+      <c r="H90" s="63">
+        <v>8</v>
+      </c>
+      <c r="I90" s="63">
+        <v>7.4</v>
+      </c>
+      <c r="J90" s="63">
+        <v>8.4</v>
+      </c>
+      <c r="K90" s="64">
+        <v>160</v>
+      </c>
+      <c r="L90" s="64">
+        <v>603</v>
+      </c>
+      <c r="M90" s="63">
+        <v>0.8</v>
+      </c>
+      <c r="N90" s="63">
+        <v>1.8</v>
+      </c>
+      <c r="O90" s="67">
+        <v>0.3</v>
+      </c>
+      <c r="P90" s="67">
+        <v>1.5</v>
+      </c>
+      <c r="Q90" s="64">
+        <v>2</v>
+      </c>
+      <c r="R90" s="64">
+        <v>6</v>
+      </c>
+      <c r="S90" s="64">
+        <v>26</v>
+      </c>
+      <c r="T90" s="64">
+        <v>49</v>
+      </c>
+      <c r="U90" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V90" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A91" s="60">
+        <v>3324</v>
+      </c>
+      <c r="B91" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C91" s="74"/>
+      <c r="D91" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="59">
+        <v>19</v>
+      </c>
+      <c r="F91" s="59">
+        <v>25</v>
+      </c>
+      <c r="G91" s="59">
+        <v>7.4</v>
+      </c>
+      <c r="H91" s="59">
+        <v>8.5</v>
+      </c>
+      <c r="I91" s="59">
+        <v>7.2</v>
+      </c>
+      <c r="J91" s="59">
+        <v>8.4</v>
+      </c>
+      <c r="K91" s="60">
+        <v>238</v>
+      </c>
+      <c r="L91" s="60">
+        <v>382</v>
+      </c>
+      <c r="M91" s="59">
+        <v>1</v>
+      </c>
+      <c r="N91" s="59">
+        <v>2.1</v>
+      </c>
+      <c r="O91" s="75">
+        <v>0.1</v>
+      </c>
+      <c r="P91" s="75">
+        <v>1.56</v>
+      </c>
+      <c r="Q91" s="60">
+        <v>2</v>
+      </c>
+      <c r="R91" s="60">
+        <v>14</v>
+      </c>
+      <c r="S91" s="60">
+        <v>26</v>
+      </c>
+      <c r="T91" s="60">
+        <v>46</v>
+      </c>
+      <c r="U91" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V91" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A92" s="60">
+        <v>3325</v>
+      </c>
+      <c r="B92" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="C92" s="74"/>
+      <c r="D92" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E92" s="59">
+        <v>18</v>
+      </c>
+      <c r="F92" s="59">
+        <v>25</v>
+      </c>
+      <c r="G92" s="59">
+        <v>6.7</v>
+      </c>
+      <c r="H92" s="59">
+        <v>7.8</v>
+      </c>
+      <c r="I92" s="59">
+        <v>7.2</v>
+      </c>
+      <c r="J92" s="59">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K92" s="60">
+        <v>202</v>
+      </c>
+      <c r="L92" s="60">
+        <v>380</v>
+      </c>
+      <c r="M92" s="59">
+        <v>0.7</v>
+      </c>
+      <c r="N92" s="59">
+        <v>1.8</v>
+      </c>
+      <c r="O92" s="75">
+        <v>0.25</v>
+      </c>
+      <c r="P92" s="75">
+        <v>1.6</v>
+      </c>
+      <c r="Q92" s="60">
+        <v>2</v>
+      </c>
+      <c r="R92" s="60">
+        <v>14</v>
+      </c>
+      <c r="S92" s="60">
+        <v>24</v>
+      </c>
+      <c r="T92" s="60">
+        <v>48</v>
+      </c>
+      <c r="U92" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V92" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A93" s="60">
+        <v>1430</v>
+      </c>
+      <c r="B93" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="C93" s="74"/>
+      <c r="D93" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E93" s="59">
+        <v>20</v>
+      </c>
+      <c r="F93" s="59">
+        <v>29</v>
+      </c>
+      <c r="G93" s="59">
+        <v>6.9</v>
+      </c>
+      <c r="H93" s="59">
+        <v>7.7</v>
+      </c>
+      <c r="I93" s="59">
+        <v>7.8</v>
+      </c>
+      <c r="J93" s="59">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K93" s="60">
+        <v>35</v>
+      </c>
+      <c r="L93" s="60">
+        <v>612</v>
+      </c>
+      <c r="M93" s="59">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N93" s="59">
+        <v>1.8</v>
+      </c>
+      <c r="O93" s="75">
+        <v>0.42</v>
+      </c>
+      <c r="P93" s="75">
+        <v>1.42</v>
+      </c>
+      <c r="Q93" s="60">
+        <v>2</v>
+      </c>
+      <c r="R93" s="60">
+        <v>2</v>
+      </c>
+      <c r="S93" s="60">
+        <v>40</v>
+      </c>
+      <c r="T93" s="60">
+        <v>70</v>
+      </c>
+      <c r="U93" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V93" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A94" s="60">
+        <v>1431</v>
+      </c>
+      <c r="B94" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" s="74"/>
+      <c r="D94" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="59">
+        <v>20</v>
+      </c>
+      <c r="F94" s="59">
+        <v>29</v>
+      </c>
+      <c r="G94" s="59">
+        <v>6.8</v>
+      </c>
+      <c r="H94" s="59">
+        <v>7.9</v>
+      </c>
+      <c r="I94" s="59">
+        <v>7.9</v>
+      </c>
+      <c r="J94" s="59">
+        <v>8.6</v>
+      </c>
+      <c r="K94" s="60">
+        <v>300</v>
+      </c>
+      <c r="L94" s="60">
+        <v>461</v>
+      </c>
+      <c r="M94" s="59">
+        <v>1</v>
+      </c>
+      <c r="N94" s="59">
+        <v>1.5</v>
+      </c>
+      <c r="O94" s="75">
+        <v>0.6</v>
+      </c>
+      <c r="P94" s="75">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q94" s="60">
+        <v>2</v>
+      </c>
+      <c r="R94" s="60">
+        <v>2</v>
+      </c>
+      <c r="S94" s="60">
+        <v>40</v>
+      </c>
+      <c r="T94" s="60">
+        <v>50</v>
+      </c>
+      <c r="U94" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V94" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A95" s="60">
+        <v>2112</v>
+      </c>
+      <c r="B95" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="C95" s="74"/>
+      <c r="D95" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E95" s="59">
+        <v>20</v>
+      </c>
+      <c r="F95" s="59">
+        <v>30</v>
+      </c>
+      <c r="G95" s="59">
+        <v>6.7</v>
+      </c>
+      <c r="H95" s="59">
+        <v>7.8</v>
+      </c>
+      <c r="I95" s="59">
+        <v>6.6</v>
+      </c>
+      <c r="J95" s="59">
+        <v>8.9</v>
+      </c>
+      <c r="K95" s="60">
+        <v>304</v>
+      </c>
+      <c r="L95" s="60">
+        <v>576</v>
+      </c>
+      <c r="M95" s="59">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N95" s="59">
+        <v>6.8</v>
+      </c>
+      <c r="O95" s="75">
+        <v>0.34</v>
+      </c>
+      <c r="P95" s="75">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="Q95" s="60">
+        <v>2</v>
+      </c>
+      <c r="R95" s="60">
+        <v>2</v>
+      </c>
+      <c r="S95" s="60">
+        <v>40</v>
+      </c>
+      <c r="T95" s="60">
+        <v>70</v>
+      </c>
+      <c r="U95" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V95" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A96" s="60">
+        <v>2113</v>
+      </c>
+      <c r="B96" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="C96" s="76"/>
+      <c r="D96" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96" s="59">
+        <v>20</v>
+      </c>
+      <c r="F96" s="59">
+        <v>29</v>
+      </c>
+      <c r="G96" s="59">
+        <v>6.5</v>
+      </c>
+      <c r="H96" s="59">
+        <v>7.7</v>
+      </c>
+      <c r="I96" s="59">
+        <v>7.9</v>
+      </c>
+      <c r="J96" s="59">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K96" s="60">
+        <v>300</v>
+      </c>
+      <c r="L96" s="60">
+        <v>544</v>
+      </c>
+      <c r="M96" s="59">
+        <v>1</v>
+      </c>
+      <c r="N96" s="59">
+        <v>1.6</v>
+      </c>
+      <c r="O96" s="75">
+        <v>0.49</v>
+      </c>
+      <c r="P96" s="75">
+        <v>1.18</v>
+      </c>
+      <c r="Q96" s="60">
+        <v>2</v>
+      </c>
+      <c r="R96" s="60">
+        <v>2</v>
+      </c>
+      <c r="S96" s="60">
+        <v>27</v>
+      </c>
+      <c r="T96" s="60">
+        <v>49</v>
+      </c>
+      <c r="U96" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V96" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A97" s="64">
+        <v>2118</v>
+      </c>
+      <c r="B97" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="C97" s="74"/>
+      <c r="D97" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E97" s="63">
+        <v>20</v>
+      </c>
+      <c r="F97" s="63">
+        <v>29</v>
+      </c>
+      <c r="G97" s="63">
+        <v>6.8</v>
+      </c>
+      <c r="H97" s="63">
+        <v>14.5</v>
+      </c>
+      <c r="I97" s="63">
+        <v>7.5</v>
+      </c>
+      <c r="J97" s="63">
+        <v>8.1</v>
+      </c>
+      <c r="K97" s="64">
+        <v>183</v>
+      </c>
+      <c r="L97" s="64">
+        <v>538</v>
+      </c>
+      <c r="M97" s="63">
+        <v>1.3</v>
+      </c>
+      <c r="N97" s="63">
+        <v>2</v>
+      </c>
+      <c r="O97" s="67">
+        <v>0.24</v>
+      </c>
+      <c r="P97" s="67">
+        <v>0.89</v>
+      </c>
+      <c r="Q97" s="64">
+        <v>2</v>
+      </c>
+      <c r="R97" s="64">
+        <v>4</v>
+      </c>
+      <c r="S97" s="64">
+        <v>21</v>
+      </c>
+      <c r="T97" s="64">
+        <v>70</v>
+      </c>
+      <c r="U97" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V97" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A98" s="60">
+        <v>3321</v>
+      </c>
+      <c r="B98" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" s="74"/>
+      <c r="D98" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E98" s="59">
+        <v>20</v>
+      </c>
+      <c r="F98" s="59">
+        <v>29</v>
+      </c>
+      <c r="G98" s="59">
+        <v>7.2</v>
+      </c>
+      <c r="H98" s="59">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I98" s="59">
+        <v>7.7</v>
+      </c>
+      <c r="J98" s="59">
+        <v>8.1</v>
+      </c>
+      <c r="K98" s="60">
+        <v>232</v>
+      </c>
+      <c r="L98" s="60">
+        <v>551</v>
+      </c>
+      <c r="M98" s="59">
+        <v>0.9</v>
+      </c>
+      <c r="N98" s="59">
+        <v>2.5</v>
+      </c>
+      <c r="O98" s="75">
+        <v>0.26</v>
+      </c>
+      <c r="P98" s="75">
+        <v>0.66</v>
+      </c>
+      <c r="Q98" s="60">
+        <v>2</v>
+      </c>
+      <c r="R98" s="60">
+        <v>6</v>
+      </c>
+      <c r="S98" s="60">
+        <v>24</v>
+      </c>
+      <c r="T98" s="60">
+        <v>94</v>
+      </c>
+      <c r="U98" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V98" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A99" s="60">
+        <v>1235</v>
+      </c>
+      <c r="B99" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="C99" s="74"/>
+      <c r="D99" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E99" s="59">
+        <v>19</v>
+      </c>
+      <c r="F99" s="59">
+        <v>30</v>
+      </c>
+      <c r="G99" s="59">
+        <v>2.4</v>
+      </c>
+      <c r="H99" s="59">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I99" s="59">
+        <v>7.6</v>
+      </c>
+      <c r="J99" s="59">
+        <v>8.5</v>
+      </c>
+      <c r="K99" s="60">
+        <v>209</v>
+      </c>
+      <c r="L99" s="60">
+        <v>404</v>
+      </c>
+      <c r="M99" s="59">
+        <v>1.2</v>
+      </c>
+      <c r="N99" s="59">
+        <v>2.9</v>
+      </c>
+      <c r="O99" s="75">
+        <v>0.87</v>
+      </c>
+      <c r="P99" s="75">
+        <v>17.11</v>
+      </c>
+      <c r="Q99" s="60">
+        <v>2</v>
+      </c>
+      <c r="R99" s="60">
+        <v>65</v>
+      </c>
+      <c r="S99" s="60">
+        <v>20</v>
+      </c>
+      <c r="T99" s="60">
+        <v>1600</v>
+      </c>
+      <c r="U99" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V99" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A100" s="64">
+        <v>1239</v>
+      </c>
+      <c r="B100" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100" s="74"/>
+      <c r="D100" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="63">
+        <v>21</v>
+      </c>
+      <c r="F100" s="63">
+        <v>30</v>
+      </c>
+      <c r="G100" s="63">
+        <v>5.9</v>
+      </c>
+      <c r="H100" s="63">
+        <v>8.4</v>
+      </c>
+      <c r="I100" s="63">
+        <v>7.9</v>
+      </c>
+      <c r="J100" s="63">
+        <v>8.9</v>
+      </c>
+      <c r="K100" s="64">
+        <v>175</v>
+      </c>
+      <c r="L100" s="64">
+        <v>601</v>
+      </c>
+      <c r="M100" s="63">
+        <v>0.9</v>
+      </c>
+      <c r="N100" s="63">
+        <v>2.6</v>
+      </c>
+      <c r="O100" s="67">
+        <v>0.01</v>
+      </c>
+      <c r="P100" s="67">
+        <v>1.9</v>
+      </c>
+      <c r="Q100" s="64">
+        <v>2</v>
+      </c>
+      <c r="R100" s="64">
+        <v>2</v>
+      </c>
+      <c r="S100" s="64">
+        <v>30</v>
+      </c>
+      <c r="T100" s="64">
+        <v>606</v>
+      </c>
+      <c r="U100" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V100" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A101" s="60">
+        <v>1242</v>
+      </c>
+      <c r="B101" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="74"/>
+      <c r="D101" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="59">
+        <v>20</v>
+      </c>
+      <c r="F101" s="59">
+        <v>29</v>
+      </c>
+      <c r="G101" s="59">
+        <v>6.4</v>
+      </c>
+      <c r="H101" s="59">
+        <v>7.4</v>
+      </c>
+      <c r="I101" s="59">
+        <v>6.9</v>
+      </c>
+      <c r="J101" s="59">
+        <v>8</v>
+      </c>
+      <c r="K101" s="60">
+        <v>179</v>
+      </c>
+      <c r="L101" s="60">
+        <v>359</v>
+      </c>
+      <c r="M101" s="59">
+        <v>0.3</v>
+      </c>
+      <c r="N101" s="59">
+        <v>1.4</v>
+      </c>
+      <c r="O101" s="75">
+        <v>0.12</v>
+      </c>
+      <c r="P101" s="75">
+        <v>0.48</v>
+      </c>
+      <c r="Q101" s="60">
+        <v>2</v>
+      </c>
+      <c r="R101" s="60">
+        <v>2</v>
+      </c>
+      <c r="S101" s="60">
+        <v>2</v>
+      </c>
+      <c r="T101" s="60">
+        <v>6</v>
+      </c>
+      <c r="U101" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V101" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A102" s="64">
+        <v>3847</v>
+      </c>
+      <c r="B102" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="C102" s="74"/>
+      <c r="D102" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="63">
+        <v>20</v>
+      </c>
+      <c r="F102" s="63">
+        <v>30</v>
+      </c>
+      <c r="G102" s="63">
+        <v>6.5</v>
+      </c>
+      <c r="H102" s="63">
+        <v>8</v>
+      </c>
+      <c r="I102" s="63">
+        <v>7.8</v>
+      </c>
+      <c r="J102" s="63">
+        <v>8.9</v>
+      </c>
+      <c r="K102" s="64">
+        <v>277</v>
+      </c>
+      <c r="L102" s="64">
+        <v>541</v>
+      </c>
+      <c r="M102" s="63">
+        <v>0.4</v>
+      </c>
+      <c r="N102" s="63">
+        <v>1.6</v>
+      </c>
+      <c r="O102" s="67">
+        <v>0.49</v>
+      </c>
+      <c r="P102" s="67">
+        <v>2.93</v>
+      </c>
+      <c r="Q102" s="64">
+        <v>2</v>
+      </c>
+      <c r="R102" s="64">
+        <v>2</v>
+      </c>
+      <c r="S102" s="64">
+        <v>34</v>
+      </c>
+      <c r="T102" s="64">
+        <v>60</v>
+      </c>
+      <c r="U102" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V102" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A103" s="60">
+        <v>7</v>
+      </c>
+      <c r="B103" s="77" t="s">
+        <v>100</v>
+      </c>
+      <c r="C103" s="78"/>
+      <c r="D103" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103" s="59">
+        <v>27</v>
+      </c>
+      <c r="F103" s="59">
+        <v>30</v>
+      </c>
+      <c r="G103" s="59">
+        <v>6.1</v>
+      </c>
+      <c r="H103" s="59">
+        <v>7.1</v>
+      </c>
+      <c r="I103" s="59">
+        <v>7.1</v>
+      </c>
+      <c r="J103" s="59">
+        <v>8.1</v>
+      </c>
+      <c r="K103" s="60">
+        <v>320</v>
+      </c>
+      <c r="L103" s="60">
+        <v>622</v>
+      </c>
+      <c r="M103" s="59">
+        <v>0.9</v>
+      </c>
+      <c r="N103" s="59">
+        <v>1</v>
+      </c>
+      <c r="O103" s="75">
+        <v>0.3</v>
+      </c>
+      <c r="P103" s="75">
+        <v>0.6</v>
+      </c>
+      <c r="Q103" s="60">
+        <v>13</v>
+      </c>
+      <c r="R103" s="60">
+        <v>26</v>
+      </c>
+      <c r="S103" s="60">
+        <v>33</v>
+      </c>
+      <c r="T103" s="60">
+        <v>110</v>
+      </c>
+      <c r="U103" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V103" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A104" s="60">
+        <v>1243</v>
+      </c>
+      <c r="B104" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="C104" s="74"/>
+      <c r="D104" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104" s="59">
+        <v>26</v>
+      </c>
+      <c r="F104" s="59">
+        <v>29</v>
+      </c>
+      <c r="G104" s="59">
+        <v>6.2</v>
+      </c>
+      <c r="H104" s="59">
+        <v>7.2</v>
+      </c>
+      <c r="I104" s="59">
+        <v>7.8</v>
+      </c>
+      <c r="J104" s="59">
+        <v>8.1</v>
+      </c>
+      <c r="K104" s="60">
+        <v>543</v>
+      </c>
+      <c r="L104" s="60">
+        <v>12900</v>
+      </c>
+      <c r="M104" s="59">
+        <v>0.9</v>
+      </c>
+      <c r="N104" s="59">
+        <v>1.7</v>
+      </c>
+      <c r="O104" s="75">
+        <v>0.02</v>
+      </c>
+      <c r="P104" s="75">
+        <v>0.52</v>
+      </c>
+      <c r="Q104" s="60">
+        <v>70</v>
+      </c>
+      <c r="R104" s="60">
+        <v>170</v>
+      </c>
+      <c r="S104" s="60">
+        <v>330</v>
+      </c>
+      <c r="T104" s="60">
+        <v>1100</v>
+      </c>
+      <c r="U104" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V104" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A105" s="60">
+        <v>1244</v>
+      </c>
+      <c r="B105" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="C105" s="74"/>
+      <c r="D105" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105" s="59">
+        <v>28</v>
+      </c>
+      <c r="F105" s="59">
+        <v>32</v>
+      </c>
+      <c r="G105" s="59">
+        <v>6.3</v>
+      </c>
+      <c r="H105" s="59">
+        <v>7.4</v>
+      </c>
+      <c r="I105" s="59">
+        <v>7</v>
+      </c>
+      <c r="J105" s="59">
+        <v>8.1</v>
+      </c>
+      <c r="K105" s="60">
+        <v>5</v>
+      </c>
+      <c r="L105" s="60">
+        <v>642</v>
+      </c>
+      <c r="M105" s="59">
+        <v>0.9</v>
+      </c>
+      <c r="N105" s="59">
+        <v>1</v>
+      </c>
+      <c r="O105" s="75">
+        <v>0.05</v>
+      </c>
+      <c r="P105" s="75">
+        <v>1.04</v>
+      </c>
+      <c r="Q105" s="60">
+        <v>11</v>
+      </c>
+      <c r="R105" s="60">
+        <v>33</v>
+      </c>
+      <c r="S105" s="60">
+        <v>33</v>
+      </c>
+      <c r="T105" s="60">
+        <v>94</v>
+      </c>
+      <c r="U105" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V105" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A106" s="60">
+        <v>1245</v>
+      </c>
+      <c r="B106" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="C106" s="74"/>
+      <c r="D106" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E106" s="59">
+        <v>0</v>
+      </c>
+      <c r="F106" s="59">
+        <v>29</v>
+      </c>
+      <c r="G106" s="59">
+        <v>7.1</v>
+      </c>
+      <c r="H106" s="59">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I106" s="59">
+        <v>7.7</v>
+      </c>
+      <c r="J106" s="59">
+        <v>8.5</v>
+      </c>
+      <c r="K106" s="60">
+        <v>365</v>
+      </c>
+      <c r="L106" s="60">
+        <v>562</v>
+      </c>
+      <c r="M106" s="59">
+        <v>0.3</v>
+      </c>
+      <c r="N106" s="59">
+        <v>0.8</v>
+      </c>
+      <c r="O106" s="75">
+        <v>0.04</v>
+      </c>
+      <c r="P106" s="75">
+        <v>0.88</v>
+      </c>
+      <c r="Q106" s="60">
+        <v>4</v>
+      </c>
+      <c r="R106" s="60">
+        <v>26</v>
+      </c>
+      <c r="S106" s="60">
+        <v>21</v>
+      </c>
+      <c r="T106" s="60">
+        <v>63</v>
+      </c>
+      <c r="U106" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V106" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A107" s="64">
+        <v>1981</v>
+      </c>
+      <c r="B107" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="C107" s="74"/>
+      <c r="D107" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" s="63">
+        <v>26</v>
+      </c>
+      <c r="F107" s="63">
+        <v>29</v>
+      </c>
+      <c r="G107" s="63">
+        <v>6.4</v>
+      </c>
+      <c r="H107" s="63">
+        <v>7.5</v>
+      </c>
+      <c r="I107" s="63">
+        <v>7.5</v>
+      </c>
+      <c r="J107" s="63">
+        <v>8.1</v>
+      </c>
+      <c r="K107" s="64">
+        <v>376</v>
+      </c>
+      <c r="L107" s="64">
+        <v>1070</v>
+      </c>
+      <c r="M107" s="63">
+        <v>0.9</v>
+      </c>
+      <c r="N107" s="63">
+        <v>1</v>
+      </c>
+      <c r="O107" s="67">
+        <v>0.01</v>
+      </c>
+      <c r="P107" s="67">
+        <v>0.32</v>
+      </c>
+      <c r="Q107" s="64">
+        <v>17</v>
+      </c>
+      <c r="R107" s="64">
+        <v>49</v>
+      </c>
+      <c r="S107" s="64">
+        <v>49</v>
+      </c>
+      <c r="T107" s="64">
+        <v>140</v>
+      </c>
+      <c r="U107" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V107" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A108" s="60">
+        <v>2100</v>
+      </c>
+      <c r="B108" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="C108" s="69"/>
+      <c r="D108" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108" s="59">
+        <v>16</v>
+      </c>
+      <c r="F108" s="59">
+        <v>35</v>
+      </c>
+      <c r="G108" s="59">
+        <v>6.8</v>
+      </c>
+      <c r="H108" s="59">
+        <v>7.8</v>
+      </c>
+      <c r="I108" s="59">
+        <v>7.1</v>
+      </c>
+      <c r="J108" s="59">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K108" s="60">
+        <v>211</v>
+      </c>
+      <c r="L108" s="60">
+        <v>374</v>
+      </c>
+      <c r="M108" s="59">
+        <v>1</v>
+      </c>
+      <c r="N108" s="59">
+        <v>1.9</v>
+      </c>
+      <c r="O108" s="59">
+        <v>0.1</v>
+      </c>
+      <c r="P108" s="59">
+        <v>6.5</v>
+      </c>
+      <c r="Q108" s="60">
+        <v>2</v>
+      </c>
+      <c r="R108" s="60">
+        <v>12</v>
+      </c>
+      <c r="S108" s="60">
+        <v>21</v>
+      </c>
+      <c r="T108" s="60">
+        <v>70</v>
+      </c>
+      <c r="U108" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V108" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A109" s="64">
+        <v>2101</v>
+      </c>
+      <c r="B109" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="C109" s="66"/>
+      <c r="D109" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E109" s="63">
+        <v>25</v>
+      </c>
+      <c r="F109" s="63">
+        <v>31</v>
+      </c>
+      <c r="G109" s="63">
+        <v>5.4</v>
+      </c>
+      <c r="H109" s="63">
+        <v>6.7</v>
+      </c>
+      <c r="I109" s="63">
+        <v>7.3</v>
+      </c>
+      <c r="J109" s="63">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K109" s="64">
+        <v>162</v>
+      </c>
+      <c r="L109" s="64">
+        <v>478</v>
+      </c>
+      <c r="M109" s="63">
+        <v>1</v>
+      </c>
+      <c r="N109" s="63">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O109" s="63">
+        <v>0.3</v>
+      </c>
+      <c r="P109" s="63">
+        <v>1.8</v>
+      </c>
+      <c r="Q109" s="64">
+        <v>2</v>
+      </c>
+      <c r="R109" s="64">
+        <v>63</v>
+      </c>
+      <c r="S109" s="64">
+        <v>27</v>
+      </c>
+      <c r="T109" s="64">
+        <v>220</v>
+      </c>
+      <c r="U109" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V109" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A110" s="60">
+        <v>3305</v>
+      </c>
+      <c r="B110" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="C110" s="66"/>
+      <c r="D110" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="E110" s="59">
+        <v>20</v>
+      </c>
+      <c r="F110" s="59">
+        <v>29</v>
+      </c>
+      <c r="G110" s="59">
+        <v>6.1</v>
+      </c>
+      <c r="H110" s="59">
+        <v>8.1</v>
+      </c>
+      <c r="I110" s="59">
+        <v>7.2</v>
+      </c>
+      <c r="J110" s="59">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K110" s="60">
+        <v>178</v>
+      </c>
+      <c r="L110" s="60">
+        <v>432</v>
+      </c>
+      <c r="M110" s="59">
+        <v>0.6</v>
+      </c>
+      <c r="N110" s="59">
+        <v>2.7</v>
+      </c>
+      <c r="O110" s="59">
+        <v>0.3</v>
+      </c>
+      <c r="P110" s="59">
+        <v>4.2</v>
+      </c>
+      <c r="Q110" s="60">
+        <v>2</v>
+      </c>
+      <c r="R110" s="60">
+        <v>12</v>
+      </c>
+      <c r="S110" s="60">
+        <v>20</v>
+      </c>
+      <c r="T110" s="60">
+        <v>70</v>
+      </c>
+      <c r="U110" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V110" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A111" s="60">
+        <v>3828</v>
+      </c>
+      <c r="B111" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="C111" s="66"/>
+      <c r="D111" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="E111" s="59">
+        <v>18</v>
+      </c>
+      <c r="F111" s="59">
+        <v>24</v>
+      </c>
+      <c r="G111" s="59">
+        <v>6.9</v>
+      </c>
+      <c r="H111" s="59">
+        <v>10.8</v>
+      </c>
+      <c r="I111" s="59">
+        <v>7.3</v>
+      </c>
+      <c r="J111" s="59">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K111" s="60">
+        <v>171</v>
+      </c>
+      <c r="L111" s="60">
+        <v>468</v>
+      </c>
+      <c r="M111" s="59">
+        <v>1.2</v>
+      </c>
+      <c r="N111" s="59">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O111" s="59">
+        <v>0.2</v>
+      </c>
+      <c r="P111" s="59">
+        <v>1.3</v>
+      </c>
+      <c r="Q111" s="60">
+        <v>2</v>
+      </c>
+      <c r="R111" s="60">
+        <v>40</v>
+      </c>
+      <c r="S111" s="60">
+        <v>31</v>
+      </c>
+      <c r="T111" s="60">
+        <v>210</v>
+      </c>
+      <c r="U111" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V111" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A112" s="64">
+        <v>3829</v>
+      </c>
+      <c r="B112" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="C112" s="69"/>
+      <c r="D112" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112" s="63">
+        <v>19</v>
+      </c>
+      <c r="F112" s="63">
+        <v>26</v>
+      </c>
+      <c r="G112" s="63">
+        <v>6.8</v>
+      </c>
+      <c r="H112" s="63">
+        <v>7.7</v>
+      </c>
+      <c r="I112" s="63">
+        <v>7.3</v>
+      </c>
+      <c r="J112" s="63">
+        <v>8.6</v>
+      </c>
+      <c r="K112" s="64">
+        <v>287</v>
+      </c>
+      <c r="L112" s="64">
+        <v>511</v>
+      </c>
+      <c r="M112" s="63">
+        <v>1.5</v>
+      </c>
+      <c r="N112" s="63">
+        <v>2</v>
+      </c>
+      <c r="O112" s="63">
+        <v>0.3</v>
+      </c>
+      <c r="P112" s="63">
+        <v>4.3</v>
+      </c>
+      <c r="Q112" s="64">
+        <v>2</v>
+      </c>
+      <c r="R112" s="64">
+        <v>17</v>
+      </c>
+      <c r="S112" s="64">
+        <v>31</v>
+      </c>
+      <c r="T112" s="64">
+        <v>140</v>
+      </c>
+      <c r="U112" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V112" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A113" s="60">
+        <v>3326</v>
+      </c>
+      <c r="B113" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="C113" s="66"/>
+      <c r="D113" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E113" s="59">
+        <v>24</v>
+      </c>
+      <c r="F113" s="59">
+        <v>29</v>
+      </c>
+      <c r="G113" s="59">
+        <v>5</v>
+      </c>
+      <c r="H113" s="59">
+        <v>6.4</v>
+      </c>
+      <c r="I113" s="59">
+        <v>7.4</v>
+      </c>
+      <c r="J113" s="59">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K113" s="60">
+        <v>168</v>
+      </c>
+      <c r="L113" s="60">
+        <v>561</v>
+      </c>
+      <c r="M113" s="59">
+        <v>1.3</v>
+      </c>
+      <c r="N113" s="59">
+        <v>2.7</v>
+      </c>
+      <c r="O113" s="59">
+        <v>0.4</v>
+      </c>
+      <c r="P113" s="59">
+        <v>1.9</v>
+      </c>
+      <c r="Q113" s="60">
+        <v>2</v>
+      </c>
+      <c r="R113" s="60">
+        <v>34</v>
+      </c>
+      <c r="S113" s="60">
+        <v>26</v>
+      </c>
+      <c r="T113" s="60">
+        <v>280</v>
+      </c>
+      <c r="U113" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V113" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="113">
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B40:C40"/>
@@ -4368,5 +9389,6 @@
     <mergeCell ref="B10:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>